--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Battle 1" sheetId="1" r:id="rId1"/>
     <sheet name="Battle 2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>NAME</t>
   </si>
@@ -26,18 +31,12 @@
     <t>MONS</t>
   </si>
   <si>
-    <t>ROBO</t>
-  </si>
-  <si>
     <t>LongSword</t>
   </si>
   <si>
     <t>Nail</t>
   </si>
   <si>
-    <t>Colt</t>
-  </si>
-  <si>
     <t>Goblin</t>
   </si>
   <si>
@@ -96,16 +95,13 @@
   </si>
   <si>
     <t>Index</t>
-  </si>
-  <si>
-    <t>DarkRose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -144,6 +140,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -192,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +223,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,14 +434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -451,54 +452,54 @@
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -507,102 +508,78 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
       <c r="M2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A6" si="0">B3</f>
+        <f t="shared" ref="A3:A5" si="0">B3</f>
         <v>MONS</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>ROBO</v>
+        <v>Goblin</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>Goblin</v>
+        <v>Jaguar</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>DarkRose</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -611,75 +588,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>MUTE</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -688,16 +665,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Spider</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>NAME</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Cursed</t>
+  </si>
+  <si>
+    <t>Stunned</t>
+  </si>
+  <si>
+    <t>Paralyzed</t>
+  </si>
+  <si>
+    <t>Poisoned</t>
+  </si>
+  <si>
+    <t>Confused</t>
+  </si>
+  <si>
+    <t>Blinded</t>
+  </si>
+  <si>
+    <t>Stoned</t>
+  </si>
+  <si>
+    <t>Dead</t>
   </si>
 </sst>
 </file>
@@ -435,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -450,9 +474,10 @@
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -493,13 +518,34 @@
         <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -523,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A5" si="0">B3</f>
         <v>MONS</v>
@@ -547,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Goblin</v>
@@ -559,10 +605,10 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Jaguar</v>
@@ -574,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>NAME</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Stoned</t>
-  </si>
-  <si>
-    <t>Dead</t>
   </si>
 </sst>
 </file>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -474,10 +471,10 @@
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -539,13 +536,10 @@
         <v>29</v>
       </c>
       <c r="U1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -569,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A5" si="0">B3</f>
         <v>MONS</v>
@@ -593,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Goblin</v>
@@ -608,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Jaguar</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="Battle 1" sheetId="1" r:id="rId1"/>
     <sheet name="Battle 2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>NAME</t>
   </si>
@@ -38,9 +33,6 @@
   </si>
   <si>
     <t>Goblin</t>
-  </si>
-  <si>
-    <t>Jaguar</t>
   </si>
   <si>
     <t>Position</t>
@@ -121,8 +113,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -212,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,10 +236,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -474,72 +464,72 @@
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -548,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -560,19 +550,19 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A5" si="0">B3</f>
+        <f t="shared" ref="A3:A4" si="0">B3</f>
         <v>MONS</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -587,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Goblin</v>
@@ -596,25 +586,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Jaguar</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -628,75 +603,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="str">
         <f>B2</f>
         <v>MUTE</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -705,16 +680,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Spider</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Battle 1" sheetId="1" r:id="rId1"/>
     <sheet name="Battle 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Battle 3" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
   <si>
     <t>NAME</t>
   </si>
@@ -41,9 +47,6 @@
     <t>MUTE</t>
   </si>
   <si>
-    <t>Spider</t>
-  </si>
-  <si>
     <t>Initiative</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
     <t>Enemy</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -108,13 +108,19 @@
   </si>
   <si>
     <t>Stoned</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>RapierSword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -204,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +242,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +453,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -464,72 +473,72 @@
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -538,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -553,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A4" si="0">B3</f>
         <v>MONS</v>
@@ -562,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -577,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Goblin</v>
@@ -586,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -603,66 +612,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>MUTE</v>
@@ -671,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -679,17 +713,23 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
-        <v>Spider</v>
+        <v>Eagle</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -698,4 +738,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>HUME</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A4" si="0">B3</f>
+        <v>MONS</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Goblin</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="2"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Battle 2" sheetId="3" r:id="rId2"/>
     <sheet name="Battle 3" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>NAME</t>
   </si>
@@ -113,14 +108,20 @@
     <t>Eagle</t>
   </si>
   <si>
-    <t>RapierSword</t>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>DragonShield</t>
+  </si>
+  <si>
+    <t>Rapier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -210,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,15 +452,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -473,7 +472,7 @@
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -538,7 +537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -562,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A4" si="0">B3</f>
         <v>MONS</v>
@@ -586,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Goblin</v>
@@ -602,25 +601,20 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -631,7 +625,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -696,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="str">
         <f>B2</f>
         <v>MUTE</v>
@@ -714,13 +708,13 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Eagle</v>
@@ -741,15 +735,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -761,7 +755,7 @@
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -826,7 +820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -841,60 +835,28 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A4" si="0">B3</f>
-        <v>MONS</v>
+        <f t="shared" ref="A3" si="0">B3</f>
+        <v>Jaguar</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Goblin</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Battle 1" sheetId="1" r:id="rId1"/>
     <sheet name="Battle 2" sheetId="3" r:id="rId2"/>
     <sheet name="Battle 3" sheetId="7" r:id="rId3"/>
+    <sheet name="Battle 4" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
   <si>
     <t>NAME</t>
   </si>
@@ -115,6 +116,12 @@
   </si>
   <si>
     <t>Rapier</t>
+  </si>
+  <si>
+    <t>Zappo</t>
+  </si>
+  <si>
+    <t>Fire</t>
   </si>
 </sst>
 </file>
@@ -457,7 +464,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -739,7 +746,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -859,4 +866,132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Zappo</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Battle 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Battle 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Battle 3" sheetId="7" r:id="rId3"/>
-    <sheet name="Battle 4" sheetId="9" r:id="rId4"/>
+    <sheet name="Single STR" sheetId="1" r:id="rId1"/>
+    <sheet name="Single AGL" sheetId="3" r:id="rId2"/>
+    <sheet name="Shield" sheetId="7" r:id="rId3"/>
+    <sheet name="Group MANA - PC" sheetId="9" r:id="rId4"/>
+    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId5"/>
+    <sheet name="All Enemies - PC" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
   <si>
     <t>NAME</t>
   </si>
@@ -122,6 +124,21 @@
   </si>
   <si>
     <t>Fire</t>
+  </si>
+  <si>
+    <t>ROBO</t>
+  </si>
+  <si>
+    <t>Jerk</t>
+  </si>
+  <si>
+    <t>ColtGun</t>
+  </si>
+  <si>
+    <t>Flammie</t>
+  </si>
+  <si>
+    <t>Flame</t>
   </si>
 </sst>
 </file>
@@ -872,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -994,4 +1011,359 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>HUME</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>MUTE</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A6" si="0">B4</f>
+        <v>MONS</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>ROBO</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jerk</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Flammie</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A6" si="0">B4</f>
+        <v>Jaguar</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Eagle</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Single STR" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Group MANA - PC" sheetId="9" r:id="rId4"/>
     <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId5"/>
     <sheet name="All Enemies - PC" sheetId="13" r:id="rId6"/>
+    <sheet name="Static DMG" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="40">
   <si>
     <t>NAME</t>
   </si>
@@ -132,13 +133,13 @@
     <t>Jerk</t>
   </si>
   <si>
-    <t>ColtGun</t>
-  </si>
-  <si>
     <t>Flammie</t>
   </si>
   <si>
     <t>Flame</t>
+  </si>
+  <si>
+    <t>Colt</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1019,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1187,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -1217,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1303,7 +1304,7 @@
         <v>Flammie</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1315,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1335,7 +1336,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A6" si="0">B4</f>
+        <f t="shared" ref="A4:A5" si="0">B4</f>
         <v>Jaguar</v>
       </c>
       <c r="B4" t="s">
@@ -1366,4 +1367,133 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>ROBO</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3" si="0">B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Single STR" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId5"/>
     <sheet name="All Enemies - PC" sheetId="13" r:id="rId6"/>
     <sheet name="Static DMG" sheetId="14" r:id="rId7"/>
+    <sheet name="Group Static" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="41">
   <si>
     <t>NAME</t>
   </si>
@@ -140,6 +141,9 @@
   </si>
   <si>
     <t>Colt</t>
+  </si>
+  <si>
+    <t>SMG</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1496,4 +1500,132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>ROBO</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438CE05C-2FF6-4E67-BCEA-217481883518}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Single STR" sheetId="1" r:id="rId1"/>
-    <sheet name="Single AGL" sheetId="3" r:id="rId2"/>
-    <sheet name="Shield" sheetId="7" r:id="rId3"/>
-    <sheet name="Group MANA - PC" sheetId="9" r:id="rId4"/>
-    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId5"/>
-    <sheet name="All Enemies - PC" sheetId="13" r:id="rId6"/>
-    <sheet name="Static DMG" sheetId="14" r:id="rId7"/>
-    <sheet name="Group Static" sheetId="15" r:id="rId8"/>
+    <sheet name="Players" sheetId="16" r:id="rId1"/>
+    <sheet name="Single STR" sheetId="1" r:id="rId2"/>
+    <sheet name="Single AGL" sheetId="3" r:id="rId3"/>
+    <sheet name="Shield" sheetId="7" r:id="rId4"/>
+    <sheet name="Group MANA - PC" sheetId="9" r:id="rId5"/>
+    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId6"/>
+    <sheet name="All Enemies - PC" sheetId="13" r:id="rId7"/>
+    <sheet name="Static DMG" sheetId="14" r:id="rId8"/>
+    <sheet name="Group Static" sheetId="15" r:id="rId9"/>
+    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId10"/>
+    <sheet name="PC Cure - Item" sheetId="18" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="67">
   <si>
     <t>NAME</t>
   </si>
@@ -32,9 +41,6 @@
     <t>MONS</t>
   </si>
   <si>
-    <t>LongSword</t>
-  </si>
-  <si>
     <t>Nail</t>
   </si>
   <si>
@@ -116,9 +122,6 @@
     <t>Jaguar</t>
   </si>
   <si>
-    <t>DragonShield</t>
-  </si>
-  <si>
     <t>Rapier</t>
   </si>
   <si>
@@ -143,19 +146,124 @@
     <t>Colt</t>
   </si>
   <si>
-    <t>SMG</t>
+    <t>BabyD</t>
+  </si>
+  <si>
+    <t>Mutant</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>AGL</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>Long Sword</t>
+  </si>
+  <si>
+    <t>Bronze Armor</t>
+  </si>
+  <si>
+    <t>Dragon Shield</t>
+  </si>
+  <si>
+    <t>Gold Armor</t>
+  </si>
+  <si>
+    <t>SMG Gun</t>
+  </si>
+  <si>
+    <t>Colt Gun</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>Cure Potion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,14 +283,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9DABA29D-F777-47A0-A48E-1316C9ED2915}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -240,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +385,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +437,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,15 +630,641 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5ADEB8-F7B1-46C0-9957-CEA833A44FA7}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A7" si="0">B2</f>
+        <v>HUME</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E7" si="1">IF(D2="Human",0,IF(D2="Mutant",1,IF(D2="Robot",3,2)))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MUTE</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MONS</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ROBO</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Zappo</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>200</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>99</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Flammie</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>99</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1006FC48-2C9E-47D4-B181-3EF632118273}">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Zappo</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Flammie</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>B4</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867063E5-FD23-4605-BAE9-258F8B0EFA4D}">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Zappo</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Flammie</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>B4</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -501,72 +1276,72 @@
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -575,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -584,13 +1359,13 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A4" si="0">B3</f>
         <v>MONS</v>
@@ -599,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -608,22 +1383,22 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Goblin</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -634,8 +1409,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -643,7 +1418,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -654,81 +1429,81 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>MUTE</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -737,22 +1512,22 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Eagle</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -763,16 +1538,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -784,72 +1559,72 @@
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -858,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -867,19 +1642,19 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3" si="0">B3</f>
         <v>Jaguar</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -890,15 +1665,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -909,81 +1684,81 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>Zappo</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -992,22 +1767,22 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Goblin</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1018,15 +1793,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -1037,72 +1812,72 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -1111,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1120,22 +1895,22 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>MUTE</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1144,13 +1919,13 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A6" si="0">B4</f>
         <v>MONS</v>
@@ -1159,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1168,22 +1943,22 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ROBO</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1192,22 +1967,22 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Jerk</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1218,15 +1993,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -1237,81 +2012,81 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>Flammie</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1320,49 +2095,49 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Goblin</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A5" si="0">B4</f>
         <v>Jaguar</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Eagle</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1373,15 +2148,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -1393,81 +2168,81 @@
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>ROBO</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1476,22 +2251,22 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3" si="0">B3</f>
         <v>Goblin</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1502,15 +2277,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -1521,81 +2296,81 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>ROBO</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1604,22 +2379,22 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Goblin</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>8</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438CE05C-2FF6-4E67-BCEA-217481883518}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -24,13 +23,14 @@
     <sheet name="Group Static" sheetId="15" r:id="rId9"/>
     <sheet name="PC Cure - Magic" sheetId="17" r:id="rId10"/>
     <sheet name="PC Cure - Item" sheetId="18" r:id="rId11"/>
+    <sheet name="PC All Heal" sheetId="19" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="69">
   <si>
     <t>NAME</t>
   </si>
@@ -231,12 +231,18 @@
   </si>
   <si>
     <t>Cure Potion</t>
+  </si>
+  <si>
+    <t>Asleep</t>
+  </si>
+  <si>
+    <t>Heal Staff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -295,7 +301,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9DABA29D-F777-47A0-A48E-1316C9ED2915}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,23 +392,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -438,23 +427,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,11 +602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5ADEB8-F7B1-46C0-9957-CEA833A44FA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,6 +871,9 @@
       <c r="M6" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="N6" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
@@ -946,11 +921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1006FC48-2C9E-47D4-B181-3EF632118273}">
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -964,7 +939,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1017,19 +992,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>Zappo</v>
@@ -1053,7 +1031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Flammie</v>
@@ -1080,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>B4</f>
         <v>Goblin</v>
@@ -1101,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867063E5-FD23-4605-BAE9-258F8B0EFA4D}">
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1119,7 +1097,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1172,19 +1150,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>Zappo</v>
@@ -1211,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Flammie</v>
@@ -1235,7 +1216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>B4</f>
         <v>Goblin</v>
@@ -1255,13 +1236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U4"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1273,10 +1253,10 @@
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1329,19 +1309,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -1356,6 +1339,163 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A4" si="0">B3</f>
+        <v>Jaguar</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Zappo</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>HUME</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
@@ -1365,7 +1505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A4" si="0">B3</f>
         <v>MONS</v>
@@ -1389,7 +1529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Goblin</v>
@@ -1410,12 +1550,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1569,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1482,19 +1622,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>MUTE</v>
@@ -1518,7 +1661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Eagle</v>
@@ -1539,12 +1682,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1556,10 +1699,10 @@
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1612,19 +1755,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -1645,7 +1791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3" si="0">B3</f>
         <v>Jaguar</v>
@@ -1666,11 +1812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1684,7 +1830,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1737,19 +1883,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>Zappo</v>
@@ -1773,7 +1922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Goblin</v>
@@ -1794,11 +1943,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1812,7 +1961,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1865,19 +2014,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>HUME</v>
@@ -1901,7 +2053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>MUTE</v>
@@ -1925,7 +2077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A6" si="0">B4</f>
         <v>MONS</v>
@@ -1949,7 +2101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ROBO</v>
@@ -1973,7 +2125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Jerk</v>
@@ -1994,11 +2146,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2012,7 +2164,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2065,19 +2217,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>Flammie</v>
@@ -2098,7 +2253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Goblin</v>
@@ -2113,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A5" si="0">B4</f>
         <v>Jaguar</v>
@@ -2128,7 +2283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Eagle</v>
@@ -2149,11 +2304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2165,10 +2320,10 @@
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2221,19 +2376,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>ROBO</v>
@@ -2257,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3" si="0">B3</f>
         <v>Goblin</v>
@@ -2278,11 +2436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2296,7 +2454,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2349,19 +2507,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2</f>
         <v>ROBO</v>
@@ -2385,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Goblin</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3A275-3B4D-42C1-B37B-8EEFC153984D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -25,12 +26,12 @@
     <sheet name="PC Cure - Item" sheetId="18" r:id="rId11"/>
     <sheet name="PC All Heal" sheetId="19" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="69">
   <si>
     <t>NAME</t>
   </si>
@@ -143,9 +144,6 @@
     <t>Flame</t>
   </si>
   <si>
-    <t>Colt</t>
-  </si>
-  <si>
     <t>BabyD</t>
   </si>
   <si>
@@ -237,18 +235,35 @@
   </si>
   <si>
     <t>Heal Staff</t>
+  </si>
+  <si>
+    <t>O-Ice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -291,17 +306,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,6 +409,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -427,6 +461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,11 +653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,55 +677,55 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -686,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E7" si="1">IF(D2="Human",0,IF(D2="Mutant",1,IF(D2="Robot",3,2)))</f>
@@ -708,13 +759,13 @@
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -726,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
@@ -751,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>30</v>
@@ -766,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
@@ -792,6 +843,9 @@
       </c>
       <c r="L4" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -803,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
@@ -824,11 +878,11 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>37</v>
+      <c r="K5" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -841,7 +895,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
@@ -866,13 +920,13 @@
         <v>32</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -884,7 +938,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
@@ -912,7 +966,7 @@
         <v>36</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -992,7 +1046,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1025,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
@@ -1079,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1150,7 +1204,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1210,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -1237,10 +1291,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1309,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1345,7 +1399,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1384,7 +1438,7 @@
         <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -1466,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1499,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -1550,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -1622,7 +1676,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1682,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -1755,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1788,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1812,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1883,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1943,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2014,7 +2068,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2047,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
@@ -2119,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -2146,7 +2200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2217,7 +2271,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2304,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2376,7 +2430,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2409,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -2436,7 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2507,7 +2561,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2540,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3A275-3B4D-42C1-B37B-8EEFC153984D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFD9898-0B4D-4783-A17D-24B63D35237D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="70">
   <si>
     <t>NAME</t>
   </si>
@@ -238,18 +238,28 @@
   </si>
   <si>
     <t>O-Ice</t>
+  </si>
+  <si>
+    <t>Dragon Armor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -306,11 +316,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -656,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,6 +938,9 @@
       </c>
       <c r="N6" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1869,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFD9898-0B4D-4783-A17D-24B63D35237D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -22,16 +21,17 @@
     <sheet name="All Enemies - PC" sheetId="13" r:id="rId7"/>
     <sheet name="Static DMG" sheetId="14" r:id="rId8"/>
     <sheet name="Group Static" sheetId="15" r:id="rId9"/>
-    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId10"/>
-    <sheet name="PC Cure - Item" sheetId="18" r:id="rId11"/>
-    <sheet name="PC All Heal" sheetId="19" r:id="rId12"/>
+    <sheet name="O-Weapon" sheetId="20" r:id="rId10"/>
+    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId11"/>
+    <sheet name="PC Cure - Item" sheetId="18" r:id="rId12"/>
+    <sheet name="PC All Heal" sheetId="19" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="71">
   <si>
     <t>NAME</t>
   </si>
@@ -241,12 +241,15 @@
   </si>
   <si>
     <t>Dragon Armor</t>
+  </si>
+  <si>
+    <t>Skelton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -329,7 +332,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,23 +423,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -472,23 +458,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -989,7 +958,138 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>ROBO</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Skelton</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1146,8 +1246,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1304,8 +1404,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1461,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -1618,7 +1718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -1750,7 +1850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -1880,10 +1980,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
@@ -2011,7 +2111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2214,7 +2314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2372,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2504,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104E263-C1DA-485B-A149-8A1A53A1399E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -25,13 +26,14 @@
     <sheet name="PC Cure - Magic" sheetId="17" r:id="rId11"/>
     <sheet name="PC Cure - Item" sheetId="18" r:id="rId12"/>
     <sheet name="PC All Heal" sheetId="19" r:id="rId13"/>
+    <sheet name="Status Effect" sheetId="21" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="73">
   <si>
     <t>NAME</t>
   </si>
@@ -244,12 +246,18 @@
   </si>
   <si>
     <t>Skelton</t>
+  </si>
+  <si>
+    <t>Ghoul</t>
+  </si>
+  <si>
+    <t>ParaNail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -332,7 +340,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,6 +431,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -458,6 +483,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -958,11 +1000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1089,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1247,7 +1289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1405,7 +1447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1560,8 +1602,145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7D7FE-6694-44E8-A7B5-C26EAA80FD43}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Zappo</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Ghoul</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -1718,7 +1897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -1850,7 +2029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -1980,7 +2159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2111,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2314,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2472,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2604,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104E263-C1DA-485B-A149-8A1A53A1399E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BE38C-8967-45D4-AE41-BDC01FD15962}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="PC Cure - Item" sheetId="18" r:id="rId12"/>
     <sheet name="PC All Heal" sheetId="19" r:id="rId13"/>
     <sheet name="Status Effect" sheetId="21" r:id="rId14"/>
+    <sheet name="Group Status" sheetId="22" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="73">
   <si>
     <t>NAME</t>
   </si>
@@ -251,7 +252,7 @@
     <t>Ghoul</t>
   </si>
   <si>
-    <t>ParaNail</t>
+    <t>Mushroom</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7D7FE-6694-44E8-A7B5-C26EAA80FD43}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1727,11 +1728,136 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EFE904-35AC-40B7-AEAE-FF0587D49733}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Zappo</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Mushroom</v>
+      </c>
+      <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="M3" t="s">
-        <v>31</v>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BE38C-8967-45D4-AE41-BDC01FD15962}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -20,21 +19,22 @@
     <sheet name="Group MANA - PC" sheetId="9" r:id="rId5"/>
     <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId6"/>
     <sheet name="All Enemies - PC" sheetId="13" r:id="rId7"/>
-    <sheet name="Static DMG" sheetId="14" r:id="rId8"/>
-    <sheet name="Group Static" sheetId="15" r:id="rId9"/>
-    <sheet name="O-Weapon" sheetId="20" r:id="rId10"/>
-    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId11"/>
-    <sheet name="PC Cure - Item" sheetId="18" r:id="rId12"/>
-    <sheet name="PC All Heal" sheetId="19" r:id="rId13"/>
-    <sheet name="Status Effect" sheetId="21" r:id="rId14"/>
-    <sheet name="Group Status" sheetId="22" r:id="rId15"/>
+    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId8"/>
+    <sheet name="Static DMG" sheetId="14" r:id="rId9"/>
+    <sheet name="Group Static" sheetId="15" r:id="rId10"/>
+    <sheet name="O-Weapon" sheetId="20" r:id="rId11"/>
+    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId12"/>
+    <sheet name="PC Cure - Item" sheetId="18" r:id="rId13"/>
+    <sheet name="PC All Heal" sheetId="19" r:id="rId14"/>
+    <sheet name="Status Effect" sheetId="21" r:id="rId15"/>
+    <sheet name="Group Status" sheetId="22" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="74">
   <si>
     <t>NAME</t>
   </si>
@@ -253,12 +253,15 @@
   </si>
   <si>
     <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Asigaru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -341,7 +344,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,23 +435,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -484,23 +470,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1001,7 +970,138 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>ROBO</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1131,8 +1231,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1289,8 +1389,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1447,8 +1547,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1603,8 +1703,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7D7FE-6694-44E8-A7B5-C26EAA80FD43}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1734,11 +1834,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EFE904-35AC-40B7-AEAE-FF0587D49733}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1866,7 +1966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -2023,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2155,7 +2255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2285,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2416,7 +2516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2619,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2777,7 +2877,165 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Flammie</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A5" si="0">B4</f>
+        <v>Jaguar</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Asigaru</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2906,135 +3164,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:V3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>ROBO</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Goblin</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321843F-3F2F-44AA-9C86-CA8D397FB346}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -18,23 +19,24 @@
     <sheet name="Shield" sheetId="7" r:id="rId4"/>
     <sheet name="Group MANA - PC" sheetId="9" r:id="rId5"/>
     <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId6"/>
-    <sheet name="All Enemies - PC" sheetId="13" r:id="rId7"/>
-    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId8"/>
-    <sheet name="Static DMG" sheetId="14" r:id="rId9"/>
-    <sheet name="Group Static" sheetId="15" r:id="rId10"/>
-    <sheet name="O-Weapon" sheetId="20" r:id="rId11"/>
-    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId12"/>
-    <sheet name="PC Cure - Item" sheetId="18" r:id="rId13"/>
-    <sheet name="PC All Heal" sheetId="19" r:id="rId14"/>
-    <sheet name="Status Effect" sheetId="21" r:id="rId15"/>
-    <sheet name="Group Status" sheetId="22" r:id="rId16"/>
+    <sheet name="Barrier" sheetId="24" r:id="rId7"/>
+    <sheet name="All Enemies - PC" sheetId="13" r:id="rId8"/>
+    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId9"/>
+    <sheet name="Static DMG" sheetId="14" r:id="rId10"/>
+    <sheet name="Group Static" sheetId="15" r:id="rId11"/>
+    <sheet name="O-Weapon" sheetId="20" r:id="rId12"/>
+    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId13"/>
+    <sheet name="PC Cure - Item" sheetId="18" r:id="rId14"/>
+    <sheet name="PC All Heal" sheetId="19" r:id="rId15"/>
+    <sheet name="Status Effect" sheetId="21" r:id="rId16"/>
+    <sheet name="Group Status" sheetId="22" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="74">
   <si>
     <t>NAME</t>
   </si>
@@ -261,7 +263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -344,7 +346,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,6 +437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -470,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -970,7 +1006,139 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>ROBO</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3" si="0">B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1100,8 +1268,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1231,8 +1399,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1389,8 +1557,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1547,8 +1715,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1703,8 +1871,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1834,8 +2002,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1966,7 +2134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -2123,7 +2291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2255,7 +2423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2385,7 +2553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2516,7 +2684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2719,7 +2887,207 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F98AF7-8E3D-45C6-AFB8-33EA9A022B6D}">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>HUME</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>MUTE</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A6" si="0">B4</f>
+        <v>MONS</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>ROBO</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jerk</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2876,11 +3244,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3032,136 +3400,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>ROBO</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3" si="0">B3</f>
-        <v>Goblin</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321843F-3F2F-44AA-9C86-CA8D397FB346}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -263,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -346,7 +345,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,23 +436,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -489,23 +471,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,7 +646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1006,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1138,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1269,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1400,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1558,7 +1523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1716,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1872,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,10 +1968,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2134,7 +2099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -2291,7 +2256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2423,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2553,7 +2518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2684,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2887,10 +2852,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F98AF7-8E3D-45C6-AFB8-33EA9A022B6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -3087,7 +3052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3245,7 +3210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6771E2A0-8E11-4726-AE94-96F5BFFACD13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12840" tabRatio="838" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -148,9 +149,6 @@
     <t>Flame</t>
   </si>
   <si>
-    <t>BabyD</t>
-  </si>
-  <si>
     <t>Mutant</t>
   </si>
   <si>
@@ -257,18 +255,28 @@
   </si>
   <si>
     <t>Asigaru</t>
+  </si>
+  <si>
+    <t>Baby-D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -332,11 +340,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -345,7 +354,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -471,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -646,11 +689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,55 +713,55 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -730,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E7" si="1">IF(D2="Human",0,IF(D2="Mutant",1,IF(D2="Robot",3,2)))</f>
@@ -752,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -770,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
@@ -795,7 +838,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>30</v>
@@ -809,8 +852,8 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
+      <c r="D4" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
@@ -838,7 +881,7 @@
         <v>36</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -850,7 +893,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
@@ -872,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -888,7 +931,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
@@ -913,16 +956,16 @@
         <v>32</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -933,8 +976,8 @@
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
+      <c r="D7" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
@@ -962,7 +1005,7 @@
         <v>36</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1043,7 +1086,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1076,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -1103,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1174,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1207,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -1234,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1305,7 +1348,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1338,10 +1381,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1350,7 +1393,7 @@
         <v>Skelton</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1365,7 +1408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1436,7 +1479,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1469,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
@@ -1523,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1594,7 +1637,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1654,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -1681,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1753,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1789,7 +1832,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1828,7 +1871,7 @@
         <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1837,7 +1880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1908,7 +1951,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1941,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -1953,7 +1996,7 @@
         <v>Ghoul</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1968,10 +2011,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2039,7 +2082,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2072,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2084,7 +2127,7 @@
         <v>Mushroom</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2099,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -2172,7 +2215,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2205,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -2256,7 +2299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2328,7 +2371,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2388,7 +2431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2461,7 +2504,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2494,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2518,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2589,7 +2632,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2649,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2720,7 +2763,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2753,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
@@ -2825,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -2852,7 +2895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2923,7 +2966,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2956,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -3025,7 +3068,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -3052,7 +3095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3123,7 +3166,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -3210,7 +3253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3281,7 +3324,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -3353,7 +3396,7 @@
         <v>Asigaru</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6771E2A0-8E11-4726-AE94-96F5BFFACD13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FDBFD6-80AC-432C-B444-F6AE083773A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -30,13 +30,15 @@
     <sheet name="PC All Heal" sheetId="19" r:id="rId15"/>
     <sheet name="Status Effect" sheetId="21" r:id="rId16"/>
     <sheet name="Group Status" sheetId="22" r:id="rId17"/>
+    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId18"/>
+    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="80">
   <si>
     <t>NAME</t>
   </si>
@@ -258,18 +260,57 @@
   </si>
   <si>
     <t>Baby-D</t>
+  </si>
+  <si>
+    <t>Slashy</t>
+  </si>
+  <si>
+    <t>Flame Sword</t>
+  </si>
+  <si>
+    <t>MAGI</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>Coral Sword</t>
+  </si>
+  <si>
+    <t>Moth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -340,11 +381,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -690,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,10 +749,13 @@
     <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="20.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -763,10 +810,16 @@
       <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A7" si="0">B2</f>
+        <f t="shared" ref="A2:A8" si="0">B2</f>
         <v>HUME</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -776,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E7" si="1">IF(D2="Human",0,IF(D2="Mutant",1,IF(D2="Robot",3,2)))</f>
+        <f t="shared" ref="E2:E8" si="1">IF(D2="Human",0,IF(D2="Mutant",1,IF(D2="Robot",3,2)))</f>
         <v>0</v>
       </c>
       <c r="F2" s="1">
@@ -804,7 +857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MUTE</v>
@@ -844,7 +897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MONS</v>
@@ -884,7 +937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROBO</v>
@@ -922,7 +975,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Zappo</v>
@@ -968,7 +1021,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Flammie</v>
@@ -1006,6 +1059,43 @@
       </c>
       <c r="M7" s="3" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Slashy</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>400</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2134,6 +2224,268 @@
       </c>
       <c r="D3">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409A1116-4461-47A9-88CD-B9FECC587ADD}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Slashy</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Skelton</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB4AEA-0818-4141-9E54-A13B42F0DE11}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Slashy</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Moth</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FDBFD6-80AC-432C-B444-F6AE083773A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45A9D9-DB91-41F9-A17C-523F64FF6CA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -30,15 +30,16 @@
     <sheet name="PC All Heal" sheetId="19" r:id="rId15"/>
     <sheet name="Status Effect" sheetId="21" r:id="rId16"/>
     <sheet name="Group Status" sheetId="22" r:id="rId17"/>
-    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId18"/>
-    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId19"/>
+    <sheet name="All Enemies - Status" sheetId="28" r:id="rId18"/>
+    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId19"/>
+    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="83">
   <si>
     <t>NAME</t>
   </si>
@@ -151,15 +152,9 @@
     <t>Flame</t>
   </si>
   <si>
-    <t>Mutant</t>
-  </si>
-  <si>
     <t>Robot</t>
   </si>
   <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>S7</t>
   </si>
   <si>
@@ -199,9 +194,6 @@
     <t>HP</t>
   </si>
   <si>
-    <t>TYPE</t>
-  </si>
-  <si>
     <t>CLASS</t>
   </si>
   <si>
@@ -278,18 +270,50 @@
   </si>
   <si>
     <t>Moth</t>
+  </si>
+  <si>
+    <t>SuperJerk</t>
+  </si>
+  <si>
+    <t>O-Pa/Po</t>
+  </si>
+  <si>
+    <t>Human M</t>
+  </si>
+  <si>
+    <t>Mutant F</t>
+  </si>
+  <si>
+    <t>Mutant M</t>
+  </si>
+  <si>
+    <t>Human F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -381,11 +405,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -734,90 +760,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="20.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A8" si="0">B2</f>
         <v>HUME</v>
@@ -825,39 +848,35 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
+      <c r="D2" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E8" si="1">IF(D2="Human",0,IF(D2="Mutant",1,IF(D2="Robot",3,2)))</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
+      <c r="J2" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MUTE</v>
@@ -865,39 +884,35 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
+      <c r="D3" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="O3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MONS</v>
@@ -906,38 +921,34 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
         <v>6</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROBO</v>
@@ -946,36 +957,34 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Zappo</v>
@@ -983,45 +992,41 @@
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
+      <c r="D6" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="H6" s="1">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
         <v>6</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Flammie</v>
@@ -1030,72 +1035,64 @@
         <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
-        <v>999</v>
-      </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="H7" s="1">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1">
         <v>10</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Slashy</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" s="1">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="J8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1173,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1209,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -1307,7 +1304,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1340,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -1438,7 +1435,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1471,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1483,7 +1480,7 @@
         <v>Skelton</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1569,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1602,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
@@ -1727,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1787,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -1886,7 +1883,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1922,7 +1919,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1961,7 +1958,7 @@
         <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2038,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2074,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2086,7 +2083,7 @@
         <v>Ghoul</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2172,7 +2169,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2205,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2217,7 +2214,7 @@
         <v>Mushroom</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2232,6 +2229,209 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3B29AC-4EE3-4787-96AC-654F35FC0E64}">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>HUME</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>MUTE</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A6" si="0">B4</f>
+        <v>MONS</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>ROBO</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>SuperJerk</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409A1116-4461-47A9-88CD-B9FECC587ADD}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2303,7 +2503,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2324,7 +2524,7 @@
         <v>Slashy</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2336,10 +2536,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2348,7 +2548,7 @@
         <v>Skelton</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2362,11 +2562,168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>HUME</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A4" si="0">B3</f>
+        <v>MONS</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Goblin</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB4AEA-0818-4141-9E54-A13B42F0DE11}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2434,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2455,7 +2812,7 @@
         <v>Slashy</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2467,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2479,170 +2836,13 @@
         <v>Moth</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V4"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>HUME</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A4" si="0">B3</f>
-        <v>MONS</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Goblin</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2723,7 +2923,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2856,7 +3056,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -2889,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2984,7 +3184,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -3115,7 +3315,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -3148,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
@@ -3220,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -3318,7 +3518,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -3351,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -3420,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -3518,7 +3718,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -3676,7 +3876,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -3748,7 +3948,7 @@
         <v>Asigaru</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,38 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45A9D9-DB91-41F9-A17C-523F64FF6CA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158C319-5CF4-4A0C-8CD3-886B6B86A22E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
     <sheet name="Single STR" sheetId="1" r:id="rId2"/>
-    <sheet name="Single AGL" sheetId="3" r:id="rId3"/>
-    <sheet name="Shield" sheetId="7" r:id="rId4"/>
-    <sheet name="Group MANA - PC" sheetId="9" r:id="rId5"/>
-    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId6"/>
-    <sheet name="Barrier" sheetId="24" r:id="rId7"/>
-    <sheet name="All Enemies - PC" sheetId="13" r:id="rId8"/>
-    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId9"/>
-    <sheet name="Static DMG" sheetId="14" r:id="rId10"/>
-    <sheet name="Group Static" sheetId="15" r:id="rId11"/>
-    <sheet name="O-Weapon" sheetId="20" r:id="rId12"/>
-    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId13"/>
-    <sheet name="PC Cure - Item" sheetId="18" r:id="rId14"/>
-    <sheet name="PC All Heal" sheetId="19" r:id="rId15"/>
-    <sheet name="Status Effect" sheetId="21" r:id="rId16"/>
-    <sheet name="Group Status" sheetId="22" r:id="rId17"/>
-    <sheet name="All Enemies - Status" sheetId="28" r:id="rId18"/>
-    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId19"/>
-    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId20"/>
+    <sheet name="Ineffective" sheetId="29" r:id="rId3"/>
+    <sheet name="Single AGL" sheetId="3" r:id="rId4"/>
+    <sheet name="Shield" sheetId="7" r:id="rId5"/>
+    <sheet name="Group MANA - PC" sheetId="9" r:id="rId6"/>
+    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId7"/>
+    <sheet name="Barrier" sheetId="24" r:id="rId8"/>
+    <sheet name="All Enemies - PC" sheetId="13" r:id="rId9"/>
+    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId10"/>
+    <sheet name="Static DMG" sheetId="14" r:id="rId11"/>
+    <sheet name="Group Static" sheetId="15" r:id="rId12"/>
+    <sheet name="O-Weapon" sheetId="20" r:id="rId13"/>
+    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId14"/>
+    <sheet name="PC Cure - Item" sheetId="18" r:id="rId15"/>
+    <sheet name="PC All Heal" sheetId="19" r:id="rId16"/>
+    <sheet name="Status Effect" sheetId="21" r:id="rId17"/>
+    <sheet name="Group Status" sheetId="22" r:id="rId18"/>
+    <sheet name="All Enemies - Status" sheetId="28" r:id="rId19"/>
+    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId20"/>
+    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="83">
   <si>
     <t>NAME</t>
   </si>
@@ -251,9 +252,6 @@
     <t>Asigaru</t>
   </si>
   <si>
-    <t>Baby-D</t>
-  </si>
-  <si>
     <t>Slashy</t>
   </si>
   <si>
@@ -288,6 +286,9 @@
   </si>
   <si>
     <t>Human F</t>
+  </si>
+  <si>
+    <t>Hatchling</t>
   </si>
 </sst>
 </file>
@@ -762,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,11 +834,11 @@
       <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -848,8 +849,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>79</v>
+      <c r="D2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="E2" s="1">
         <v>59</v>
@@ -884,8 +885,8 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>80</v>
+      <c r="D3" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1">
         <v>45</v>
@@ -920,8 +921,8 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>70</v>
+      <c r="D4" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="E4" s="1">
         <v>45</v>
@@ -980,8 +981,8 @@
       <c r="K5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>78</v>
+      <c r="L5" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -992,8 +993,8 @@
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>81</v>
+      <c r="D6" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -1034,8 +1035,8 @@
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>70</v>
+      <c r="D7" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="E7" s="1">
         <v>999</v>
@@ -1067,11 +1068,11 @@
         <f t="shared" si="0"/>
         <v>Slashy</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>82</v>
+      <c r="B8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="1">
         <v>400</v>
@@ -1088,11 +1089,11 @@
       <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>75</v>
+      <c r="J8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1101,6 +1102,164 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Flammie</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A5" si="0">B4</f>
+        <v>Jaguar</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Asigaru</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -1232,7 +1391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -1363,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -1494,7 +1653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -1652,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -1810,12 +1969,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1966,7 +2125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2097,7 +2256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2228,7 +2387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3B29AC-4EE3-4787-96AC-654F35FC0E64}">
   <dimension ref="A1:V6"/>
   <sheetViews>
@@ -2336,7 +2495,7 @@
         <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2360,7 +2519,7 @@
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -2384,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -2408,7 +2567,7 @@
         <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -2417,144 +2576,13 @@
         <v>SuperJerk</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409A1116-4461-47A9-88CD-B9FECC587ADD}">
-  <dimension ref="A1:V3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Slashy</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Skelton</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2720,6 +2748,137 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409A1116-4461-47A9-88CD-B9FECC587ADD}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Slashy</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Skelton</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB4AEA-0818-4141-9E54-A13B42F0DE11}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2812,7 +2971,7 @@
         <v>Slashy</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2824,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
         <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2836,7 +2995,7 @@
         <v>Moth</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2851,6 +3010,177 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE52F63-C62E-442E-94CC-CFA305D8A1FC}">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Slashy</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A5" si="0">B3</f>
+        <v>MONS</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Goblin</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaguar</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
@@ -2982,7 +3312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
@@ -3112,7 +3442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -3243,7 +3573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
@@ -3446,7 +3776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
@@ -3646,7 +3976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
@@ -3802,162 +4132,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:V5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Flammie</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Goblin</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A5" si="0">B4</f>
-        <v>Jaguar</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Asigaru</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158C319-5CF4-4A0C-8CD3-886B6B86A22E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A3B12-D480-47BB-AB5B-9103836D36E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="All Enemies - Status" sheetId="28" r:id="rId19"/>
     <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId20"/>
     <sheet name="Weak - Race Melee" sheetId="27" r:id="rId21"/>
+    <sheet name="Reflect" sheetId="31" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="84">
   <si>
     <t>NAME</t>
   </si>
@@ -289,18 +290,28 @@
   </si>
   <si>
     <t>Hatchling</t>
+  </si>
+  <si>
+    <t>Mirror</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -406,11 +417,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -764,7 +776,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,6 +917,9 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>57</v>
@@ -3009,11 +3024,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789776D0-B53E-467F-9655-A7AE3A317022}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>MUTE</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Jerk</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE52F63-C62E-442E-94CC-CFA305D8A1FC}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A3B12-D480-47BB-AB5B-9103836D36E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -36,12 +35,12 @@
     <sheet name="Weak - Race Melee" sheetId="27" r:id="rId21"/>
     <sheet name="Reflect" sheetId="31" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="84">
   <si>
     <t>NAME</t>
   </si>
@@ -247,9 +246,6 @@
     <t>Ghoul</t>
   </si>
   <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
     <t>Asigaru</t>
   </si>
   <si>
@@ -293,12 +289,15 @@
   </si>
   <si>
     <t>Mirror</t>
+  </si>
+  <si>
+    <t>Stone Book</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -437,7 +436,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,23 +527,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -580,23 +562,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -772,11 +737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,10 +812,10 @@
         <v>38</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -862,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1">
         <v>59</v>
@@ -898,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>45</v>
@@ -919,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>57</v>
@@ -937,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1">
         <v>45</v>
@@ -997,7 +962,7 @@
         <v>58</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1009,7 +974,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -1040,6 +1005,9 @@
       </c>
       <c r="N6" s="6" t="s">
         <v>65</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1051,7 +1019,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1">
         <v>999</v>
@@ -1084,10 +1052,10 @@
         <v>Slashy</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
         <v>400</v>
@@ -1105,10 +1073,10 @@
         <v>4</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1260,7 +1228,7 @@
         <v>Asigaru</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1275,7 +1243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1407,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1538,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1669,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1827,7 +1795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1985,7 +1953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2141,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2272,11 +2240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2376,25 +2344,25 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3</f>
-        <v>Mushroom</v>
+        <v>Goblin</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3B29AC-4EE3-4787-96AC-654F35FC0E64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2510,7 +2478,7 @@
         <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2534,7 +2502,7 @@
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -2558,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -2582,7 +2550,7 @@
         <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -2591,7 +2559,7 @@
         <v>SuperJerk</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2606,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -2763,7 +2731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409A1116-4461-47A9-88CD-B9FECC587ADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2823,7 @@
         <v>Slashy</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2867,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
         <v>66</v>
@@ -2894,7 +2862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB4AEA-0818-4141-9E54-A13B42F0DE11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2986,7 +2954,7 @@
         <v>Slashy</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2998,10 +2966,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
         <v>74</v>
-      </c>
-      <c r="M2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -3010,7 +2978,7 @@
         <v>Moth</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3025,10 +2993,10 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789776D0-B53E-467F-9655-A7AE3A317022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -3129,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -3153,7 +3121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE52F63-C62E-442E-94CC-CFA305D8A1FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3246,7 +3214,7 @@
         <v>Slashy</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3258,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -3324,7 +3292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -3456,7 +3424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -3586,7 +3554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,7 +3685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3920,7 +3888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4120,7 +4088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316153B2-66C5-4146-8817-B9DB9A0D5D19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -34,13 +35,15 @@
     <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId20"/>
     <sheet name="Weak - Race Melee" sheetId="27" r:id="rId21"/>
     <sheet name="Reflect" sheetId="31" r:id="rId22"/>
+    <sheet name="STR Counter" sheetId="32" r:id="rId23"/>
+    <sheet name="Other Counters" sheetId="33" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="90">
   <si>
     <t>NAME</t>
   </si>
@@ -292,18 +295,50 @@
   </si>
   <si>
     <t>Stone Book</t>
+  </si>
+  <si>
+    <t>Revenge Sword</t>
+  </si>
+  <si>
+    <t>Revenge</t>
+  </si>
+  <si>
+    <t>Turtle1</t>
+  </si>
+  <si>
+    <t>Turtle2</t>
+  </si>
+  <si>
+    <t>Burning</t>
+  </si>
+  <si>
+    <t>StonSkin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -416,11 +451,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -436,9 +473,17 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -527,6 +572,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -562,6 +624,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -737,11 +816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +899,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A8" si="0">B2</f>
+        <f t="shared" ref="A2:A11" si="0">B2</f>
         <v>HUME</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -836,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1">
         <v>5</v>
@@ -853,6 +932,7 @@
       <c r="L2" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
@@ -1079,13 +1159,109 @@
         <v>73</v>
       </c>
     </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Revenge</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Turtle1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Turtle2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1243,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1375,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1506,11 +1682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1637,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1795,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1953,7 +2129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,7 +2285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,10 +2416,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -2371,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2574,12 +2750,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2688,41 +2864,41 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A4" si="0">B3</f>
-        <v>MONS</v>
+        <f>B3</f>
+        <v>Goblin</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Goblin</v>
+        <f t="shared" ref="A4" si="0">B4</f>
+        <v>MONS</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2862,7 +3038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3120,8 +3296,287 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C62C4B-A558-47BB-B36D-F4A067E322AA}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Revenge</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3" si="0">B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4822E79-A2B0-4184-B515-4C5C1DD56F74}">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>B2</f>
+        <v>Turtle1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3" si="0">B3</f>
+        <v>Goblin</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>B4</f>
+        <v>Turtle2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3292,7 +3747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -3424,7 +3879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -3554,7 +4009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3685,7 +4140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3888,7 +4343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4088,7 +4543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316153B2-66C5-4146-8817-B9DB9A0D5D19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC719D-FBFC-4682-9BB5-8B3497939577}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -38,12 +38,15 @@
     <sheet name="STR Counter" sheetId="32" r:id="rId23"/>
     <sheet name="Other Counters" sheetId="33" r:id="rId24"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId25"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="94">
   <si>
     <t>NAME</t>
   </si>
@@ -314,12 +317,24 @@
   <si>
     <t>StonSkin</t>
   </si>
+  <si>
+    <t>Natural STR</t>
+  </si>
+  <si>
+    <t>Natural DEF</t>
+  </si>
+  <si>
+    <t>Natural AGL</t>
+  </si>
+  <si>
+    <t>Natural MANA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -431,13 +446,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -451,17 +479,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -469,7 +497,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,6 +526,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -494,6 +540,7655 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Monster"/>
+      <sheetName val="Magic"/>
+      <sheetName val="Evolve"/>
+      <sheetName val="Weapon"/>
+      <sheetName val="Items"/>
+      <sheetName val="Treasure"/>
+      <sheetName val="Shops"/>
+      <sheetName val="Item Hex"/>
+      <sheetName val="Move Probability"/>
+      <sheetName val="Move Prob - %"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Index</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Command</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Name</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Symbol</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Hex Sort</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Hex</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>#Uses</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Price</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>Defense</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>Other Stat</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>Boost</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>Robot HP+</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>Robot Modifier</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Hammer</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Hammer</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Hammer</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>00</v>
+          </cell>
+          <cell r="G2">
+            <v>50</v>
+          </cell>
+          <cell r="H2">
+            <v>50</v>
+          </cell>
+          <cell r="L2">
+            <v>9</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>Str +2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Long Sword</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Long Sword</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Long</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E3">
+            <v>1</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>01</v>
+          </cell>
+          <cell r="G3">
+            <v>50</v>
+          </cell>
+          <cell r="H3">
+            <v>400</v>
+          </cell>
+          <cell r="L3">
+            <v>18</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>Str +4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="E4">
+            <v>2</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>02</v>
+          </cell>
+          <cell r="G4">
+            <v>50</v>
+          </cell>
+          <cell r="H4">
+            <v>1400</v>
+          </cell>
+          <cell r="L4">
+            <v>27</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>Str +6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Battle Sword</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Battle Sword</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Battle</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E5">
+            <v>3</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>03</v>
+          </cell>
+          <cell r="G5">
+            <v>50</v>
+          </cell>
+          <cell r="H5">
+            <v>3200</v>
+          </cell>
+          <cell r="L5">
+            <v>36</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>Str +8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Katana</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Katana</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Katana</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E6">
+            <v>4</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>04</v>
+          </cell>
+          <cell r="G6">
+            <v>50</v>
+          </cell>
+          <cell r="H6">
+            <v>6800</v>
+          </cell>
+          <cell r="L6">
+            <v>45</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>Str +10</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Gold Sword</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Gold Sword</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Gold</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E7">
+            <v>5</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>05</v>
+          </cell>
+          <cell r="G7">
+            <v>50</v>
+          </cell>
+          <cell r="H7">
+            <v>11000</v>
+          </cell>
+          <cell r="L7">
+            <v>63</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>Str +14</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Coral Sword</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Coral Sword</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Coral</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E8">
+            <v>6</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>06</v>
+          </cell>
+          <cell r="G8">
+            <v>40</v>
+          </cell>
+          <cell r="H8">
+            <v>26000</v>
+          </cell>
+          <cell r="L8">
+            <v>99</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>Str +22</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Ogre Axe</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Ogre Axe</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Ogre</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="E9">
+            <v>7</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>07</v>
+          </cell>
+          <cell r="G9">
+            <v>40</v>
+          </cell>
+          <cell r="H9">
+            <v>26000</v>
+          </cell>
+          <cell r="L9">
+            <v>99</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>Str +22</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Dragon Sword</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Dragon Sword</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Dragon</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E10">
+            <v>8</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>08</v>
+          </cell>
+          <cell r="G10">
+            <v>40</v>
+          </cell>
+          <cell r="H10">
+            <v>36000</v>
+          </cell>
+          <cell r="L10">
+            <v>117</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>Str +26</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Sun Sword</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Sun Sword</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Sun</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E11">
+            <v>9</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>09</v>
+          </cell>
+          <cell r="G11">
+            <v>40</v>
+          </cell>
+          <cell r="H11">
+            <v>50000</v>
+          </cell>
+          <cell r="L11">
+            <v>144</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>Str +32</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Flame Sword</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Flame Sword</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Flame</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E12">
+            <v>10</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>0A</v>
+          </cell>
+          <cell r="G12">
+            <v>40</v>
+          </cell>
+          <cell r="H12">
+            <v>17000</v>
+          </cell>
+          <cell r="L12">
+            <v>81</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>Str +18</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Ice Sword</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Ice Sword</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Ice</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E13">
+            <v>11</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>0B</v>
+          </cell>
+          <cell r="G13">
+            <v>40</v>
+          </cell>
+          <cell r="H13">
+            <v>17000</v>
+          </cell>
+          <cell r="L13">
+            <v>81</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>Str +18</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Thunder Axe</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Thunder Axe</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Thunder</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="E14">
+            <v>12</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>0C</v>
+          </cell>
+          <cell r="G14">
+            <v>40</v>
+          </cell>
+          <cell r="H14">
+            <v>17000</v>
+          </cell>
+          <cell r="L14">
+            <v>81</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>Str +18</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Defend Sword</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Defend Sword</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Defend</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E15">
+            <v>13</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>0D</v>
+          </cell>
+          <cell r="G15">
+            <v>40</v>
+          </cell>
+          <cell r="H15">
+            <v>36000</v>
+          </cell>
+          <cell r="L15">
+            <v>117</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>Def +26</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Rune Axe</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Rune Axe</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Rune</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="E16">
+            <v>14</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>0E</v>
+          </cell>
+          <cell r="G16">
+            <v>40</v>
+          </cell>
+          <cell r="H16">
+            <v>36000</v>
+          </cell>
+          <cell r="L16">
+            <v>45</v>
+          </cell>
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Rapier</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Rapier</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Rapier</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E17">
+            <v>15</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>0F</v>
+          </cell>
+          <cell r="G17">
+            <v>50</v>
+          </cell>
+          <cell r="H17">
+            <v>400</v>
+          </cell>
+          <cell r="L17">
+            <v>18</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>Agl +4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Gold Bow</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Gold Bow</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Gold</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Bow</v>
+          </cell>
+          <cell r="E18">
+            <v>22</v>
+          </cell>
+          <cell r="F18">
+            <v>16</v>
+          </cell>
+          <cell r="G18">
+            <v>50</v>
+          </cell>
+          <cell r="H18">
+            <v>6800</v>
+          </cell>
+          <cell r="L18">
+            <v>45</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>Agl +10</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Bronze Shield</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Bronze Shield</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Bronze</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>Shield</v>
+          </cell>
+          <cell r="E19">
+            <v>23</v>
+          </cell>
+          <cell r="F19">
+            <v>17</v>
+          </cell>
+          <cell r="G19">
+            <v>50</v>
+          </cell>
+          <cell r="H19">
+            <v>50</v>
+          </cell>
+          <cell r="L19">
+            <v>9</v>
+          </cell>
+          <cell r="M19" t="str">
+            <v>Def +2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Silver Shield</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Silver Shield</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Silver</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Shield</v>
+          </cell>
+          <cell r="E20">
+            <v>24</v>
+          </cell>
+          <cell r="F20">
+            <v>18</v>
+          </cell>
+          <cell r="G20">
+            <v>50</v>
+          </cell>
+          <cell r="H20">
+            <v>1400</v>
+          </cell>
+          <cell r="L20">
+            <v>27</v>
+          </cell>
+          <cell r="M20" t="str">
+            <v>Def +6</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Gold Shield</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Gold Shield</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Gold</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Shield</v>
+          </cell>
+          <cell r="E21">
+            <v>25</v>
+          </cell>
+          <cell r="F21">
+            <v>19</v>
+          </cell>
+          <cell r="G21">
+            <v>50</v>
+          </cell>
+          <cell r="H21">
+            <v>6800</v>
+          </cell>
+          <cell r="L21">
+            <v>45</v>
+          </cell>
+          <cell r="M21" t="str">
+            <v>Def +10</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Flame Shield</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Flame Shield</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Flame</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Shield</v>
+          </cell>
+          <cell r="E22">
+            <v>26</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>1A</v>
+          </cell>
+          <cell r="G22">
+            <v>30</v>
+          </cell>
+          <cell r="H22">
+            <v>17000</v>
+          </cell>
+          <cell r="L22">
+            <v>81</v>
+          </cell>
+          <cell r="M22" t="str">
+            <v>Def +18</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Ice Shield</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Ice Shield</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Ice</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Shield</v>
+          </cell>
+          <cell r="E23">
+            <v>27</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>1B</v>
+          </cell>
+          <cell r="G23">
+            <v>30</v>
+          </cell>
+          <cell r="H23">
+            <v>17000</v>
+          </cell>
+          <cell r="L23">
+            <v>81</v>
+          </cell>
+          <cell r="M23" t="str">
+            <v>Def +18</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Dragon Shield</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Dragon Shield</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Dragon</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Shield</v>
+          </cell>
+          <cell r="E24">
+            <v>28</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>1C</v>
+          </cell>
+          <cell r="G24">
+            <v>30</v>
+          </cell>
+          <cell r="H24">
+            <v>36000</v>
+          </cell>
+          <cell r="L24">
+            <v>117</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>Def +26</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Cure Potion</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Cure Potion</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Cure</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E25">
+            <v>29</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>1D</v>
+          </cell>
+          <cell r="G25">
+            <v>4</v>
+          </cell>
+          <cell r="H25">
+            <v>50</v>
+          </cell>
+          <cell r="L25">
+            <v>9</v>
+          </cell>
+          <cell r="M25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>X-Cure Potion</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>X-Cure Potion</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>X-Cure</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E26">
+            <v>30</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>1E</v>
+          </cell>
+          <cell r="G26">
+            <v>4</v>
+          </cell>
+          <cell r="H26">
+            <v>300</v>
+          </cell>
+          <cell r="L26">
+            <v>9</v>
+          </cell>
+          <cell r="M26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Curse Potion</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Curse Potion</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Curse</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E27">
+            <v>31</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>1F</v>
+          </cell>
+          <cell r="G27">
+            <v>4</v>
+          </cell>
+          <cell r="H27">
+            <v>300</v>
+          </cell>
+          <cell r="L27">
+            <v>9</v>
+          </cell>
+          <cell r="M27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>EyeDrop</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>EyeDrop</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>EyeDrop</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E28">
+            <v>32</v>
+          </cell>
+          <cell r="F28">
+            <v>20</v>
+          </cell>
+          <cell r="G28">
+            <v>4</v>
+          </cell>
+          <cell r="H28">
+            <v>200</v>
+          </cell>
+          <cell r="L28">
+            <v>9</v>
+          </cell>
+          <cell r="M28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Abacus</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Abacus</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Abacus</v>
+          </cell>
+          <cell r="E29">
+            <v>33</v>
+          </cell>
+          <cell r="F29">
+            <v>21</v>
+          </cell>
+          <cell r="G29">
+            <v>30</v>
+          </cell>
+          <cell r="H29">
+            <v>5000</v>
+          </cell>
+          <cell r="L29">
+            <v>9</v>
+          </cell>
+          <cell r="M29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Xcalibr Sword</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Xcalibr Sword</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Xcalibr</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E30">
+            <v>34</v>
+          </cell>
+          <cell r="F30">
+            <v>22</v>
+          </cell>
+          <cell r="G30">
+            <v>-2</v>
+          </cell>
+          <cell r="H30">
+            <v>50000</v>
+          </cell>
+          <cell r="L30">
+            <v>144</v>
+          </cell>
+          <cell r="M30" t="str">
+            <v>Str +32</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Samurai Bow</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Samurai Bow</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Samurai</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Bow</v>
+          </cell>
+          <cell r="E31">
+            <v>35</v>
+          </cell>
+          <cell r="F31">
+            <v>23</v>
+          </cell>
+          <cell r="G31">
+            <v>30</v>
+          </cell>
+          <cell r="H31">
+            <v>36000</v>
+          </cell>
+          <cell r="L31">
+            <v>117</v>
+          </cell>
+          <cell r="M31" t="str">
+            <v>Agl +26</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Cure Book</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Cure Book</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Cure</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E32">
+            <v>36</v>
+          </cell>
+          <cell r="F32">
+            <v>24</v>
+          </cell>
+          <cell r="G32">
+            <v>30</v>
+          </cell>
+          <cell r="H32">
+            <v>6800</v>
+          </cell>
+          <cell r="L32">
+            <v>45</v>
+          </cell>
+          <cell r="M32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Prayer Book</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Prayer Book</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Prayer</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E33">
+            <v>37</v>
+          </cell>
+          <cell r="F33">
+            <v>25</v>
+          </cell>
+          <cell r="G33">
+            <v>30</v>
+          </cell>
+          <cell r="H33">
+            <v>6800</v>
+          </cell>
+          <cell r="L33">
+            <v>45</v>
+          </cell>
+          <cell r="M33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Fire Book</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Fire Book</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Fire</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E34">
+            <v>38</v>
+          </cell>
+          <cell r="F34">
+            <v>26</v>
+          </cell>
+          <cell r="G34">
+            <v>30</v>
+          </cell>
+          <cell r="H34">
+            <v>6800</v>
+          </cell>
+          <cell r="L34">
+            <v>45</v>
+          </cell>
+          <cell r="M34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Ice Book</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Ice Book</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Ice</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E35">
+            <v>39</v>
+          </cell>
+          <cell r="F35">
+            <v>27</v>
+          </cell>
+          <cell r="G35">
+            <v>30</v>
+          </cell>
+          <cell r="H35">
+            <v>6800</v>
+          </cell>
+          <cell r="L35">
+            <v>45</v>
+          </cell>
+          <cell r="M35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Thunder Book</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Thunder Book</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Thunder</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E36">
+            <v>40</v>
+          </cell>
+          <cell r="F36">
+            <v>28</v>
+          </cell>
+          <cell r="G36">
+            <v>30</v>
+          </cell>
+          <cell r="H36">
+            <v>6800</v>
+          </cell>
+          <cell r="L36">
+            <v>45</v>
+          </cell>
+          <cell r="M36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Fog Book</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Fog Book</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Fog</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E37">
+            <v>41</v>
+          </cell>
+          <cell r="F37">
+            <v>29</v>
+          </cell>
+          <cell r="G37">
+            <v>30</v>
+          </cell>
+          <cell r="H37">
+            <v>6800</v>
+          </cell>
+          <cell r="L37">
+            <v>45</v>
+          </cell>
+          <cell r="M37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Sleep Book</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Sleep Book</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Sleep</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E38">
+            <v>42</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>2A</v>
+          </cell>
+          <cell r="G38">
+            <v>30</v>
+          </cell>
+          <cell r="H38">
+            <v>6800</v>
+          </cell>
+          <cell r="L38">
+            <v>45</v>
+          </cell>
+          <cell r="M38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Stone Book</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Stone Book</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Stone</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E39">
+            <v>43</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>2B</v>
+          </cell>
+          <cell r="G39">
+            <v>15</v>
+          </cell>
+          <cell r="H39">
+            <v>11000</v>
+          </cell>
+          <cell r="L39">
+            <v>63</v>
+          </cell>
+          <cell r="M39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Death Book</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Death Book</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Death</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E40">
+            <v>44</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>2C</v>
+          </cell>
+          <cell r="G40">
+            <v>15</v>
+          </cell>
+          <cell r="H40">
+            <v>17000</v>
+          </cell>
+          <cell r="L40">
+            <v>81</v>
+          </cell>
+          <cell r="M40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Mage Staff</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Mage Staff</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Mage</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Staff</v>
+          </cell>
+          <cell r="E41">
+            <v>45</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>2D</v>
+          </cell>
+          <cell r="G41">
+            <v>15</v>
+          </cell>
+          <cell r="H41">
+            <v>17000</v>
+          </cell>
+          <cell r="L41">
+            <v>81</v>
+          </cell>
+          <cell r="M41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Wizard Staff</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Wizard Staff</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Wizard</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Staff</v>
+          </cell>
+          <cell r="E42">
+            <v>46</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>2E</v>
+          </cell>
+          <cell r="G42">
+            <v>10</v>
+          </cell>
+          <cell r="H42">
+            <v>36000</v>
+          </cell>
+          <cell r="L42">
+            <v>117</v>
+          </cell>
+          <cell r="M42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Heal Staff</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Heal Staff</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Heal</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>Staff</v>
+          </cell>
+          <cell r="E43">
+            <v>47</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>2F</v>
+          </cell>
+          <cell r="G43">
+            <v>15</v>
+          </cell>
+          <cell r="H43">
+            <v>17000</v>
+          </cell>
+          <cell r="L43">
+            <v>81</v>
+          </cell>
+          <cell r="M43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Flare Book</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Flare Book</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Flare</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>Book</v>
+          </cell>
+          <cell r="E44">
+            <v>48</v>
+          </cell>
+          <cell r="F44">
+            <v>30</v>
+          </cell>
+          <cell r="G44">
+            <v>10</v>
+          </cell>
+          <cell r="H44">
+            <v>50000</v>
+          </cell>
+          <cell r="L44">
+            <v>144</v>
+          </cell>
+          <cell r="M44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Bronze Helm</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>Bronze Helm</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Bronze</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>Helm</v>
+          </cell>
+          <cell r="E45">
+            <v>49</v>
+          </cell>
+          <cell r="F45">
+            <v>31</v>
+          </cell>
+          <cell r="G45">
+            <v>-2</v>
+          </cell>
+          <cell r="H45">
+            <v>50</v>
+          </cell>
+          <cell r="I45">
+            <v>2</v>
+          </cell>
+          <cell r="L45">
+            <v>9</v>
+          </cell>
+          <cell r="M45" t="str">
+            <v>Def +2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Silver Helm</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Silver Helm</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Silver</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>Helm</v>
+          </cell>
+          <cell r="E46">
+            <v>50</v>
+          </cell>
+          <cell r="F46">
+            <v>32</v>
+          </cell>
+          <cell r="G46">
+            <v>-2</v>
+          </cell>
+          <cell r="H46">
+            <v>1400</v>
+          </cell>
+          <cell r="I46">
+            <v>4</v>
+          </cell>
+          <cell r="L46">
+            <v>27</v>
+          </cell>
+          <cell r="M46" t="str">
+            <v>Def +6</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Gold Helm</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>Gold Helm</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Gold</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>Helm</v>
+          </cell>
+          <cell r="E47">
+            <v>51</v>
+          </cell>
+          <cell r="F47">
+            <v>33</v>
+          </cell>
+          <cell r="G47">
+            <v>-2</v>
+          </cell>
+          <cell r="H47">
+            <v>6800</v>
+          </cell>
+          <cell r="I47">
+            <v>8</v>
+          </cell>
+          <cell r="L47">
+            <v>45</v>
+          </cell>
+          <cell r="M47" t="str">
+            <v>Def +10</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Dragon Helm</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Dragon Helm</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Dragon</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>Helm</v>
+          </cell>
+          <cell r="E48">
+            <v>52</v>
+          </cell>
+          <cell r="F48">
+            <v>34</v>
+          </cell>
+          <cell r="G48">
+            <v>-2</v>
+          </cell>
+          <cell r="H48">
+            <v>36000</v>
+          </cell>
+          <cell r="I48">
+            <v>20</v>
+          </cell>
+          <cell r="L48">
+            <v>117</v>
+          </cell>
+          <cell r="M48" t="str">
+            <v>Def +26</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Bronze Armor</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>Bronze Armor</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Bronze</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>Armor</v>
+          </cell>
+          <cell r="E49">
+            <v>53</v>
+          </cell>
+          <cell r="F49">
+            <v>35</v>
+          </cell>
+          <cell r="G49">
+            <v>-2</v>
+          </cell>
+          <cell r="H49">
+            <v>75</v>
+          </cell>
+          <cell r="I49">
+            <v>3</v>
+          </cell>
+          <cell r="L49">
+            <v>9</v>
+          </cell>
+          <cell r="M49" t="str">
+            <v>Def +2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Silver Armor</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>Silver Armor</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Silver</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>Armor</v>
+          </cell>
+          <cell r="E50">
+            <v>54</v>
+          </cell>
+          <cell r="F50">
+            <v>36</v>
+          </cell>
+          <cell r="G50">
+            <v>-2</v>
+          </cell>
+          <cell r="H50">
+            <v>2100</v>
+          </cell>
+          <cell r="I50">
+            <v>7</v>
+          </cell>
+          <cell r="L50">
+            <v>27</v>
+          </cell>
+          <cell r="M50" t="str">
+            <v>Def +6</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Gold Armor</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>Gold Armor</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Gold</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>Armor</v>
+          </cell>
+          <cell r="E51">
+            <v>55</v>
+          </cell>
+          <cell r="F51">
+            <v>37</v>
+          </cell>
+          <cell r="G51">
+            <v>-2</v>
+          </cell>
+          <cell r="H51">
+            <v>10000</v>
+          </cell>
+          <cell r="I51">
+            <v>13</v>
+          </cell>
+          <cell r="L51">
+            <v>45</v>
+          </cell>
+          <cell r="M51" t="str">
+            <v>Def +10</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Dragon Armor</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>Dragon Armor</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Dragon</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>Armor</v>
+          </cell>
+          <cell r="E52">
+            <v>56</v>
+          </cell>
+          <cell r="F52">
+            <v>38</v>
+          </cell>
+          <cell r="G52">
+            <v>-2</v>
+          </cell>
+          <cell r="H52">
+            <v>26000</v>
+          </cell>
+          <cell r="I52">
+            <v>21</v>
+          </cell>
+          <cell r="L52">
+            <v>81</v>
+          </cell>
+          <cell r="M52" t="str">
+            <v>Def +18</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Arthur Armor</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>Arthur Armor</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Arthur</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Armor</v>
+          </cell>
+          <cell r="E53">
+            <v>57</v>
+          </cell>
+          <cell r="F53">
+            <v>39</v>
+          </cell>
+          <cell r="G53">
+            <v>-2</v>
+          </cell>
+          <cell r="H53">
+            <v>54000</v>
+          </cell>
+          <cell r="I53">
+            <v>31</v>
+          </cell>
+          <cell r="L53">
+            <v>117</v>
+          </cell>
+          <cell r="M53" t="str">
+            <v>Def +26</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Bronze Glove</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>Bronze Glove</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Bronze</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>Glove</v>
+          </cell>
+          <cell r="E54">
+            <v>58</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>3A</v>
+          </cell>
+          <cell r="G54">
+            <v>-2</v>
+          </cell>
+          <cell r="H54">
+            <v>25</v>
+          </cell>
+          <cell r="I54">
+            <v>1</v>
+          </cell>
+          <cell r="L54">
+            <v>9</v>
+          </cell>
+          <cell r="M54" t="str">
+            <v>Def +2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Silver Glove</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>Silver Glove</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Silver</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>Glove</v>
+          </cell>
+          <cell r="E55">
+            <v>59</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>3B</v>
+          </cell>
+          <cell r="G55">
+            <v>-2</v>
+          </cell>
+          <cell r="H55">
+            <v>700</v>
+          </cell>
+          <cell r="I55">
+            <v>2</v>
+          </cell>
+          <cell r="L55">
+            <v>27</v>
+          </cell>
+          <cell r="M55" t="str">
+            <v>Def +6</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Gold Glove</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>Gold Glove</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Gold</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>Glove</v>
+          </cell>
+          <cell r="E56">
+            <v>60</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>3C</v>
+          </cell>
+          <cell r="G56">
+            <v>-2</v>
+          </cell>
+          <cell r="H56">
+            <v>3400</v>
+          </cell>
+          <cell r="I56">
+            <v>4</v>
+          </cell>
+          <cell r="L56">
+            <v>45</v>
+          </cell>
+          <cell r="M56" t="str">
+            <v>Def +10</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Giant Glove</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>Giant Glove</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Giant</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>Glove</v>
+          </cell>
+          <cell r="E57">
+            <v>61</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>3D</v>
+          </cell>
+          <cell r="G57">
+            <v>-2</v>
+          </cell>
+          <cell r="H57">
+            <v>8500</v>
+          </cell>
+          <cell r="I57">
+            <v>6</v>
+          </cell>
+          <cell r="J57" t="str">
+            <v>Str</v>
+          </cell>
+          <cell r="K57">
+            <v>10</v>
+          </cell>
+          <cell r="L57">
+            <v>81</v>
+          </cell>
+          <cell r="M57" t="str">
+            <v>Def +18</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Ninja Glove</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>Ninja Glove</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Ninja</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>Glove</v>
+          </cell>
+          <cell r="E58">
+            <v>62</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>3E</v>
+          </cell>
+          <cell r="G58">
+            <v>-2</v>
+          </cell>
+          <cell r="H58">
+            <v>18000</v>
+          </cell>
+          <cell r="I58">
+            <v>10</v>
+          </cell>
+          <cell r="L58">
+            <v>117</v>
+          </cell>
+          <cell r="M58" t="str">
+            <v>Def +26</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Hermes Boot</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>Hermes Boot</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Hermes</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>Boot</v>
+          </cell>
+          <cell r="E59">
+            <v>63</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>3F</v>
+          </cell>
+          <cell r="G59">
+            <v>-2</v>
+          </cell>
+          <cell r="H59">
+            <v>6800</v>
+          </cell>
+          <cell r="I59">
+            <v>4</v>
+          </cell>
+          <cell r="J59" t="str">
+            <v>Agl</v>
+          </cell>
+          <cell r="K59">
+            <v>10</v>
+          </cell>
+          <cell r="L59">
+            <v>45</v>
+          </cell>
+          <cell r="M59" t="str">
+            <v>Def +10</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Hecate Boot</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>Hecate Boot</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Hecate</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>Boot</v>
+          </cell>
+          <cell r="E60">
+            <v>64</v>
+          </cell>
+          <cell r="F60">
+            <v>40</v>
+          </cell>
+          <cell r="G60">
+            <v>-2</v>
+          </cell>
+          <cell r="H60">
+            <v>17000</v>
+          </cell>
+          <cell r="I60">
+            <v>6</v>
+          </cell>
+          <cell r="J60" t="str">
+            <v>Mana</v>
+          </cell>
+          <cell r="K60">
+            <v>15</v>
+          </cell>
+          <cell r="L60">
+            <v>81</v>
+          </cell>
+          <cell r="M60" t="str">
+            <v>Def +18</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Elixier</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>Elixier</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Elixier</v>
+          </cell>
+          <cell r="E61">
+            <v>65</v>
+          </cell>
+          <cell r="F61">
+            <v>41</v>
+          </cell>
+          <cell r="G61">
+            <v>1</v>
+          </cell>
+          <cell r="H61">
+            <v>5000</v>
+          </cell>
+          <cell r="L61">
+            <v>9</v>
+          </cell>
+          <cell r="M61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Soft Potion</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>Soft Potion</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Soft</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E62">
+            <v>66</v>
+          </cell>
+          <cell r="F62">
+            <v>42</v>
+          </cell>
+          <cell r="G62">
+            <v>4</v>
+          </cell>
+          <cell r="H62">
+            <v>1000</v>
+          </cell>
+          <cell r="L62">
+            <v>9</v>
+          </cell>
+          <cell r="M62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Power Potion</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>Power Potion</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Power</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E63">
+            <v>67</v>
+          </cell>
+          <cell r="F63">
+            <v>43</v>
+          </cell>
+          <cell r="G63">
+            <v>1</v>
+          </cell>
+          <cell r="H63">
+            <v>1000</v>
+          </cell>
+          <cell r="L63">
+            <v>9</v>
+          </cell>
+          <cell r="M63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Speed Potion</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Speed Potion</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Speed</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E64">
+            <v>68</v>
+          </cell>
+          <cell r="F64">
+            <v>44</v>
+          </cell>
+          <cell r="G64">
+            <v>1</v>
+          </cell>
+          <cell r="H64">
+            <v>1000</v>
+          </cell>
+          <cell r="L64">
+            <v>9</v>
+          </cell>
+          <cell r="M64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Magic Potion</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>Magic Potion</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Magic</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E65">
+            <v>69</v>
+          </cell>
+          <cell r="F65">
+            <v>45</v>
+          </cell>
+          <cell r="G65">
+            <v>1</v>
+          </cell>
+          <cell r="H65">
+            <v>1000</v>
+          </cell>
+          <cell r="L65">
+            <v>9</v>
+          </cell>
+          <cell r="M65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Body Potion</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>Body Potion</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Body</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E66">
+            <v>70</v>
+          </cell>
+          <cell r="F66">
+            <v>46</v>
+          </cell>
+          <cell r="G66">
+            <v>1</v>
+          </cell>
+          <cell r="H66">
+            <v>1000</v>
+          </cell>
+          <cell r="L66">
+            <v>9</v>
+          </cell>
+          <cell r="M66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v xml:space="preserve">Tent </v>
+          </cell>
+          <cell r="B67" t="str">
+            <v xml:space="preserve">Tent </v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Tent</v>
+          </cell>
+          <cell r="E67">
+            <v>71</v>
+          </cell>
+          <cell r="F67">
+            <v>47</v>
+          </cell>
+          <cell r="G67">
+            <v>1</v>
+          </cell>
+          <cell r="H67">
+            <v>10000</v>
+          </cell>
+          <cell r="L67">
+            <v>9</v>
+          </cell>
+          <cell r="M67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Whip</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>Whip</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Whip</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>Whip</v>
+          </cell>
+          <cell r="E68">
+            <v>72</v>
+          </cell>
+          <cell r="F68">
+            <v>48</v>
+          </cell>
+          <cell r="G68">
+            <v>40</v>
+          </cell>
+          <cell r="H68">
+            <v>400</v>
+          </cell>
+          <cell r="L68">
+            <v>18</v>
+          </cell>
+          <cell r="M68" t="str">
+            <v>Agl +4</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Blitz Whip</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>Blitz Whip</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Blitz</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Whip</v>
+          </cell>
+          <cell r="E69">
+            <v>73</v>
+          </cell>
+          <cell r="F69">
+            <v>49</v>
+          </cell>
+          <cell r="G69">
+            <v>40</v>
+          </cell>
+          <cell r="H69">
+            <v>6800</v>
+          </cell>
+          <cell r="L69">
+            <v>45</v>
+          </cell>
+          <cell r="M69" t="str">
+            <v>Agl +10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>ChainSaw</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>ChainSaw</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>ChainSaw</v>
+          </cell>
+          <cell r="E70">
+            <v>74</v>
+          </cell>
+          <cell r="F70" t="str">
+            <v>4A</v>
+          </cell>
+          <cell r="G70">
+            <v>30</v>
+          </cell>
+          <cell r="H70">
+            <v>6800</v>
+          </cell>
+          <cell r="L70">
+            <v>45</v>
+          </cell>
+          <cell r="M70" t="str">
+            <v>Agl +10</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Counter</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>Counter</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>Counter</v>
+          </cell>
+          <cell r="E71">
+            <v>75</v>
+          </cell>
+          <cell r="F71" t="str">
+            <v>4B</v>
+          </cell>
+          <cell r="G71">
+            <v>40</v>
+          </cell>
+          <cell r="H71">
+            <v>6800</v>
+          </cell>
+          <cell r="L71">
+            <v>45</v>
+          </cell>
+          <cell r="M71" t="str">
+            <v>Agl +10</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Colt Gun</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>Colt Gun</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Colt</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>Gun</v>
+          </cell>
+          <cell r="E72">
+            <v>76</v>
+          </cell>
+          <cell r="F72" t="str">
+            <v>4C</v>
+          </cell>
+          <cell r="G72">
+            <v>50</v>
+          </cell>
+          <cell r="H72">
+            <v>1400</v>
+          </cell>
+          <cell r="L72">
+            <v>27</v>
+          </cell>
+          <cell r="M72" t="str">
+            <v>Str +6</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Musket Gun</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>Musket Gun</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>Musket</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>Gun</v>
+          </cell>
+          <cell r="E73">
+            <v>77</v>
+          </cell>
+          <cell r="F73" t="str">
+            <v>4D</v>
+          </cell>
+          <cell r="G73">
+            <v>50</v>
+          </cell>
+          <cell r="H73">
+            <v>8000</v>
+          </cell>
+          <cell r="L73">
+            <v>63</v>
+          </cell>
+          <cell r="M73" t="str">
+            <v>Str +14</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>Magnum Gun</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>Magnum Gun</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Magnum</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>Gun</v>
+          </cell>
+          <cell r="E74">
+            <v>78</v>
+          </cell>
+          <cell r="F74" t="str">
+            <v>4E</v>
+          </cell>
+          <cell r="G74">
+            <v>50</v>
+          </cell>
+          <cell r="H74">
+            <v>17000</v>
+          </cell>
+          <cell r="L74">
+            <v>81</v>
+          </cell>
+          <cell r="M74" t="str">
+            <v>Str +18</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Chop Art</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>Chop Art</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Chop</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>Art</v>
+          </cell>
+          <cell r="E75">
+            <v>79</v>
+          </cell>
+          <cell r="F75" t="str">
+            <v>4F</v>
+          </cell>
+          <cell r="G75">
+            <v>90</v>
+          </cell>
+          <cell r="H75">
+            <v>50</v>
+          </cell>
+          <cell r="L75">
+            <v>9</v>
+          </cell>
+          <cell r="M75" t="str">
+            <v>Agl +2</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Kick Art</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>Kick Art</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Kick</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>Art</v>
+          </cell>
+          <cell r="E76">
+            <v>80</v>
+          </cell>
+          <cell r="F76">
+            <v>50</v>
+          </cell>
+          <cell r="G76">
+            <v>80</v>
+          </cell>
+          <cell r="H76">
+            <v>1400</v>
+          </cell>
+          <cell r="L76">
+            <v>27</v>
+          </cell>
+          <cell r="M76" t="str">
+            <v>Agl +6</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>HeadBut Art</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>HeadBut Art</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>HeadBut</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>Art</v>
+          </cell>
+          <cell r="E77">
+            <v>81</v>
+          </cell>
+          <cell r="F77">
+            <v>51</v>
+          </cell>
+          <cell r="G77">
+            <v>70</v>
+          </cell>
+          <cell r="H77">
+            <v>6800</v>
+          </cell>
+          <cell r="L77">
+            <v>45</v>
+          </cell>
+          <cell r="M77" t="str">
+            <v>Agl +10</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Roundhouse Art</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>Roundhouse Art</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Roundhouse</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>Art</v>
+          </cell>
+          <cell r="E78">
+            <v>82</v>
+          </cell>
+          <cell r="F78">
+            <v>52</v>
+          </cell>
+          <cell r="G78">
+            <v>60</v>
+          </cell>
+          <cell r="H78">
+            <v>17000</v>
+          </cell>
+          <cell r="L78">
+            <v>81</v>
+          </cell>
+          <cell r="M78" t="str">
+            <v>Agl +18</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Jyudo Art</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>Jyudo Art</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>Jyudo</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>Art</v>
+          </cell>
+          <cell r="E79">
+            <v>83</v>
+          </cell>
+          <cell r="F79">
+            <v>53</v>
+          </cell>
+          <cell r="G79">
+            <v>50</v>
+          </cell>
+          <cell r="H79">
+            <v>36000</v>
+          </cell>
+          <cell r="L79">
+            <v>117</v>
+          </cell>
+          <cell r="M79" t="str">
+            <v>Agl +26</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Karate Art</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>Karate Art</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>Karate</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>Art</v>
+          </cell>
+          <cell r="E80">
+            <v>84</v>
+          </cell>
+          <cell r="F80">
+            <v>54</v>
+          </cell>
+          <cell r="G80">
+            <v>40</v>
+          </cell>
+          <cell r="H80">
+            <v>50000</v>
+          </cell>
+          <cell r="L80">
+            <v>144</v>
+          </cell>
+          <cell r="M80" t="str">
+            <v>Agl +32</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Temptat</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>Temptat</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>Temptat</v>
+          </cell>
+          <cell r="E81">
+            <v>85</v>
+          </cell>
+          <cell r="F81">
+            <v>55</v>
+          </cell>
+          <cell r="G81">
+            <v>30</v>
+          </cell>
+          <cell r="H81">
+            <v>6800</v>
+          </cell>
+          <cell r="L81">
+            <v>45</v>
+          </cell>
+          <cell r="M81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>StunGun</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>StunGun</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>StunGun</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>Gun</v>
+          </cell>
+          <cell r="E82">
+            <v>86</v>
+          </cell>
+          <cell r="F82">
+            <v>56</v>
+          </cell>
+          <cell r="G82">
+            <v>40</v>
+          </cell>
+          <cell r="H82">
+            <v>1400</v>
+          </cell>
+          <cell r="L82">
+            <v>27</v>
+          </cell>
+          <cell r="M82" t="str">
+            <v>Agl +6</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Heat</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>Heat</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>Heat</v>
+          </cell>
+          <cell r="E83">
+            <v>87</v>
+          </cell>
+          <cell r="F83">
+            <v>57</v>
+          </cell>
+          <cell r="G83">
+            <v>30</v>
+          </cell>
+          <cell r="H83">
+            <v>0</v>
+          </cell>
+          <cell r="L83">
+            <v>9</v>
+          </cell>
+          <cell r="M83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>ComVirus</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>ComVirus</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>ComVirus</v>
+          </cell>
+          <cell r="E84">
+            <v>88</v>
+          </cell>
+          <cell r="F84">
+            <v>58</v>
+          </cell>
+          <cell r="G84">
+            <v>30</v>
+          </cell>
+          <cell r="H84">
+            <v>0</v>
+          </cell>
+          <cell r="L84">
+            <v>9</v>
+          </cell>
+          <cell r="M84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>DNA</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>DNA</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>DNA</v>
+          </cell>
+          <cell r="E85">
+            <v>89</v>
+          </cell>
+          <cell r="F85">
+            <v>59</v>
+          </cell>
+          <cell r="G85">
+            <v>30</v>
+          </cell>
+          <cell r="H85">
+            <v>0</v>
+          </cell>
+          <cell r="L85">
+            <v>9</v>
+          </cell>
+          <cell r="M85">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>SMG Gun</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>SMG Gun</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>SMG</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>Gun</v>
+          </cell>
+          <cell r="E86">
+            <v>90</v>
+          </cell>
+          <cell r="F86" t="str">
+            <v>5A</v>
+          </cell>
+          <cell r="G86">
+            <v>30</v>
+          </cell>
+          <cell r="H86">
+            <v>6800</v>
+          </cell>
+          <cell r="L86">
+            <v>45</v>
+          </cell>
+          <cell r="M86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>Grenade</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>Grenade</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>Grenade</v>
+          </cell>
+          <cell r="E87">
+            <v>91</v>
+          </cell>
+          <cell r="F87" t="str">
+            <v>5B</v>
+          </cell>
+          <cell r="G87">
+            <v>30</v>
+          </cell>
+          <cell r="H87">
+            <v>11000</v>
+          </cell>
+          <cell r="L87">
+            <v>63</v>
+          </cell>
+          <cell r="M87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>Bazooka Cannon</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>Bazooka Cannon</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>Bazooka</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>Cannon</v>
+          </cell>
+          <cell r="E88">
+            <v>92</v>
+          </cell>
+          <cell r="F88" t="str">
+            <v>5C</v>
+          </cell>
+          <cell r="G88">
+            <v>30</v>
+          </cell>
+          <cell r="H88">
+            <v>17000</v>
+          </cell>
+          <cell r="L88">
+            <v>81</v>
+          </cell>
+          <cell r="M88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>Vulcan Cannon</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>Vulcan Cannon</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>Vulcan</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>Cannon</v>
+          </cell>
+          <cell r="E89">
+            <v>93</v>
+          </cell>
+          <cell r="F89" t="str">
+            <v>5D</v>
+          </cell>
+          <cell r="G89">
+            <v>30</v>
+          </cell>
+          <cell r="H89">
+            <v>26000</v>
+          </cell>
+          <cell r="L89">
+            <v>99</v>
+          </cell>
+          <cell r="M89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>Tank Cannon</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>Tank Cannon</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>Tank</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>Cannon</v>
+          </cell>
+          <cell r="E90">
+            <v>94</v>
+          </cell>
+          <cell r="F90" t="str">
+            <v>5E</v>
+          </cell>
+          <cell r="G90">
+            <v>20</v>
+          </cell>
+          <cell r="H90">
+            <v>36000</v>
+          </cell>
+          <cell r="L90">
+            <v>117</v>
+          </cell>
+          <cell r="M90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>Fire Gun</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>Fire Gun</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>Fire</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>Gun</v>
+          </cell>
+          <cell r="E91">
+            <v>95</v>
+          </cell>
+          <cell r="F91" t="str">
+            <v>5F</v>
+          </cell>
+          <cell r="G91">
+            <v>30</v>
+          </cell>
+          <cell r="H91">
+            <v>17000</v>
+          </cell>
+          <cell r="L91">
+            <v>81</v>
+          </cell>
+          <cell r="M91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>Missile Cannon</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>Missile Cannon</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>Missile</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>Cannon</v>
+          </cell>
+          <cell r="E92">
+            <v>96</v>
+          </cell>
+          <cell r="F92">
+            <v>60</v>
+          </cell>
+          <cell r="G92">
+            <v>10</v>
+          </cell>
+          <cell r="H92">
+            <v>36000</v>
+          </cell>
+          <cell r="L92">
+            <v>117</v>
+          </cell>
+          <cell r="M92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>NukeBomb</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>NukeBomb</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>NukeBomb</v>
+          </cell>
+          <cell r="E93">
+            <v>97</v>
+          </cell>
+          <cell r="F93">
+            <v>61</v>
+          </cell>
+          <cell r="G93">
+            <v>1</v>
+          </cell>
+          <cell r="H93">
+            <v>1464</v>
+          </cell>
+          <cell r="L93">
+            <v>144</v>
+          </cell>
+          <cell r="M93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>Giant Armor</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>Giant Armor</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>Giant</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>Armor</v>
+          </cell>
+          <cell r="E94">
+            <v>98</v>
+          </cell>
+          <cell r="F94">
+            <v>62</v>
+          </cell>
+          <cell r="G94">
+            <v>-2</v>
+          </cell>
+          <cell r="H94">
+            <v>26000</v>
+          </cell>
+          <cell r="I94">
+            <v>20</v>
+          </cell>
+          <cell r="J94" t="str">
+            <v>Str</v>
+          </cell>
+          <cell r="K94">
+            <v>10</v>
+          </cell>
+          <cell r="L94">
+            <v>81</v>
+          </cell>
+          <cell r="M94" t="str">
+            <v>Def +18</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>Army Helm</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>Army Helm</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>Army</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>Helm</v>
+          </cell>
+          <cell r="E95">
+            <v>99</v>
+          </cell>
+          <cell r="F95">
+            <v>63</v>
+          </cell>
+          <cell r="G95">
+            <v>-2</v>
+          </cell>
+          <cell r="H95">
+            <v>17000</v>
+          </cell>
+          <cell r="I95">
+            <v>13</v>
+          </cell>
+          <cell r="L95">
+            <v>81</v>
+          </cell>
+          <cell r="M95" t="str">
+            <v>Def +18</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>Army Armor</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>Army Armor</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>Army</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>Armor</v>
+          </cell>
+          <cell r="E96">
+            <v>100</v>
+          </cell>
+          <cell r="F96">
+            <v>64</v>
+          </cell>
+          <cell r="G96">
+            <v>-2</v>
+          </cell>
+          <cell r="H96">
+            <v>17000</v>
+          </cell>
+          <cell r="I96">
+            <v>16</v>
+          </cell>
+          <cell r="L96">
+            <v>63</v>
+          </cell>
+          <cell r="M96" t="str">
+            <v>Def +14</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>Geta Boot</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>Geta Boot</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>Geta</v>
+          </cell>
+          <cell r="D97" t="str">
+            <v>Boot</v>
+          </cell>
+          <cell r="E97">
+            <v>101</v>
+          </cell>
+          <cell r="F97">
+            <v>65</v>
+          </cell>
+          <cell r="G97">
+            <v>-2</v>
+          </cell>
+          <cell r="H97">
+            <v>2800</v>
+          </cell>
+          <cell r="I97">
+            <v>2</v>
+          </cell>
+          <cell r="J97" t="str">
+            <v>Str</v>
+          </cell>
+          <cell r="K97">
+            <v>5</v>
+          </cell>
+          <cell r="L97">
+            <v>27</v>
+          </cell>
+          <cell r="M97" t="str">
+            <v>Def +6</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>Sypha</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>Sypha</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>Sypha</v>
+          </cell>
+          <cell r="E98">
+            <v>102</v>
+          </cell>
+          <cell r="F98">
+            <v>66</v>
+          </cell>
+          <cell r="G98">
+            <v>50</v>
+          </cell>
+          <cell r="H98">
+            <v>11000</v>
+          </cell>
+          <cell r="L98">
+            <v>63</v>
+          </cell>
+          <cell r="M98" t="str">
+            <v>Str +14</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>Coin</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>Coin</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>Coin</v>
+          </cell>
+          <cell r="E99">
+            <v>103</v>
+          </cell>
+          <cell r="F99">
+            <v>67</v>
+          </cell>
+          <cell r="G99">
+            <v>50</v>
+          </cell>
+          <cell r="H99">
+            <v>11000</v>
+          </cell>
+          <cell r="L99">
+            <v>63</v>
+          </cell>
+          <cell r="M99" t="str">
+            <v>Agl +14</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>Kimono Armor</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>Kimono Armor</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>Kimono</v>
+          </cell>
+          <cell r="D100" t="str">
+            <v>Armor</v>
+          </cell>
+          <cell r="E100">
+            <v>104</v>
+          </cell>
+          <cell r="F100">
+            <v>68</v>
+          </cell>
+          <cell r="G100">
+            <v>-2</v>
+          </cell>
+          <cell r="H100">
+            <v>4800</v>
+          </cell>
+          <cell r="I100">
+            <v>10</v>
+          </cell>
+          <cell r="J100" t="str">
+            <v>Agl</v>
+          </cell>
+          <cell r="K100">
+            <v>5</v>
+          </cell>
+          <cell r="L100">
+            <v>9</v>
+          </cell>
+          <cell r="M100" t="str">
+            <v>Def +2</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>Samurai Shield</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>Samurai Shield</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>Samurai</v>
+          </cell>
+          <cell r="D101" t="str">
+            <v>Shield</v>
+          </cell>
+          <cell r="E101">
+            <v>105</v>
+          </cell>
+          <cell r="F101">
+            <v>69</v>
+          </cell>
+          <cell r="G101">
+            <v>50</v>
+          </cell>
+          <cell r="H101">
+            <v>26000</v>
+          </cell>
+          <cell r="L101">
+            <v>99</v>
+          </cell>
+          <cell r="M101" t="str">
+            <v>Def +22</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>Muramas</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>Muramas</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>Muramas</v>
+          </cell>
+          <cell r="D102" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E102">
+            <v>106</v>
+          </cell>
+          <cell r="F102" t="str">
+            <v>6A</v>
+          </cell>
+          <cell r="G102">
+            <v>40</v>
+          </cell>
+          <cell r="H102">
+            <v>26000</v>
+          </cell>
+          <cell r="L102">
+            <v>99</v>
+          </cell>
+          <cell r="M102" t="str">
+            <v>Str +22</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>Gungnir Spear</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>Gungnir Spear</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>Gungnir</v>
+          </cell>
+          <cell r="D103" t="str">
+            <v>Spear</v>
+          </cell>
+          <cell r="E103">
+            <v>107</v>
+          </cell>
+          <cell r="F103" t="str">
+            <v>6B</v>
+          </cell>
+          <cell r="G103">
+            <v>30</v>
+          </cell>
+          <cell r="H103">
+            <v>50000</v>
+          </cell>
+          <cell r="L103">
+            <v>144</v>
+          </cell>
+          <cell r="M103" t="str">
+            <v>Str +32</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>Laser Sword</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>Laser Sword</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>Laser</v>
+          </cell>
+          <cell r="D104" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E104">
+            <v>108</v>
+          </cell>
+          <cell r="F104" t="str">
+            <v>6C</v>
+          </cell>
+          <cell r="G104">
+            <v>50</v>
+          </cell>
+          <cell r="H104">
+            <v>11000</v>
+          </cell>
+          <cell r="L104">
+            <v>63</v>
+          </cell>
+          <cell r="M104" t="str">
+            <v>Agl +14</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>Psi Knife</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>Psi Knife</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>Psi</v>
+          </cell>
+          <cell r="D105" t="str">
+            <v>Knife</v>
+          </cell>
+          <cell r="E105">
+            <v>109</v>
+          </cell>
+          <cell r="F105" t="str">
+            <v>6D</v>
+          </cell>
+          <cell r="G105">
+            <v>50</v>
+          </cell>
+          <cell r="H105">
+            <v>1400</v>
+          </cell>
+          <cell r="L105">
+            <v>27</v>
+          </cell>
+          <cell r="M105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>Psi Sword</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>Psi Sword</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>Psi</v>
+          </cell>
+          <cell r="D106" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E106">
+            <v>110</v>
+          </cell>
+          <cell r="F106" t="str">
+            <v>6E</v>
+          </cell>
+          <cell r="G106">
+            <v>50</v>
+          </cell>
+          <cell r="H106">
+            <v>17000</v>
+          </cell>
+          <cell r="L106">
+            <v>81</v>
+          </cell>
+          <cell r="M106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>Laser Gun</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>Laser Gun</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>Laser</v>
+          </cell>
+          <cell r="D107" t="str">
+            <v>Gun</v>
+          </cell>
+          <cell r="E107">
+            <v>111</v>
+          </cell>
+          <cell r="F107" t="str">
+            <v>6F</v>
+          </cell>
+          <cell r="G107">
+            <v>30</v>
+          </cell>
+          <cell r="H107">
+            <v>36000</v>
+          </cell>
+          <cell r="L107">
+            <v>117</v>
+          </cell>
+          <cell r="M107" t="str">
+            <v>Agl +26</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>SpeedUp</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>SpeedUp</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>SpeedUp</v>
+          </cell>
+          <cell r="E108">
+            <v>112</v>
+          </cell>
+          <cell r="F108">
+            <v>70</v>
+          </cell>
+          <cell r="G108">
+            <v>20</v>
+          </cell>
+          <cell r="H108">
+            <v>6800</v>
+          </cell>
+          <cell r="L108">
+            <v>45</v>
+          </cell>
+          <cell r="M108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>Rocket</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>Rocket</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>Rocket</v>
+          </cell>
+          <cell r="E109">
+            <v>113</v>
+          </cell>
+          <cell r="F109">
+            <v>71</v>
+          </cell>
+          <cell r="G109">
+            <v>30</v>
+          </cell>
+          <cell r="H109">
+            <v>6800</v>
+          </cell>
+          <cell r="L109">
+            <v>45</v>
+          </cell>
+          <cell r="M109" t="str">
+            <v>Str +10</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>Psi Gun</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>Psi Gun</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>Psi</v>
+          </cell>
+          <cell r="D110" t="str">
+            <v>Gun</v>
+          </cell>
+          <cell r="E110">
+            <v>114</v>
+          </cell>
+          <cell r="F110">
+            <v>72</v>
+          </cell>
+          <cell r="G110">
+            <v>30</v>
+          </cell>
+          <cell r="H110">
+            <v>50000</v>
+          </cell>
+          <cell r="L110">
+            <v>144</v>
+          </cell>
+          <cell r="M110" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>Giant Helm</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>Giant Helm</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>Giant</v>
+          </cell>
+          <cell r="D111" t="str">
+            <v>Helm</v>
+          </cell>
+          <cell r="E111">
+            <v>115</v>
+          </cell>
+          <cell r="F111">
+            <v>73</v>
+          </cell>
+          <cell r="G111">
+            <v>-2</v>
+          </cell>
+          <cell r="H111">
+            <v>17000</v>
+          </cell>
+          <cell r="I111">
+            <v>13</v>
+          </cell>
+          <cell r="J111" t="str">
+            <v>Str</v>
+          </cell>
+          <cell r="K111">
+            <v>10</v>
+          </cell>
+          <cell r="L111">
+            <v>81</v>
+          </cell>
+          <cell r="M111" t="str">
+            <v>Def +18</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>Hyper Cannon</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>Hyper Cannon</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>Hyper</v>
+          </cell>
+          <cell r="D112" t="str">
+            <v>Cannon</v>
+          </cell>
+          <cell r="E112">
+            <v>116</v>
+          </cell>
+          <cell r="F112">
+            <v>74</v>
+          </cell>
+          <cell r="G112">
+            <v>3</v>
+          </cell>
+          <cell r="H112">
+            <v>50000</v>
+          </cell>
+          <cell r="L112">
+            <v>144</v>
+          </cell>
+          <cell r="M112">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>Battle Armor</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>Battle Armor</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>Battle</v>
+          </cell>
+          <cell r="D113" t="str">
+            <v>Armor</v>
+          </cell>
+          <cell r="E113">
+            <v>117</v>
+          </cell>
+          <cell r="F113">
+            <v>75</v>
+          </cell>
+          <cell r="G113">
+            <v>-2</v>
+          </cell>
+          <cell r="H113">
+            <v>39000</v>
+          </cell>
+          <cell r="I113">
+            <v>26</v>
+          </cell>
+          <cell r="J113" t="str">
+            <v>Str</v>
+          </cell>
+          <cell r="K113">
+            <v>5</v>
+          </cell>
+          <cell r="L113">
+            <v>99</v>
+          </cell>
+          <cell r="M113" t="str">
+            <v>Def +22</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v xml:space="preserve">Parasuit </v>
+          </cell>
+          <cell r="B114" t="str">
+            <v xml:space="preserve">Parasuit </v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>Parasuit</v>
+          </cell>
+          <cell r="E114">
+            <v>118</v>
+          </cell>
+          <cell r="F114">
+            <v>76</v>
+          </cell>
+          <cell r="G114">
+            <v>-2</v>
+          </cell>
+          <cell r="H114">
+            <v>9464</v>
+          </cell>
+          <cell r="I114">
+            <v>73</v>
+          </cell>
+          <cell r="J114" t="str">
+            <v>Str, Agl</v>
+          </cell>
+          <cell r="K114">
+            <v>15</v>
+          </cell>
+          <cell r="L114">
+            <v>144</v>
+          </cell>
+          <cell r="M114" t="str">
+            <v>Def +32</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v xml:space="preserve">Door </v>
+          </cell>
+          <cell r="B115" t="str">
+            <v xml:space="preserve">Door </v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>Door</v>
+          </cell>
+          <cell r="E115">
+            <v>119</v>
+          </cell>
+          <cell r="F115">
+            <v>77</v>
+          </cell>
+          <cell r="G115">
+            <v>3</v>
+          </cell>
+          <cell r="H115">
+            <v>5000</v>
+          </cell>
+          <cell r="L115">
+            <v>9</v>
+          </cell>
+          <cell r="M115">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>Micron Potion</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>Micron Potion</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>Micron</v>
+          </cell>
+          <cell r="D116" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E116">
+            <v>120</v>
+          </cell>
+          <cell r="F116">
+            <v>78</v>
+          </cell>
+          <cell r="G116">
+            <v>-2</v>
+          </cell>
+          <cell r="H116">
+            <v>1</v>
+          </cell>
+          <cell r="L116">
+            <v>9</v>
+          </cell>
+          <cell r="M116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v xml:space="preserve">Key </v>
+          </cell>
+          <cell r="B117" t="str">
+            <v xml:space="preserve">Key </v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>Key</v>
+          </cell>
+          <cell r="E117">
+            <v>121</v>
+          </cell>
+          <cell r="F117">
+            <v>79</v>
+          </cell>
+          <cell r="G117">
+            <v>-2</v>
+          </cell>
+          <cell r="H117">
+            <v>1</v>
+          </cell>
+          <cell r="L117">
+            <v>9</v>
+          </cell>
+          <cell r="M117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>Masmune Magi</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>Masmune Magi</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>Masmune</v>
+          </cell>
+          <cell r="D118" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E118">
+            <v>122</v>
+          </cell>
+          <cell r="F118" t="str">
+            <v>7A</v>
+          </cell>
+          <cell r="G118">
+            <v>-2</v>
+          </cell>
+          <cell r="H118">
+            <v>0</v>
+          </cell>
+          <cell r="L118">
+            <v>9</v>
+          </cell>
+          <cell r="M118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>Aegis Magi</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>Aegis Magi</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>Aegis</v>
+          </cell>
+          <cell r="D119" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E119">
+            <v>123</v>
+          </cell>
+          <cell r="F119" t="str">
+            <v>7B</v>
+          </cell>
+          <cell r="G119">
+            <v>-2</v>
+          </cell>
+          <cell r="H119">
+            <v>0</v>
+          </cell>
+          <cell r="L119">
+            <v>9</v>
+          </cell>
+          <cell r="M119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>Heart Magi</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>Heart Magi</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>Heart</v>
+          </cell>
+          <cell r="D120" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E120">
+            <v>124</v>
+          </cell>
+          <cell r="F120" t="str">
+            <v>7C</v>
+          </cell>
+          <cell r="G120">
+            <v>1</v>
+          </cell>
+          <cell r="H120">
+            <v>0</v>
+          </cell>
+          <cell r="L120">
+            <v>9</v>
+          </cell>
+          <cell r="M120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>Pegasus Magi</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>Pegasus Magi</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>Pegasus</v>
+          </cell>
+          <cell r="D121" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E121">
+            <v>125</v>
+          </cell>
+          <cell r="F121" t="str">
+            <v>7D</v>
+          </cell>
+          <cell r="G121">
+            <v>-2</v>
+          </cell>
+          <cell r="H121">
+            <v>0</v>
+          </cell>
+          <cell r="L121">
+            <v>9</v>
+          </cell>
+          <cell r="M121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>Selfix</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>Selfix</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>Selfix</v>
+          </cell>
+          <cell r="E122">
+            <v>126</v>
+          </cell>
+          <cell r="F122" t="str">
+            <v>7E</v>
+          </cell>
+          <cell r="G122">
+            <v>-2</v>
+          </cell>
+          <cell r="H122">
+            <v>0</v>
+          </cell>
+          <cell r="L122">
+            <v>117</v>
+          </cell>
+          <cell r="M122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>Seven Sword</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>Seven Sword</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>Seven</v>
+          </cell>
+          <cell r="D123" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E123">
+            <v>127</v>
+          </cell>
+          <cell r="F123" t="str">
+            <v>7F</v>
+          </cell>
+          <cell r="G123">
+            <v>7</v>
+          </cell>
+          <cell r="H123">
+            <v>0</v>
+          </cell>
+          <cell r="L123">
+            <v>144</v>
+          </cell>
+          <cell r="M123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>Nail</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>Nail</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>Nail</v>
+          </cell>
+          <cell r="E124">
+            <v>128</v>
+          </cell>
+          <cell r="F124">
+            <v>80</v>
+          </cell>
+          <cell r="G124">
+            <v>30</v>
+          </cell>
+          <cell r="L124">
+            <v>9</v>
+          </cell>
+          <cell r="M124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>Tusk</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>Tusk</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>Tusk</v>
+          </cell>
+          <cell r="E125">
+            <v>129</v>
+          </cell>
+          <cell r="F125">
+            <v>81</v>
+          </cell>
+          <cell r="G125">
+            <v>15</v>
+          </cell>
+          <cell r="L125">
+            <v>9</v>
+          </cell>
+          <cell r="M125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>Tongue</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>Tongue</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>Tongue</v>
+          </cell>
+          <cell r="E126">
+            <v>130</v>
+          </cell>
+          <cell r="F126">
+            <v>82</v>
+          </cell>
+          <cell r="G126">
+            <v>30</v>
+          </cell>
+          <cell r="L126">
+            <v>9</v>
+          </cell>
+          <cell r="M126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>Stab</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>Stab</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>Stab</v>
+          </cell>
+          <cell r="E127">
+            <v>131</v>
+          </cell>
+          <cell r="F127">
+            <v>83</v>
+          </cell>
+          <cell r="G127">
+            <v>30</v>
+          </cell>
+          <cell r="L127">
+            <v>9</v>
+          </cell>
+          <cell r="M127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>Branch</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>Branch</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>Branch</v>
+          </cell>
+          <cell r="E128">
+            <v>132</v>
+          </cell>
+          <cell r="F128">
+            <v>84</v>
+          </cell>
+          <cell r="G128">
+            <v>30</v>
+          </cell>
+          <cell r="L128">
+            <v>9</v>
+          </cell>
+          <cell r="M128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>Bash</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>Bash</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>Bash</v>
+          </cell>
+          <cell r="E129">
+            <v>133</v>
+          </cell>
+          <cell r="F129">
+            <v>85</v>
+          </cell>
+          <cell r="G129">
+            <v>15</v>
+          </cell>
+          <cell r="L129">
+            <v>9</v>
+          </cell>
+          <cell r="M129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>Punch</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>Punch</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>Punch</v>
+          </cell>
+          <cell r="E130">
+            <v>134</v>
+          </cell>
+          <cell r="F130">
+            <v>86</v>
+          </cell>
+          <cell r="G130">
+            <v>30</v>
+          </cell>
+          <cell r="L130">
+            <v>9</v>
+          </cell>
+          <cell r="M130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>Kick</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>Kick</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>Kick</v>
+          </cell>
+          <cell r="E131">
+            <v>135</v>
+          </cell>
+          <cell r="F131">
+            <v>87</v>
+          </cell>
+          <cell r="G131">
+            <v>15</v>
+          </cell>
+          <cell r="L131">
+            <v>9</v>
+          </cell>
+          <cell r="M131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>Horn</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>Horn</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>Horn</v>
+          </cell>
+          <cell r="E132">
+            <v>136</v>
+          </cell>
+          <cell r="F132">
+            <v>88</v>
+          </cell>
+          <cell r="G132">
+            <v>15</v>
+          </cell>
+          <cell r="L132">
+            <v>9</v>
+          </cell>
+          <cell r="M132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>Thorn</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>Thorn</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>Thorn</v>
+          </cell>
+          <cell r="E133">
+            <v>137</v>
+          </cell>
+          <cell r="F133">
+            <v>89</v>
+          </cell>
+          <cell r="G133">
+            <v>30</v>
+          </cell>
+          <cell r="L133">
+            <v>9</v>
+          </cell>
+          <cell r="M133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E134">
+            <v>138</v>
+          </cell>
+          <cell r="F134" t="str">
+            <v>8A</v>
+          </cell>
+          <cell r="G134">
+            <v>30</v>
+          </cell>
+          <cell r="L134">
+            <v>9</v>
+          </cell>
+          <cell r="M134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>Head</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>Head</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>Head</v>
+          </cell>
+          <cell r="E135">
+            <v>139</v>
+          </cell>
+          <cell r="F135" t="str">
+            <v>8B</v>
+          </cell>
+          <cell r="G135">
+            <v>15</v>
+          </cell>
+          <cell r="L135">
+            <v>9</v>
+          </cell>
+          <cell r="M135">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>Beak</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>Beak</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>Beak</v>
+          </cell>
+          <cell r="E136">
+            <v>140</v>
+          </cell>
+          <cell r="F136" t="str">
+            <v>8C</v>
+          </cell>
+          <cell r="G136">
+            <v>30</v>
+          </cell>
+          <cell r="L136">
+            <v>9</v>
+          </cell>
+          <cell r="M136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>Tail</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>Tail</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>Tail</v>
+          </cell>
+          <cell r="E137">
+            <v>141</v>
+          </cell>
+          <cell r="F137" t="str">
+            <v>8D</v>
+          </cell>
+          <cell r="G137">
+            <v>30</v>
+          </cell>
+          <cell r="L137">
+            <v>9</v>
+          </cell>
+          <cell r="M137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>Pincer</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>Pincer</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>Pincer</v>
+          </cell>
+          <cell r="E138">
+            <v>142</v>
+          </cell>
+          <cell r="F138" t="str">
+            <v>8E</v>
+          </cell>
+          <cell r="G138">
+            <v>30</v>
+          </cell>
+          <cell r="L138">
+            <v>9</v>
+          </cell>
+          <cell r="M138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>Fin</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>Fin</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>Fin</v>
+          </cell>
+          <cell r="E139">
+            <v>143</v>
+          </cell>
+          <cell r="F139" t="str">
+            <v>8F</v>
+          </cell>
+          <cell r="G139">
+            <v>30</v>
+          </cell>
+          <cell r="L139">
+            <v>9</v>
+          </cell>
+          <cell r="M139">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>Tentacle</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>Tentacle</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>Tentacle</v>
+          </cell>
+          <cell r="E140">
+            <v>144</v>
+          </cell>
+          <cell r="F140">
+            <v>90</v>
+          </cell>
+          <cell r="G140">
+            <v>30</v>
+          </cell>
+          <cell r="L140">
+            <v>9</v>
+          </cell>
+          <cell r="M140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>W-Pincer</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>W-Pincer</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>W-Pincer</v>
+          </cell>
+          <cell r="E141">
+            <v>145</v>
+          </cell>
+          <cell r="F141">
+            <v>91</v>
+          </cell>
+          <cell r="G141">
+            <v>15</v>
+          </cell>
+          <cell r="L141">
+            <v>9</v>
+          </cell>
+          <cell r="M141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>W-Attack</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>W-Attack</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>W-Attack</v>
+          </cell>
+          <cell r="E142">
+            <v>146</v>
+          </cell>
+          <cell r="F142">
+            <v>92</v>
+          </cell>
+          <cell r="G142">
+            <v>15</v>
+          </cell>
+          <cell r="L142">
+            <v>9</v>
+          </cell>
+          <cell r="M142">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>4-Heads</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>4-Heads</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>4-Heads</v>
+          </cell>
+          <cell r="E143">
+            <v>147</v>
+          </cell>
+          <cell r="F143">
+            <v>93</v>
+          </cell>
+          <cell r="G143">
+            <v>15</v>
+          </cell>
+          <cell r="L143">
+            <v>9</v>
+          </cell>
+          <cell r="M143">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>8-Legs</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>8-Legs</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>8-Legs</v>
+          </cell>
+          <cell r="E144">
+            <v>148</v>
+          </cell>
+          <cell r="F144">
+            <v>94</v>
+          </cell>
+          <cell r="G144">
+            <v>15</v>
+          </cell>
+          <cell r="L144">
+            <v>9</v>
+          </cell>
+          <cell r="M144">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>Touch</v>
+          </cell>
+          <cell r="B145" t="str">
+            <v>Touch</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>Touch</v>
+          </cell>
+          <cell r="E145">
+            <v>149</v>
+          </cell>
+          <cell r="F145">
+            <v>95</v>
+          </cell>
+          <cell r="G145">
+            <v>15</v>
+          </cell>
+          <cell r="L145">
+            <v>9</v>
+          </cell>
+          <cell r="M145">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>Saw</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>Saw</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>Saw</v>
+          </cell>
+          <cell r="E146">
+            <v>150</v>
+          </cell>
+          <cell r="F146">
+            <v>96</v>
+          </cell>
+          <cell r="G146">
+            <v>15</v>
+          </cell>
+          <cell r="L146">
+            <v>9</v>
+          </cell>
+          <cell r="M146">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>Dissolve</v>
+          </cell>
+          <cell r="B147" t="str">
+            <v>Dissolve</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>Dissolve</v>
+          </cell>
+          <cell r="E147">
+            <v>151</v>
+          </cell>
+          <cell r="F147">
+            <v>97</v>
+          </cell>
+          <cell r="G147">
+            <v>15</v>
+          </cell>
+          <cell r="L147">
+            <v>9</v>
+          </cell>
+          <cell r="M147">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>Absorb</v>
+          </cell>
+          <cell r="B148" t="str">
+            <v>Absorb</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>Absorb</v>
+          </cell>
+          <cell r="E148">
+            <v>152</v>
+          </cell>
+          <cell r="F148">
+            <v>98</v>
+          </cell>
+          <cell r="G148">
+            <v>15</v>
+          </cell>
+          <cell r="L148">
+            <v>9</v>
+          </cell>
+          <cell r="M148">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>Cure</v>
+          </cell>
+          <cell r="B149" t="str">
+            <v>Cure</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>Cure</v>
+          </cell>
+          <cell r="E149">
+            <v>153</v>
+          </cell>
+          <cell r="F149">
+            <v>99</v>
+          </cell>
+          <cell r="G149">
+            <v>15</v>
+          </cell>
+          <cell r="L149">
+            <v>9</v>
+          </cell>
+          <cell r="M149" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>Defense</v>
+          </cell>
+          <cell r="B150" t="str">
+            <v>Defense</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>Defense</v>
+          </cell>
+          <cell r="E150">
+            <v>154</v>
+          </cell>
+          <cell r="F150" t="str">
+            <v>9A</v>
+          </cell>
+          <cell r="G150">
+            <v>30</v>
+          </cell>
+          <cell r="L150">
+            <v>9</v>
+          </cell>
+          <cell r="M150" t="str">
+            <v>Def +2</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>Shell</v>
+          </cell>
+          <cell r="B151" t="str">
+            <v>Shell</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>Shell</v>
+          </cell>
+          <cell r="E151">
+            <v>155</v>
+          </cell>
+          <cell r="F151" t="str">
+            <v>9B</v>
+          </cell>
+          <cell r="G151">
+            <v>30</v>
+          </cell>
+          <cell r="L151">
+            <v>9</v>
+          </cell>
+          <cell r="M151" t="str">
+            <v>Def +2</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>Mirror</v>
+          </cell>
+          <cell r="B152" t="str">
+            <v>Mirror</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>Mirror</v>
+          </cell>
+          <cell r="E152">
+            <v>157</v>
+          </cell>
+          <cell r="F152" t="str">
+            <v>9D</v>
+          </cell>
+          <cell r="G152">
+            <v>15</v>
+          </cell>
+          <cell r="L152">
+            <v>9</v>
+          </cell>
+          <cell r="M152" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>Backlash</v>
+          </cell>
+          <cell r="B153" t="str">
+            <v>Backlash</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>Backlash</v>
+          </cell>
+          <cell r="E153">
+            <v>158</v>
+          </cell>
+          <cell r="F153" t="str">
+            <v>9E</v>
+          </cell>
+          <cell r="G153">
+            <v>30</v>
+          </cell>
+          <cell r="L153">
+            <v>9</v>
+          </cell>
+          <cell r="M153">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>Burning</v>
+          </cell>
+          <cell r="B154" t="str">
+            <v>Burning</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>Burning</v>
+          </cell>
+          <cell r="E154">
+            <v>159</v>
+          </cell>
+          <cell r="F154" t="str">
+            <v>9F</v>
+          </cell>
+          <cell r="G154">
+            <v>30</v>
+          </cell>
+          <cell r="L154">
+            <v>9</v>
+          </cell>
+          <cell r="M154">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>2-Swords</v>
+          </cell>
+          <cell r="B155" t="str">
+            <v>2-Swords</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>2-Swords</v>
+          </cell>
+          <cell r="E155">
+            <v>160</v>
+          </cell>
+          <cell r="F155" t="str">
+            <v>A0</v>
+          </cell>
+          <cell r="G155">
+            <v>15</v>
+          </cell>
+          <cell r="L155">
+            <v>9</v>
+          </cell>
+          <cell r="M155">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>2-Tusks</v>
+          </cell>
+          <cell r="B156" t="str">
+            <v>2-Tusks</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>2-Tusks</v>
+          </cell>
+          <cell r="E156">
+            <v>161</v>
+          </cell>
+          <cell r="F156" t="str">
+            <v>A1</v>
+          </cell>
+          <cell r="G156">
+            <v>15</v>
+          </cell>
+          <cell r="L156">
+            <v>9</v>
+          </cell>
+          <cell r="M156">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>3-Heads</v>
+          </cell>
+          <cell r="B157" t="str">
+            <v>3-Heads</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>3-Heads</v>
+          </cell>
+          <cell r="E157">
+            <v>162</v>
+          </cell>
+          <cell r="F157" t="str">
+            <v>A2</v>
+          </cell>
+          <cell r="G157">
+            <v>15</v>
+          </cell>
+          <cell r="L157">
+            <v>9</v>
+          </cell>
+          <cell r="M157">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>3-Horns</v>
+          </cell>
+          <cell r="B158" t="str">
+            <v>3-Horns</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>3-Horns</v>
+          </cell>
+          <cell r="E158">
+            <v>163</v>
+          </cell>
+          <cell r="F158" t="str">
+            <v>A3</v>
+          </cell>
+          <cell r="G158">
+            <v>15</v>
+          </cell>
+          <cell r="L158">
+            <v>9</v>
+          </cell>
+          <cell r="M158">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>6-Arms</v>
+          </cell>
+          <cell r="B159" t="str">
+            <v>6-Arms</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>6-Arms</v>
+          </cell>
+          <cell r="E159">
+            <v>164</v>
+          </cell>
+          <cell r="F159" t="str">
+            <v>A4</v>
+          </cell>
+          <cell r="G159">
+            <v>15</v>
+          </cell>
+          <cell r="L159">
+            <v>9</v>
+          </cell>
+          <cell r="M159">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>Critical</v>
+          </cell>
+          <cell r="B160" t="str">
+            <v>Critical</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>Critical</v>
+          </cell>
+          <cell r="E160">
+            <v>165</v>
+          </cell>
+          <cell r="F160" t="str">
+            <v>A5</v>
+          </cell>
+          <cell r="G160">
+            <v>10</v>
+          </cell>
+          <cell r="L160">
+            <v>9</v>
+          </cell>
+          <cell r="M160">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="B161" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>Axe</v>
+          </cell>
+          <cell r="E161">
+            <v>166</v>
+          </cell>
+          <cell r="F161" t="str">
+            <v>A6</v>
+          </cell>
+          <cell r="G161">
+            <v>20</v>
+          </cell>
+          <cell r="L161">
+            <v>9</v>
+          </cell>
+          <cell r="M161">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>Honey</v>
+          </cell>
+          <cell r="B162" t="str">
+            <v>Honey</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>Honey</v>
+          </cell>
+          <cell r="E162">
+            <v>167</v>
+          </cell>
+          <cell r="F162" t="str">
+            <v>A7</v>
+          </cell>
+          <cell r="G162">
+            <v>10</v>
+          </cell>
+          <cell r="L162">
+            <v>9</v>
+          </cell>
+          <cell r="M162" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>Heal</v>
+          </cell>
+          <cell r="B163" t="str">
+            <v>Heal</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>Heal</v>
+          </cell>
+          <cell r="E163">
+            <v>168</v>
+          </cell>
+          <cell r="F163" t="str">
+            <v>A8</v>
+          </cell>
+          <cell r="G163">
+            <v>10</v>
+          </cell>
+          <cell r="L163">
+            <v>9</v>
+          </cell>
+          <cell r="M163" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>MegaCure</v>
+          </cell>
+          <cell r="B164" t="str">
+            <v>MegaCure</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>Life</v>
+          </cell>
+          <cell r="D164" t="str">
+            <v>Potion</v>
+          </cell>
+          <cell r="E164">
+            <v>169</v>
+          </cell>
+          <cell r="F164" t="str">
+            <v>A9</v>
+          </cell>
+          <cell r="G164">
+            <v>3</v>
+          </cell>
+          <cell r="L164">
+            <v>9</v>
+          </cell>
+          <cell r="M164" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>W-Kick</v>
+          </cell>
+          <cell r="B165" t="str">
+            <v>W-Kick</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>W-Kick</v>
+          </cell>
+          <cell r="E165">
+            <v>170</v>
+          </cell>
+          <cell r="F165" t="str">
+            <v>AA</v>
+          </cell>
+          <cell r="G165">
+            <v>15</v>
+          </cell>
+          <cell r="L165">
+            <v>9</v>
+          </cell>
+          <cell r="M165">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>ParaNail</v>
+          </cell>
+          <cell r="B166" t="str">
+            <v>ParaNail</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>ParaNail</v>
+          </cell>
+          <cell r="E166">
+            <v>171</v>
+          </cell>
+          <cell r="F166" t="str">
+            <v>AB</v>
+          </cell>
+          <cell r="G166">
+            <v>20</v>
+          </cell>
+          <cell r="L166">
+            <v>9</v>
+          </cell>
+          <cell r="M166">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>Wind Up</v>
+          </cell>
+          <cell r="B167" t="str">
+            <v>Wind Up</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>Wind Up</v>
+          </cell>
+          <cell r="E167">
+            <v>172</v>
+          </cell>
+          <cell r="F167" t="str">
+            <v>AC</v>
+          </cell>
+          <cell r="G167">
+            <v>20</v>
+          </cell>
+          <cell r="L167">
+            <v>9</v>
+          </cell>
+          <cell r="M167">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>Tie Up</v>
+          </cell>
+          <cell r="B168" t="str">
+            <v>Tie Up</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>Tie Up</v>
+          </cell>
+          <cell r="E168">
+            <v>173</v>
+          </cell>
+          <cell r="F168" t="str">
+            <v>AD</v>
+          </cell>
+          <cell r="G168">
+            <v>20</v>
+          </cell>
+          <cell r="L168">
+            <v>9</v>
+          </cell>
+          <cell r="M168">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>Breath</v>
+          </cell>
+          <cell r="B169" t="str">
+            <v>Breath</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>Breath</v>
+          </cell>
+          <cell r="E169">
+            <v>174</v>
+          </cell>
+          <cell r="F169" t="str">
+            <v>AE</v>
+          </cell>
+          <cell r="G169">
+            <v>20</v>
+          </cell>
+          <cell r="L169">
+            <v>9</v>
+          </cell>
+          <cell r="M169">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>Poison</v>
+          </cell>
+          <cell r="B170" t="str">
+            <v>Poison</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>Poison</v>
+          </cell>
+          <cell r="E170">
+            <v>175</v>
+          </cell>
+          <cell r="F170" t="str">
+            <v>AF</v>
+          </cell>
+          <cell r="G170">
+            <v>20</v>
+          </cell>
+          <cell r="L170">
+            <v>9</v>
+          </cell>
+          <cell r="M170">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>P-Skin</v>
+          </cell>
+          <cell r="B171" t="str">
+            <v>P-Skin</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>P-Skin</v>
+          </cell>
+          <cell r="E171">
+            <v>177</v>
+          </cell>
+          <cell r="F171" t="str">
+            <v>B1</v>
+          </cell>
+          <cell r="G171">
+            <v>30</v>
+          </cell>
+          <cell r="L171">
+            <v>9</v>
+          </cell>
+          <cell r="M171">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>ParaSkin</v>
+          </cell>
+          <cell r="B172" t="str">
+            <v>ParaSkin</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>ParaSkin</v>
+          </cell>
+          <cell r="E172">
+            <v>178</v>
+          </cell>
+          <cell r="F172" t="str">
+            <v>B2</v>
+          </cell>
+          <cell r="G172">
+            <v>30</v>
+          </cell>
+          <cell r="L172">
+            <v>9</v>
+          </cell>
+          <cell r="M172">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>Petrify</v>
+          </cell>
+          <cell r="B173" t="str">
+            <v>Petrify</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>Petrify</v>
+          </cell>
+          <cell r="E173">
+            <v>179</v>
+          </cell>
+          <cell r="F173" t="str">
+            <v>B3</v>
+          </cell>
+          <cell r="G173">
+            <v>20</v>
+          </cell>
+          <cell r="L173">
+            <v>9</v>
+          </cell>
+          <cell r="M173">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>StonSkin</v>
+          </cell>
+          <cell r="B174" t="str">
+            <v>StonSkin</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>StonSkin</v>
+          </cell>
+          <cell r="E174">
+            <v>180</v>
+          </cell>
+          <cell r="F174" t="str">
+            <v>B4</v>
+          </cell>
+          <cell r="G174">
+            <v>30</v>
+          </cell>
+          <cell r="L174">
+            <v>9</v>
+          </cell>
+          <cell r="M174">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>Thunder</v>
+          </cell>
+          <cell r="B175" t="str">
+            <v>Thunder</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>Thunder</v>
+          </cell>
+          <cell r="E175">
+            <v>181</v>
+          </cell>
+          <cell r="F175" t="str">
+            <v>B5</v>
+          </cell>
+          <cell r="G175">
+            <v>15</v>
+          </cell>
+          <cell r="L175">
+            <v>9</v>
+          </cell>
+          <cell r="M175" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>Ice</v>
+          </cell>
+          <cell r="B176" t="str">
+            <v>Ice</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>Ice</v>
+          </cell>
+          <cell r="E176">
+            <v>182</v>
+          </cell>
+          <cell r="F176" t="str">
+            <v>B6</v>
+          </cell>
+          <cell r="G176">
+            <v>15</v>
+          </cell>
+          <cell r="L176">
+            <v>9</v>
+          </cell>
+          <cell r="M176" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>Fire</v>
+          </cell>
+          <cell r="B177" t="str">
+            <v>Fire</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>Fire</v>
+          </cell>
+          <cell r="E177">
+            <v>183</v>
+          </cell>
+          <cell r="F177" t="str">
+            <v>B7</v>
+          </cell>
+          <cell r="G177">
+            <v>15</v>
+          </cell>
+          <cell r="L177">
+            <v>9</v>
+          </cell>
+          <cell r="M177" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>Flame</v>
+          </cell>
+          <cell r="B178" t="str">
+            <v>Flame</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>Flame</v>
+          </cell>
+          <cell r="E178">
+            <v>184</v>
+          </cell>
+          <cell r="F178" t="str">
+            <v>B8</v>
+          </cell>
+          <cell r="G178">
+            <v>15</v>
+          </cell>
+          <cell r="L178">
+            <v>9</v>
+          </cell>
+          <cell r="M178" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>Gas</v>
+          </cell>
+          <cell r="B179" t="str">
+            <v>Gas</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>Gas</v>
+          </cell>
+          <cell r="E179">
+            <v>185</v>
+          </cell>
+          <cell r="F179" t="str">
+            <v>B9</v>
+          </cell>
+          <cell r="G179">
+            <v>15</v>
+          </cell>
+          <cell r="L179">
+            <v>9</v>
+          </cell>
+          <cell r="M179" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>Blizzard</v>
+          </cell>
+          <cell r="B180" t="str">
+            <v>Blizzard</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>Blizzard</v>
+          </cell>
+          <cell r="E180">
+            <v>186</v>
+          </cell>
+          <cell r="F180" t="str">
+            <v>BA</v>
+          </cell>
+          <cell r="G180">
+            <v>15</v>
+          </cell>
+          <cell r="L180">
+            <v>9</v>
+          </cell>
+          <cell r="M180" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181" t="str">
+            <v>Lightning</v>
+          </cell>
+          <cell r="B181" t="str">
+            <v>Lightning</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>Lightning</v>
+          </cell>
+          <cell r="E181">
+            <v>187</v>
+          </cell>
+          <cell r="F181" t="str">
+            <v>BB</v>
+          </cell>
+          <cell r="G181">
+            <v>15</v>
+          </cell>
+          <cell r="L181">
+            <v>9</v>
+          </cell>
+          <cell r="M181" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182" t="str">
+            <v>Beam</v>
+          </cell>
+          <cell r="B182" t="str">
+            <v>Beam</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>Beam</v>
+          </cell>
+          <cell r="E182">
+            <v>188</v>
+          </cell>
+          <cell r="F182" t="str">
+            <v>BC</v>
+          </cell>
+          <cell r="G182">
+            <v>15</v>
+          </cell>
+          <cell r="L182">
+            <v>9</v>
+          </cell>
+          <cell r="M182">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183" t="str">
+            <v>P-Blast</v>
+          </cell>
+          <cell r="B183" t="str">
+            <v>P-Blast</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>P-Blast</v>
+          </cell>
+          <cell r="E183">
+            <v>189</v>
+          </cell>
+          <cell r="F183" t="str">
+            <v>BD</v>
+          </cell>
+          <cell r="G183">
+            <v>15</v>
+          </cell>
+          <cell r="L183">
+            <v>9</v>
+          </cell>
+          <cell r="M183" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184" t="str">
+            <v>Dispel</v>
+          </cell>
+          <cell r="B184" t="str">
+            <v>Dispel</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>Dispel</v>
+          </cell>
+          <cell r="E184">
+            <v>190</v>
+          </cell>
+          <cell r="F184" t="str">
+            <v>BE</v>
+          </cell>
+          <cell r="G184">
+            <v>15</v>
+          </cell>
+          <cell r="L184">
+            <v>9</v>
+          </cell>
+          <cell r="M184" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185" t="str">
+            <v>D-Beam</v>
+          </cell>
+          <cell r="B185" t="str">
+            <v>D-Beam</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>D-Beam</v>
+          </cell>
+          <cell r="E185">
+            <v>191</v>
+          </cell>
+          <cell r="F185" t="str">
+            <v>BF</v>
+          </cell>
+          <cell r="G185">
+            <v>15</v>
+          </cell>
+          <cell r="L185">
+            <v>9</v>
+          </cell>
+          <cell r="M185">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v>Squirt</v>
+          </cell>
+          <cell r="B186" t="str">
+            <v>Squirt</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>Squirt</v>
+          </cell>
+          <cell r="E186">
+            <v>192</v>
+          </cell>
+          <cell r="F186" t="str">
+            <v>C0</v>
+          </cell>
+          <cell r="G186">
+            <v>15</v>
+          </cell>
+          <cell r="L186">
+            <v>9</v>
+          </cell>
+          <cell r="M186">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187" t="str">
+            <v>SunBurst</v>
+          </cell>
+          <cell r="B187" t="str">
+            <v>SunBurst</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>SunBurst</v>
+          </cell>
+          <cell r="E187">
+            <v>193</v>
+          </cell>
+          <cell r="F187" t="str">
+            <v>C1</v>
+          </cell>
+          <cell r="G187">
+            <v>15</v>
+          </cell>
+          <cell r="L187">
+            <v>9</v>
+          </cell>
+          <cell r="M187">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v>SleepGas</v>
+          </cell>
+          <cell r="B188" t="str">
+            <v>SleepGas</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>SleepGas</v>
+          </cell>
+          <cell r="E188">
+            <v>194</v>
+          </cell>
+          <cell r="F188" t="str">
+            <v>C2</v>
+          </cell>
+          <cell r="G188">
+            <v>15</v>
+          </cell>
+          <cell r="L188">
+            <v>9</v>
+          </cell>
+          <cell r="M188">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v>Sleep</v>
+          </cell>
+          <cell r="B189" t="str">
+            <v>Sleep</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>Sleep</v>
+          </cell>
+          <cell r="E189">
+            <v>195</v>
+          </cell>
+          <cell r="F189" t="str">
+            <v>C3</v>
+          </cell>
+          <cell r="G189">
+            <v>15</v>
+          </cell>
+          <cell r="L189">
+            <v>9</v>
+          </cell>
+          <cell r="M189" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>StonGaze</v>
+          </cell>
+          <cell r="B190" t="str">
+            <v>StonGaze</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>StonGaze</v>
+          </cell>
+          <cell r="E190">
+            <v>196</v>
+          </cell>
+          <cell r="F190" t="str">
+            <v>C4</v>
+          </cell>
+          <cell r="G190">
+            <v>15</v>
+          </cell>
+          <cell r="L190">
+            <v>9</v>
+          </cell>
+          <cell r="M190" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>Stone</v>
+          </cell>
+          <cell r="B191" t="str">
+            <v>Stone</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>Stone</v>
+          </cell>
+          <cell r="E191">
+            <v>197</v>
+          </cell>
+          <cell r="F191" t="str">
+            <v>C5</v>
+          </cell>
+          <cell r="G191">
+            <v>15</v>
+          </cell>
+          <cell r="L191">
+            <v>9</v>
+          </cell>
+          <cell r="M191" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>StoneGas</v>
+          </cell>
+          <cell r="B192" t="str">
+            <v>StoneGas</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>StoneGas</v>
+          </cell>
+          <cell r="E192">
+            <v>198</v>
+          </cell>
+          <cell r="F192" t="str">
+            <v>C6</v>
+          </cell>
+          <cell r="G192">
+            <v>15</v>
+          </cell>
+          <cell r="L192">
+            <v>9</v>
+          </cell>
+          <cell r="M192">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>FatalGas</v>
+          </cell>
+          <cell r="B193" t="str">
+            <v>FatalGas</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>FatalGas</v>
+          </cell>
+          <cell r="E193">
+            <v>199</v>
+          </cell>
+          <cell r="F193" t="str">
+            <v>C7</v>
+          </cell>
+          <cell r="G193">
+            <v>15</v>
+          </cell>
+          <cell r="L193">
+            <v>9</v>
+          </cell>
+          <cell r="M193">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>DeathGaze</v>
+          </cell>
+          <cell r="B194" t="str">
+            <v>DeathGaze</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>DeathGaze</v>
+          </cell>
+          <cell r="E194">
+            <v>200</v>
+          </cell>
+          <cell r="F194" t="str">
+            <v>C8</v>
+          </cell>
+          <cell r="G194">
+            <v>15</v>
+          </cell>
+          <cell r="L194">
+            <v>9</v>
+          </cell>
+          <cell r="M194" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>Erase</v>
+          </cell>
+          <cell r="B195" t="str">
+            <v>Erase</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>Erase</v>
+          </cell>
+          <cell r="E195">
+            <v>201</v>
+          </cell>
+          <cell r="F195" t="str">
+            <v>C9</v>
+          </cell>
+          <cell r="G195">
+            <v>15</v>
+          </cell>
+          <cell r="L195">
+            <v>9</v>
+          </cell>
+          <cell r="M195" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>Blind</v>
+          </cell>
+          <cell r="B196" t="str">
+            <v>Blind</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>Blind</v>
+          </cell>
+          <cell r="E196">
+            <v>202</v>
+          </cell>
+          <cell r="F196" t="str">
+            <v>CA</v>
+          </cell>
+          <cell r="G196">
+            <v>15</v>
+          </cell>
+          <cell r="L196">
+            <v>9</v>
+          </cell>
+          <cell r="M196">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>Flash</v>
+          </cell>
+          <cell r="B197" t="str">
+            <v>Flash</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>Flash</v>
+          </cell>
+          <cell r="E197">
+            <v>203</v>
+          </cell>
+          <cell r="F197" t="str">
+            <v>CB</v>
+          </cell>
+          <cell r="G197">
+            <v>15</v>
+          </cell>
+          <cell r="L197">
+            <v>9</v>
+          </cell>
+          <cell r="M197">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>Ink</v>
+          </cell>
+          <cell r="B198" t="str">
+            <v>Ink</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>Ink</v>
+          </cell>
+          <cell r="E198">
+            <v>204</v>
+          </cell>
+          <cell r="F198" t="str">
+            <v>CC</v>
+          </cell>
+          <cell r="G198">
+            <v>15</v>
+          </cell>
+          <cell r="L198">
+            <v>9</v>
+          </cell>
+          <cell r="M198">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>PoisonCloud</v>
+          </cell>
+          <cell r="B199" t="str">
+            <v>PoisonCloud</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>PoisonCloud</v>
+          </cell>
+          <cell r="E199">
+            <v>205</v>
+          </cell>
+          <cell r="F199" t="str">
+            <v>CD</v>
+          </cell>
+          <cell r="G199">
+            <v>15</v>
+          </cell>
+          <cell r="L199">
+            <v>9</v>
+          </cell>
+          <cell r="M199">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>EvilEye</v>
+          </cell>
+          <cell r="B200" t="str">
+            <v>EvilEye</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>EvilEye</v>
+          </cell>
+          <cell r="E200">
+            <v>206</v>
+          </cell>
+          <cell r="F200" t="str">
+            <v>CE</v>
+          </cell>
+          <cell r="G200">
+            <v>15</v>
+          </cell>
+          <cell r="L200">
+            <v>9</v>
+          </cell>
+          <cell r="M200" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201" t="str">
+            <v>Stunner</v>
+          </cell>
+          <cell r="B201" t="str">
+            <v>Stunner</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>Stunner</v>
+          </cell>
+          <cell r="E201">
+            <v>207</v>
+          </cell>
+          <cell r="F201" t="str">
+            <v>CF</v>
+          </cell>
+          <cell r="G201">
+            <v>15</v>
+          </cell>
+          <cell r="L201">
+            <v>9</v>
+          </cell>
+          <cell r="M201">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202" t="str">
+            <v>Gaze</v>
+          </cell>
+          <cell r="B202" t="str">
+            <v>Gaze</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>Gaze</v>
+          </cell>
+          <cell r="E202">
+            <v>208</v>
+          </cell>
+          <cell r="F202" t="str">
+            <v>D0</v>
+          </cell>
+          <cell r="G202">
+            <v>15</v>
+          </cell>
+          <cell r="L202">
+            <v>9</v>
+          </cell>
+          <cell r="M202" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203" t="str">
+            <v>Charm</v>
+          </cell>
+          <cell r="B203" t="str">
+            <v>Charm</v>
+          </cell>
+          <cell r="C203" t="str">
+            <v>Charm</v>
+          </cell>
+          <cell r="E203">
+            <v>209</v>
+          </cell>
+          <cell r="F203" t="str">
+            <v>D1</v>
+          </cell>
+          <cell r="G203">
+            <v>15</v>
+          </cell>
+          <cell r="L203">
+            <v>9</v>
+          </cell>
+          <cell r="M203" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204" t="str">
+            <v>Hypnos</v>
+          </cell>
+          <cell r="B204" t="str">
+            <v>Hypnos</v>
+          </cell>
+          <cell r="C204" t="str">
+            <v>Hypnos</v>
+          </cell>
+          <cell r="E204">
+            <v>210</v>
+          </cell>
+          <cell r="F204" t="str">
+            <v>D2</v>
+          </cell>
+          <cell r="G204">
+            <v>15</v>
+          </cell>
+          <cell r="L204">
+            <v>9</v>
+          </cell>
+          <cell r="M204" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205" t="str">
+            <v>Sand</v>
+          </cell>
+          <cell r="B205" t="str">
+            <v>Sand</v>
+          </cell>
+          <cell r="C205" t="str">
+            <v>Sand</v>
+          </cell>
+          <cell r="E205">
+            <v>211</v>
+          </cell>
+          <cell r="F205" t="str">
+            <v>D3</v>
+          </cell>
+          <cell r="G205">
+            <v>15</v>
+          </cell>
+          <cell r="L205">
+            <v>9</v>
+          </cell>
+          <cell r="M205">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206" t="str">
+            <v>Cobweb</v>
+          </cell>
+          <cell r="B206" t="str">
+            <v>Cobweb</v>
+          </cell>
+          <cell r="C206" t="str">
+            <v>Cobweb</v>
+          </cell>
+          <cell r="E206">
+            <v>212</v>
+          </cell>
+          <cell r="F206" t="str">
+            <v>D4</v>
+          </cell>
+          <cell r="G206">
+            <v>15</v>
+          </cell>
+          <cell r="L206">
+            <v>9</v>
+          </cell>
+          <cell r="M206">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207" t="str">
+            <v>Blitz</v>
+          </cell>
+          <cell r="B207" t="str">
+            <v>Blitz</v>
+          </cell>
+          <cell r="C207" t="str">
+            <v>Blitz</v>
+          </cell>
+          <cell r="E207">
+            <v>213</v>
+          </cell>
+          <cell r="F207" t="str">
+            <v>D5</v>
+          </cell>
+          <cell r="G207">
+            <v>15</v>
+          </cell>
+          <cell r="L207">
+            <v>9</v>
+          </cell>
+          <cell r="M207" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208" t="str">
+            <v>Drain</v>
+          </cell>
+          <cell r="B208" t="str">
+            <v>Drain</v>
+          </cell>
+          <cell r="C208" t="str">
+            <v>Drain</v>
+          </cell>
+          <cell r="E208">
+            <v>214</v>
+          </cell>
+          <cell r="F208" t="str">
+            <v>D6</v>
+          </cell>
+          <cell r="G208">
+            <v>15</v>
+          </cell>
+          <cell r="L208">
+            <v>9</v>
+          </cell>
+          <cell r="M208">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209" t="str">
+            <v>Stench</v>
+          </cell>
+          <cell r="B209" t="str">
+            <v>Stench</v>
+          </cell>
+          <cell r="C209" t="str">
+            <v>Stench</v>
+          </cell>
+          <cell r="E209">
+            <v>215</v>
+          </cell>
+          <cell r="F209" t="str">
+            <v>D7</v>
+          </cell>
+          <cell r="G209">
+            <v>15</v>
+          </cell>
+          <cell r="L209">
+            <v>9</v>
+          </cell>
+          <cell r="M209">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210" t="str">
+            <v>Haste</v>
+          </cell>
+          <cell r="B210" t="str">
+            <v>Haste</v>
+          </cell>
+          <cell r="C210" t="str">
+            <v>Haste</v>
+          </cell>
+          <cell r="E210">
+            <v>216</v>
+          </cell>
+          <cell r="F210" t="str">
+            <v>D8</v>
+          </cell>
+          <cell r="G210">
+            <v>15</v>
+          </cell>
+          <cell r="L210">
+            <v>9</v>
+          </cell>
+          <cell r="M210" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211" t="str">
+            <v>Tornado</v>
+          </cell>
+          <cell r="B211" t="str">
+            <v>Tornado</v>
+          </cell>
+          <cell r="C211" t="str">
+            <v>Tornado</v>
+          </cell>
+          <cell r="E211">
+            <v>217</v>
+          </cell>
+          <cell r="F211" t="str">
+            <v>D9</v>
+          </cell>
+          <cell r="G211">
+            <v>5</v>
+          </cell>
+          <cell r="L211">
+            <v>9</v>
+          </cell>
+          <cell r="M211" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212" t="str">
+            <v>Quake</v>
+          </cell>
+          <cell r="B212" t="str">
+            <v>Quake</v>
+          </cell>
+          <cell r="C212" t="str">
+            <v>Quake</v>
+          </cell>
+          <cell r="E212">
+            <v>218</v>
+          </cell>
+          <cell r="F212" t="str">
+            <v>DA</v>
+          </cell>
+          <cell r="G212">
+            <v>5</v>
+          </cell>
+          <cell r="L212">
+            <v>9</v>
+          </cell>
+          <cell r="M212" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213" t="str">
+            <v>Whirl</v>
+          </cell>
+          <cell r="B213" t="str">
+            <v>Whirl</v>
+          </cell>
+          <cell r="C213" t="str">
+            <v>Whirl</v>
+          </cell>
+          <cell r="E213">
+            <v>219</v>
+          </cell>
+          <cell r="F213" t="str">
+            <v>DB</v>
+          </cell>
+          <cell r="G213">
+            <v>5</v>
+          </cell>
+          <cell r="L213">
+            <v>9</v>
+          </cell>
+          <cell r="M213" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214" t="str">
+            <v>Flare</v>
+          </cell>
+          <cell r="B214" t="str">
+            <v>Flare</v>
+          </cell>
+          <cell r="C214" t="str">
+            <v>Flare</v>
+          </cell>
+          <cell r="E214">
+            <v>220</v>
+          </cell>
+          <cell r="F214" t="str">
+            <v>DC</v>
+          </cell>
+          <cell r="G214">
+            <v>5</v>
+          </cell>
+          <cell r="L214">
+            <v>9</v>
+          </cell>
+          <cell r="M214" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215" t="str">
+            <v>Steal</v>
+          </cell>
+          <cell r="B215" t="str">
+            <v>Steal</v>
+          </cell>
+          <cell r="C215" t="str">
+            <v>Steal</v>
+          </cell>
+          <cell r="E215">
+            <v>221</v>
+          </cell>
+          <cell r="F215" t="str">
+            <v>DD</v>
+          </cell>
+          <cell r="G215">
+            <v>10</v>
+          </cell>
+          <cell r="L215">
+            <v>9</v>
+          </cell>
+          <cell r="M215" t="str">
+            <v>Agl +2</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216" t="str">
+            <v>Explode</v>
+          </cell>
+          <cell r="B216" t="str">
+            <v>Explode</v>
+          </cell>
+          <cell r="C216" t="str">
+            <v>Explode</v>
+          </cell>
+          <cell r="E216">
+            <v>222</v>
+          </cell>
+          <cell r="F216" t="str">
+            <v>DE</v>
+          </cell>
+          <cell r="G216">
+            <v>1</v>
+          </cell>
+          <cell r="L216">
+            <v>9</v>
+          </cell>
+          <cell r="M216">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217" t="str">
+            <v>Acid</v>
+          </cell>
+          <cell r="B217" t="str">
+            <v>Acid</v>
+          </cell>
+          <cell r="C217" t="str">
+            <v>Acid</v>
+          </cell>
+          <cell r="E217">
+            <v>223</v>
+          </cell>
+          <cell r="F217" t="str">
+            <v>DF</v>
+          </cell>
+          <cell r="G217">
+            <v>5</v>
+          </cell>
+          <cell r="L217">
+            <v>9</v>
+          </cell>
+          <cell r="M217">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218" t="str">
+            <v>Riddle</v>
+          </cell>
+          <cell r="B218" t="str">
+            <v>Riddle</v>
+          </cell>
+          <cell r="C218" t="str">
+            <v>Riddle</v>
+          </cell>
+          <cell r="E218">
+            <v>224</v>
+          </cell>
+          <cell r="F218" t="str">
+            <v>E0</v>
+          </cell>
+          <cell r="G218">
+            <v>5</v>
+          </cell>
+          <cell r="L218">
+            <v>9</v>
+          </cell>
+          <cell r="M218" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219" t="str">
+            <v>CursSong</v>
+          </cell>
+          <cell r="B219" t="str">
+            <v>CursSong</v>
+          </cell>
+          <cell r="C219" t="str">
+            <v>CursSong</v>
+          </cell>
+          <cell r="E219">
+            <v>225</v>
+          </cell>
+          <cell r="F219" t="str">
+            <v>E1</v>
+          </cell>
+          <cell r="G219">
+            <v>5</v>
+          </cell>
+          <cell r="L219">
+            <v>9</v>
+          </cell>
+          <cell r="M219" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220" t="str">
+            <v>MadSong</v>
+          </cell>
+          <cell r="B220" t="str">
+            <v>MadSong</v>
+          </cell>
+          <cell r="C220" t="str">
+            <v>MadSong</v>
+          </cell>
+          <cell r="E220">
+            <v>226</v>
+          </cell>
+          <cell r="F220" t="str">
+            <v>E2</v>
+          </cell>
+          <cell r="G220">
+            <v>5</v>
+          </cell>
+          <cell r="L220">
+            <v>9</v>
+          </cell>
+          <cell r="M220" t="str">
+            <v xml:space="preserve"> Mana +0</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221" t="str">
+            <v>Surprise</v>
+          </cell>
+          <cell r="B221" t="str">
+            <v>Surprise</v>
+          </cell>
+          <cell r="C221" t="str">
+            <v>Surprise</v>
+          </cell>
+          <cell r="E221">
+            <v>227</v>
+          </cell>
+          <cell r="F221" t="str">
+            <v>E3</v>
+          </cell>
+          <cell r="G221">
+            <v>-2</v>
+          </cell>
+          <cell r="L221">
+            <v>9</v>
+          </cell>
+          <cell r="M221">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222" t="str">
+            <v>Warning</v>
+          </cell>
+          <cell r="B222" t="str">
+            <v>Warning</v>
+          </cell>
+          <cell r="C222" t="str">
+            <v>Warning</v>
+          </cell>
+          <cell r="E222">
+            <v>228</v>
+          </cell>
+          <cell r="F222" t="str">
+            <v>E4</v>
+          </cell>
+          <cell r="G222">
+            <v>-2</v>
+          </cell>
+          <cell r="L222">
+            <v>9</v>
+          </cell>
+          <cell r="M222">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223" t="str">
+            <v>Multiply</v>
+          </cell>
+          <cell r="B223" t="str">
+            <v>Multiply</v>
+          </cell>
+          <cell r="C223" t="str">
+            <v>Multiply</v>
+          </cell>
+          <cell r="E223">
+            <v>229</v>
+          </cell>
+          <cell r="F223" t="str">
+            <v>E5</v>
+          </cell>
+          <cell r="G223">
+            <v>-2</v>
+          </cell>
+          <cell r="L223">
+            <v>9</v>
+          </cell>
+          <cell r="M223">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224" t="str">
+            <v>O-Quake</v>
+          </cell>
+          <cell r="B224" t="str">
+            <v>O-Quake</v>
+          </cell>
+          <cell r="C224" t="str">
+            <v>Quake</v>
+          </cell>
+          <cell r="D224" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E224">
+            <v>230</v>
+          </cell>
+          <cell r="F224" t="str">
+            <v>E6</v>
+          </cell>
+          <cell r="G224">
+            <v>-2</v>
+          </cell>
+          <cell r="L224">
+            <v>9</v>
+          </cell>
+          <cell r="M224">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225" t="str">
+            <v>O-Change</v>
+          </cell>
+          <cell r="B225" t="str">
+            <v>O-Change</v>
+          </cell>
+          <cell r="C225" t="str">
+            <v>Change</v>
+          </cell>
+          <cell r="D225" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E225">
+            <v>231</v>
+          </cell>
+          <cell r="F225" t="str">
+            <v>E7</v>
+          </cell>
+          <cell r="G225">
+            <v>-2</v>
+          </cell>
+          <cell r="L225">
+            <v>9</v>
+          </cell>
+          <cell r="M225">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226" t="str">
+            <v>O-Fire</v>
+          </cell>
+          <cell r="B226" t="str">
+            <v>O-Fire</v>
+          </cell>
+          <cell r="C226" t="str">
+            <v>Fire</v>
+          </cell>
+          <cell r="D226" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E226">
+            <v>232</v>
+          </cell>
+          <cell r="F226" t="str">
+            <v>E8</v>
+          </cell>
+          <cell r="G226">
+            <v>-2</v>
+          </cell>
+          <cell r="L226">
+            <v>9</v>
+          </cell>
+          <cell r="M226">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227" t="str">
+            <v>O-Poison</v>
+          </cell>
+          <cell r="B227" t="str">
+            <v>O-Poison</v>
+          </cell>
+          <cell r="C227" t="str">
+            <v>Poison</v>
+          </cell>
+          <cell r="D227" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E227">
+            <v>233</v>
+          </cell>
+          <cell r="F227" t="str">
+            <v>E9</v>
+          </cell>
+          <cell r="G227">
+            <v>-2</v>
+          </cell>
+          <cell r="L227">
+            <v>9</v>
+          </cell>
+          <cell r="M227">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228" t="str">
+            <v>O-Damage</v>
+          </cell>
+          <cell r="B228" t="str">
+            <v>O-Damage</v>
+          </cell>
+          <cell r="C228" t="str">
+            <v>Damage</v>
+          </cell>
+          <cell r="D228" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E228">
+            <v>234</v>
+          </cell>
+          <cell r="F228" t="str">
+            <v>EA</v>
+          </cell>
+          <cell r="G228">
+            <v>-2</v>
+          </cell>
+          <cell r="L228">
+            <v>9</v>
+          </cell>
+          <cell r="M228">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229" t="str">
+            <v>O-Weapon</v>
+          </cell>
+          <cell r="B229" t="str">
+            <v>O-Weapon</v>
+          </cell>
+          <cell r="C229" t="str">
+            <v>Weapon</v>
+          </cell>
+          <cell r="D229" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E229">
+            <v>235</v>
+          </cell>
+          <cell r="F229" t="str">
+            <v>EB</v>
+          </cell>
+          <cell r="G229">
+            <v>-2</v>
+          </cell>
+          <cell r="L229">
+            <v>9</v>
+          </cell>
+          <cell r="M229">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230" t="str">
+            <v>O-Pa/Po</v>
+          </cell>
+          <cell r="B230" t="str">
+            <v>O-Pa/Po</v>
+          </cell>
+          <cell r="C230" t="str">
+            <v>Pa/Po</v>
+          </cell>
+          <cell r="D230" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E230">
+            <v>236</v>
+          </cell>
+          <cell r="F230" t="str">
+            <v>EC</v>
+          </cell>
+          <cell r="G230">
+            <v>-2</v>
+          </cell>
+          <cell r="L230">
+            <v>9</v>
+          </cell>
+          <cell r="M230">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231" t="str">
+            <v>O-Para</v>
+          </cell>
+          <cell r="B231" t="str">
+            <v>O-Para</v>
+          </cell>
+          <cell r="C231" t="str">
+            <v>Para</v>
+          </cell>
+          <cell r="D231" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E231">
+            <v>237</v>
+          </cell>
+          <cell r="F231" t="str">
+            <v>ED</v>
+          </cell>
+          <cell r="G231">
+            <v>-2</v>
+          </cell>
+          <cell r="L231">
+            <v>9</v>
+          </cell>
+          <cell r="M231">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232" t="str">
+            <v>O-Ice</v>
+          </cell>
+          <cell r="B232" t="str">
+            <v>O-Ice</v>
+          </cell>
+          <cell r="C232" t="str">
+            <v>Ice</v>
+          </cell>
+          <cell r="D232" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E232">
+            <v>238</v>
+          </cell>
+          <cell r="F232" t="str">
+            <v>EE</v>
+          </cell>
+          <cell r="G232">
+            <v>-2</v>
+          </cell>
+          <cell r="L232">
+            <v>9</v>
+          </cell>
+          <cell r="M232">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="A233" t="str">
+            <v>O-Stone</v>
+          </cell>
+          <cell r="B233" t="str">
+            <v>O-Stone</v>
+          </cell>
+          <cell r="C233" t="str">
+            <v>Stone</v>
+          </cell>
+          <cell r="D233" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E233">
+            <v>239</v>
+          </cell>
+          <cell r="F233" t="str">
+            <v>EF</v>
+          </cell>
+          <cell r="G233">
+            <v>-2</v>
+          </cell>
+          <cell r="L233">
+            <v>9</v>
+          </cell>
+          <cell r="M233">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="A234" t="str">
+            <v>X-Fire</v>
+          </cell>
+          <cell r="B234" t="str">
+            <v>X-Fire</v>
+          </cell>
+          <cell r="C234" t="str">
+            <v>Fire</v>
+          </cell>
+          <cell r="D234" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="E234">
+            <v>240</v>
+          </cell>
+          <cell r="F234" t="str">
+            <v>F0</v>
+          </cell>
+          <cell r="G234">
+            <v>-2</v>
+          </cell>
+          <cell r="L234">
+            <v>9</v>
+          </cell>
+          <cell r="M234">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="A235" t="str">
+            <v>X-Ice</v>
+          </cell>
+          <cell r="B235" t="str">
+            <v>X-Ice</v>
+          </cell>
+          <cell r="C235" t="str">
+            <v>Ice</v>
+          </cell>
+          <cell r="D235" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="E235">
+            <v>241</v>
+          </cell>
+          <cell r="F235" t="str">
+            <v>F1</v>
+          </cell>
+          <cell r="G235">
+            <v>-2</v>
+          </cell>
+          <cell r="L235">
+            <v>9</v>
+          </cell>
+          <cell r="M235">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="A236" t="str">
+            <v>X-Thunder</v>
+          </cell>
+          <cell r="B236" t="str">
+            <v>X-Thunder</v>
+          </cell>
+          <cell r="C236" t="str">
+            <v>Thunder</v>
+          </cell>
+          <cell r="D236" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="E236">
+            <v>242</v>
+          </cell>
+          <cell r="F236" t="str">
+            <v>F2</v>
+          </cell>
+          <cell r="G236">
+            <v>-2</v>
+          </cell>
+          <cell r="L236">
+            <v>9</v>
+          </cell>
+          <cell r="M236">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237" t="str">
+            <v>Teleport</v>
+          </cell>
+          <cell r="B237" t="str">
+            <v>Teleport</v>
+          </cell>
+          <cell r="C237" t="str">
+            <v>Teleport</v>
+          </cell>
+          <cell r="E237">
+            <v>243</v>
+          </cell>
+          <cell r="F237" t="str">
+            <v>F3</v>
+          </cell>
+          <cell r="G237">
+            <v>30</v>
+          </cell>
+          <cell r="L237">
+            <v>9</v>
+          </cell>
+          <cell r="M237">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238" t="str">
+            <v>Remedy</v>
+          </cell>
+          <cell r="B238" t="str">
+            <v>Remedy</v>
+          </cell>
+          <cell r="C238" t="str">
+            <v>Remedy</v>
+          </cell>
+          <cell r="E238">
+            <v>244</v>
+          </cell>
+          <cell r="F238" t="str">
+            <v>F4</v>
+          </cell>
+          <cell r="G238">
+            <v>30</v>
+          </cell>
+          <cell r="L238">
+            <v>9</v>
+          </cell>
+          <cell r="M238">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239" t="str">
+            <v>O-All</v>
+          </cell>
+          <cell r="B239" t="str">
+            <v>O-All</v>
+          </cell>
+          <cell r="C239" t="str">
+            <v>All</v>
+          </cell>
+          <cell r="D239" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="E239">
+            <v>245</v>
+          </cell>
+          <cell r="F239" t="str">
+            <v>F5</v>
+          </cell>
+          <cell r="G239">
+            <v>-2</v>
+          </cell>
+          <cell r="L239">
+            <v>9</v>
+          </cell>
+          <cell r="M239">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="A240" t="str">
+            <v>PoisonBurst</v>
+          </cell>
+          <cell r="B240" t="str">
+            <v>PoisonBurst</v>
+          </cell>
+          <cell r="C240" t="str">
+            <v>PoisonBurst</v>
+          </cell>
+          <cell r="E240">
+            <v>246</v>
+          </cell>
+          <cell r="F240" t="str">
+            <v>F6</v>
+          </cell>
+          <cell r="G240">
+            <v>30</v>
+          </cell>
+          <cell r="L240">
+            <v>9</v>
+          </cell>
+          <cell r="M240">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="A241" t="str">
+            <v>FlareApollo</v>
+          </cell>
+          <cell r="B241" t="str">
+            <v>FlareApollo</v>
+          </cell>
+          <cell r="C241" t="str">
+            <v>Flare</v>
+          </cell>
+          <cell r="D241" t="str">
+            <v>Apollo</v>
+          </cell>
+          <cell r="E241">
+            <v>250</v>
+          </cell>
+          <cell r="F241" t="str">
+            <v>FA</v>
+          </cell>
+          <cell r="G241">
+            <v>-2</v>
+          </cell>
+          <cell r="L241">
+            <v>9</v>
+          </cell>
+          <cell r="M241">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="A242" t="str">
+            <v>Smasher</v>
+          </cell>
+          <cell r="B242" t="str">
+            <v>Smasher</v>
+          </cell>
+          <cell r="C242" t="str">
+            <v>Smasher</v>
+          </cell>
+          <cell r="E242">
+            <v>253</v>
+          </cell>
+          <cell r="F242" t="str">
+            <v>FD</v>
+          </cell>
+          <cell r="G242">
+            <v>30</v>
+          </cell>
+          <cell r="L242">
+            <v>9</v>
+          </cell>
+          <cell r="M242">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="A243" t="str">
+            <v>Recover</v>
+          </cell>
+          <cell r="B243" t="str">
+            <v>Recover</v>
+          </cell>
+          <cell r="C243" t="str">
+            <v>Recover</v>
+          </cell>
+          <cell r="E243">
+            <v>254</v>
+          </cell>
+          <cell r="F243" t="str">
+            <v>FE</v>
+          </cell>
+          <cell r="G243">
+            <v>-2</v>
+          </cell>
+          <cell r="L243">
+            <v>9</v>
+          </cell>
+          <cell r="M243">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="A244" t="str">
+            <v>Power Magi</v>
+          </cell>
+          <cell r="B244" t="str">
+            <v>Power Magi</v>
+          </cell>
+          <cell r="C244" t="str">
+            <v>Power</v>
+          </cell>
+          <cell r="D244" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E244">
+            <v>256</v>
+          </cell>
+          <cell r="F244">
+            <v>100</v>
+          </cell>
+          <cell r="G244">
+            <v>-2</v>
+          </cell>
+          <cell r="L244">
+            <v>0</v>
+          </cell>
+          <cell r="M244" t="str">
+            <v>Str +22</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="A245" t="str">
+            <v>Speed Magi</v>
+          </cell>
+          <cell r="B245" t="str">
+            <v>Speed Magi</v>
+          </cell>
+          <cell r="C245" t="str">
+            <v>Speed</v>
+          </cell>
+          <cell r="D245" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E245">
+            <v>257</v>
+          </cell>
+          <cell r="F245" t="str">
+            <v>101</v>
+          </cell>
+          <cell r="G245">
+            <v>-2</v>
+          </cell>
+          <cell r="L245">
+            <v>0</v>
+          </cell>
+          <cell r="M245" t="str">
+            <v>Agl +22</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="A246" t="str">
+            <v>Mana Magi</v>
+          </cell>
+          <cell r="B246" t="str">
+            <v>Mana Magi</v>
+          </cell>
+          <cell r="C246" t="str">
+            <v>Mana</v>
+          </cell>
+          <cell r="D246" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E246">
+            <v>258</v>
+          </cell>
+          <cell r="F246" t="str">
+            <v>102</v>
+          </cell>
+          <cell r="G246">
+            <v>-2</v>
+          </cell>
+          <cell r="L246">
+            <v>0</v>
+          </cell>
+          <cell r="M246">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247" t="str">
+            <v>Defense Magi</v>
+          </cell>
+          <cell r="B247" t="str">
+            <v>Defense Magi</v>
+          </cell>
+          <cell r="C247" t="str">
+            <v>Defense</v>
+          </cell>
+          <cell r="D247" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E247">
+            <v>259</v>
+          </cell>
+          <cell r="F247" t="str">
+            <v>103</v>
+          </cell>
+          <cell r="G247">
+            <v>-2</v>
+          </cell>
+          <cell r="L247">
+            <v>0</v>
+          </cell>
+          <cell r="M247" t="str">
+            <v>Def +22</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="A248" t="str">
+            <v>Fire Magi</v>
+          </cell>
+          <cell r="B248" t="str">
+            <v>Fire Magi</v>
+          </cell>
+          <cell r="C248" t="str">
+            <v>Fire</v>
+          </cell>
+          <cell r="D248" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E248">
+            <v>260</v>
+          </cell>
+          <cell r="F248" t="str">
+            <v>104</v>
+          </cell>
+          <cell r="G248">
+            <v>-2</v>
+          </cell>
+          <cell r="L248">
+            <v>0</v>
+          </cell>
+          <cell r="M248">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249" t="str">
+            <v>Ice Magi</v>
+          </cell>
+          <cell r="B249" t="str">
+            <v>Ice Magi</v>
+          </cell>
+          <cell r="C249" t="str">
+            <v>Ice</v>
+          </cell>
+          <cell r="D249" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E249">
+            <v>261</v>
+          </cell>
+          <cell r="F249" t="str">
+            <v>105</v>
+          </cell>
+          <cell r="G249">
+            <v>-2</v>
+          </cell>
+          <cell r="L249">
+            <v>0</v>
+          </cell>
+          <cell r="M249">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250" t="str">
+            <v>Thunder Magi</v>
+          </cell>
+          <cell r="B250" t="str">
+            <v>Thunder Magi</v>
+          </cell>
+          <cell r="C250" t="str">
+            <v>Thunder</v>
+          </cell>
+          <cell r="D250" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E250">
+            <v>262</v>
+          </cell>
+          <cell r="F250" t="str">
+            <v>106</v>
+          </cell>
+          <cell r="G250">
+            <v>-2</v>
+          </cell>
+          <cell r="L250">
+            <v>0</v>
+          </cell>
+          <cell r="M250">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251" t="str">
+            <v>Poison Magi</v>
+          </cell>
+          <cell r="B251" t="str">
+            <v>Poison Magi</v>
+          </cell>
+          <cell r="C251" t="str">
+            <v>Poison</v>
+          </cell>
+          <cell r="D251" t="str">
+            <v>Magi</v>
+          </cell>
+          <cell r="E251">
+            <v>263</v>
+          </cell>
+          <cell r="F251" t="str">
+            <v>107</v>
+          </cell>
+          <cell r="G251">
+            <v>-2</v>
+          </cell>
+          <cell r="L251">
+            <v>0</v>
+          </cell>
+          <cell r="M251">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252" t="str">
+            <v>CatClaw</v>
+          </cell>
+          <cell r="B252" t="str">
+            <v>CatClaw</v>
+          </cell>
+          <cell r="C252" t="str">
+            <v>CatClaw</v>
+          </cell>
+          <cell r="D252" t="str">
+            <v>Knife</v>
+          </cell>
+          <cell r="E252">
+            <v>17</v>
+          </cell>
+          <cell r="F252">
+            <v>11</v>
+          </cell>
+          <cell r="G252">
+            <v>50</v>
+          </cell>
+          <cell r="H252">
+            <v>26000</v>
+          </cell>
+          <cell r="L252">
+            <v>99</v>
+          </cell>
+          <cell r="M252" t="str">
+            <v>Agl +22</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253" t="str">
+            <v>Vampic Sword</v>
+          </cell>
+          <cell r="B253" t="str">
+            <v>Vampic Sword</v>
+          </cell>
+          <cell r="C253" t="str">
+            <v>Vampic</v>
+          </cell>
+          <cell r="D253" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E253">
+            <v>18</v>
+          </cell>
+          <cell r="F253">
+            <v>12</v>
+          </cell>
+          <cell r="G253">
+            <v>30</v>
+          </cell>
+          <cell r="H253">
+            <v>50</v>
+          </cell>
+          <cell r="L253">
+            <v>9</v>
+          </cell>
+          <cell r="M253">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254" t="str">
+            <v>Glass Sword</v>
+          </cell>
+          <cell r="B254" t="str">
+            <v>Glass Sword</v>
+          </cell>
+          <cell r="C254" t="str">
+            <v>Glass</v>
+          </cell>
+          <cell r="D254" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E254">
+            <v>19</v>
+          </cell>
+          <cell r="F254">
+            <v>13</v>
+          </cell>
+          <cell r="G254">
+            <v>1</v>
+          </cell>
+          <cell r="H254">
+            <v>50000</v>
+          </cell>
+          <cell r="L254">
+            <v>144</v>
+          </cell>
+          <cell r="M254" t="str">
+            <v>Str +32</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255" t="str">
+            <v>Revenge Sword</v>
+          </cell>
+          <cell r="B255" t="str">
+            <v>Revenge Sword</v>
+          </cell>
+          <cell r="C255" t="str">
+            <v>Revenge</v>
+          </cell>
+          <cell r="D255" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E255">
+            <v>20</v>
+          </cell>
+          <cell r="F255">
+            <v>14</v>
+          </cell>
+          <cell r="G255">
+            <v>40</v>
+          </cell>
+          <cell r="H255">
+            <v>6800</v>
+          </cell>
+          <cell r="L255">
+            <v>45</v>
+          </cell>
+          <cell r="M255" t="str">
+            <v>Str +10</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256" t="str">
+            <v>Bow</v>
+          </cell>
+          <cell r="B256" t="str">
+            <v>Bow</v>
+          </cell>
+          <cell r="C256" t="str">
+            <v>Bow</v>
+          </cell>
+          <cell r="D256" t="str">
+            <v>Bow</v>
+          </cell>
+          <cell r="E256">
+            <v>21</v>
+          </cell>
+          <cell r="F256">
+            <v>15</v>
+          </cell>
+          <cell r="G256">
+            <v>50</v>
+          </cell>
+          <cell r="H256">
+            <v>50</v>
+          </cell>
+          <cell r="L256">
+            <v>9</v>
+          </cell>
+          <cell r="M256" t="str">
+            <v>Agl +2</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="A257" t="str">
+            <v>Sabre</v>
+          </cell>
+          <cell r="B257" t="str">
+            <v>Sabre</v>
+          </cell>
+          <cell r="C257" t="str">
+            <v>Sabre</v>
+          </cell>
+          <cell r="D257" t="str">
+            <v>Sword</v>
+          </cell>
+          <cell r="E257">
+            <v>16</v>
+          </cell>
+          <cell r="F257">
+            <v>10</v>
+          </cell>
+          <cell r="G257">
+            <v>50</v>
+          </cell>
+          <cell r="H257">
+            <v>3200</v>
+          </cell>
+          <cell r="L257">
+            <v>36</v>
+          </cell>
+          <cell r="M257" t="str">
+            <v>Agl +8</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="A258" t="str">
+            <v>O-Dragon</v>
+          </cell>
+          <cell r="B258" t="str">
+            <v>O-Dragon</v>
+          </cell>
+          <cell r="C258" t="str">
+            <v>Dragon</v>
+          </cell>
+          <cell r="D258" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -817,87 +8512,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="20.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="V1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="W1" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A11" si="0">B2</f>
         <v>HUME</v>
@@ -905,7 +8614,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="1">
@@ -914,27 +8623,43 @@
       <c r="F2" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
-        <v>4</v>
+      <c r="G2" s="19">
+        <f>F2</f>
+        <v>6</v>
       </c>
       <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <f>H2+_xlfn.IFNA(VLOOKUP(N2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U2,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="19">
+        <f>J2</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="19">
+        <f>L2</f>
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MUTE</v>
@@ -942,7 +8667,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="1">
@@ -951,29 +8676,45 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>10</v>
+      <c r="G3" s="19">
+        <f t="shared" ref="G3:G11" si="1">F3</f>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <f>H3+_xlfn.IFNA(VLOOKUP(N3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U3,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>13</v>
+      </c>
+      <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="19">
+        <f t="shared" ref="K3:K11" si="2">J3</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="19">
+        <f t="shared" ref="M3:M11" si="3">L3</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MONS</v>
@@ -981,7 +8722,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="1">
@@ -990,26 +8731,42 @@
       <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="19">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="19">
+        <f>H4+_xlfn.IFNA(VLOOKUP(N4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U4,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
         <v>6</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROBO</v>
@@ -1026,26 +8783,42 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="19">
+        <f>H5+_xlfn.IFNA(VLOOKUP(N5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U5,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="19">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="M5" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Zappo</v>
@@ -1053,7 +8826,7 @@
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="1">
@@ -1062,35 +8835,51 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
-        <v>99</v>
+      <c r="G6" s="19">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <f>H6+_xlfn.IFNA(VLOOKUP(N6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U6,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>21</v>
+      </c>
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="19">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
         <v>6</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="S6" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Flammie</v>
@@ -1098,7 +8887,7 @@
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="1">
@@ -1107,26 +8896,42 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
         <v>99</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="19">
+        <f>H7+_xlfn.IFNA(VLOOKUP(N7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U7,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>99</v>
+      </c>
+      <c r="J7" s="1">
         <v>50</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="19">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L7" s="1">
         <v>10</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="19">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Slashy</v>
@@ -1134,7 +8939,7 @@
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="1">
@@ -1143,31 +8948,47 @@
       <c r="F8" s="1">
         <v>30</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
         <v>50</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="19">
+        <f>H8+_xlfn.IFNA(VLOOKUP(N8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U8,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J8" s="1">
         <v>25</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="19">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="19">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Revenge</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="1">
@@ -1176,28 +8997,44 @@
       <c r="F9" s="1">
         <v>15</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="19">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
         <v>9</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="19">
+        <f>H9+_xlfn.IFNA(VLOOKUP(N9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U9,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
         <v>8</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="19">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
         <v>3</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="M9" s="19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle1</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="1">
@@ -1206,28 +9043,44 @@
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
         <v>9</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="19">
+        <f>H10+_xlfn.IFNA(VLOOKUP(N10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U10,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
         <v>10</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="19">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="L10" s="1">
+        <v>10</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle2</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="1">
@@ -1236,16 +9089,32 @@
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="19">
+        <f>H11+_xlfn.IFNA(VLOOKUP(N11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U11,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>9</v>
+      </c>
+      <c r="J11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="19">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2754,7 +10623,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC719D-FBFC-4682-9BB5-8B3497939577}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD65F7D-0871-41D3-8478-350961C96950}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -23,30 +23,31 @@
     <sheet name="Barrier" sheetId="24" r:id="rId8"/>
     <sheet name="All Enemies - PC" sheetId="13" r:id="rId9"/>
     <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId10"/>
-    <sheet name="Static DMG" sheetId="14" r:id="rId11"/>
-    <sheet name="Group Static" sheetId="15" r:id="rId12"/>
-    <sheet name="O-Weapon" sheetId="20" r:id="rId13"/>
-    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId14"/>
-    <sheet name="PC Cure - Item" sheetId="18" r:id="rId15"/>
-    <sheet name="PC All Heal" sheetId="19" r:id="rId16"/>
-    <sheet name="Status Effect" sheetId="21" r:id="rId17"/>
-    <sheet name="Group Status" sheetId="22" r:id="rId18"/>
-    <sheet name="All Enemies - Status" sheetId="28" r:id="rId19"/>
-    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId20"/>
-    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId21"/>
-    <sheet name="Reflect" sheetId="31" r:id="rId22"/>
-    <sheet name="STR Counter" sheetId="32" r:id="rId23"/>
-    <sheet name="Other Counters" sheetId="33" r:id="rId24"/>
+    <sheet name="All Enemies - Dead Test (2)" sheetId="34" r:id="rId11"/>
+    <sheet name="Static DMG" sheetId="14" r:id="rId12"/>
+    <sheet name="Group Static" sheetId="15" r:id="rId13"/>
+    <sheet name="O-Weapon" sheetId="20" r:id="rId14"/>
+    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId15"/>
+    <sheet name="PC Cure - Item" sheetId="18" r:id="rId16"/>
+    <sheet name="PC All Heal" sheetId="19" r:id="rId17"/>
+    <sheet name="Status Effect" sheetId="21" r:id="rId18"/>
+    <sheet name="Group Status" sheetId="22" r:id="rId19"/>
+    <sheet name="All Enemies - Status" sheetId="28" r:id="rId20"/>
+    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId21"/>
+    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId22"/>
+    <sheet name="Reflect" sheetId="31" r:id="rId23"/>
+    <sheet name="STR Counter" sheetId="32" r:id="rId24"/>
+    <sheet name="Other Counters" sheetId="33" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="96">
   <si>
     <t>NAME</t>
   </si>
@@ -328,6 +329,12 @@
   </si>
   <si>
     <t>Natural MANA</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -8514,7 +8521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -9131,154 +9138,135 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Flammie</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Goblin</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="C4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A5" si="0">B4</f>
-        <v>Jaguar</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Asigaru</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>4</v>
       </c>
     </row>
@@ -9288,130 +9276,686 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9CF8B5-E403-487C-8FDB-E1A3B4A0FA54}">
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>ROBO</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>999</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>6.25</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>6.05</v>
+      </c>
+      <c r="F4">
+        <v>68.52000000000001</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>5.6499999999999986</v>
+      </c>
+      <c r="F6">
+        <v>68.52000000000001</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="F7">
+        <v>68.52000000000001</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3" si="0">B3</f>
-        <v>Goblin</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5.4</v>
+      </c>
+      <c r="F8">
+        <v>68.52000000000001</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4.68</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4.12</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4.04</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -9420,129 +9964,119 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>ROBO</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Goblin</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9551,129 +10085,118 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>ROBO</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Skelton</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="C3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9682,156 +10205,118 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Zappo</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Flammie</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>900</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f>B4</f>
-        <v>Goblin</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9840,155 +10325,140 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Zappo</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>150</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>900</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Flammie</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f>B4</f>
-        <v>Goblin</v>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>8</v>
       </c>
     </row>
@@ -9998,154 +10468,141 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>HUME</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>150</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>56</v>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A4" si="0">B3</f>
-        <v>Jaguar</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Zappo</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
+      <c r="C4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10154,129 +10611,139 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Zappo</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Ghoul</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
         <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -10285,129 +10752,118 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Zappo</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Goblin</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10416,201 +10872,118 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:V6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>HUME</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>MUTE</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A6" si="0">B4</f>
-        <v>MONS</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>ROBO</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>SuperJerk</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="C3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10621,152 +10994,137 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>HUME</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="C4">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Goblin</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4" si="0">B4</f>
-        <v>MONS</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10776,129 +11134,178 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Slashy</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Skelton</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>6</v>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10907,129 +11314,118 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Slashy</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Moth</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>8</v>
+      <c r="C3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -11038,126 +11434,118 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>MUTE</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Jerk</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="C3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -11166,127 +11554,115 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C62C4B-A558-47BB-B36D-F4A067E322AA}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Revenge</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3" si="0">B3</f>
-        <v>Goblin</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -11295,147 +11671,250 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4822E79-A2B0-4184-B515-4C5C1DD56F74}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C62C4B-A558-47BB-B36D-F4A067E322AA}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Turtle1</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4822E79-A2B0-4184-B515-4C5C1DD56F74}">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3" si="0">B3</f>
-        <v>Goblin</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f>B4</f>
-        <v>Turtle2</v>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
         <v>18</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11446,167 +11925,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Slashy</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A5" si="0">B3</f>
-        <v>MONS</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Goblin</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Jaguar</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
@@ -11618,127 +12078,116 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>MUTE</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Eagle</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
@@ -11750,125 +12199,114 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>HUME</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3" si="0">B3</f>
-        <v>Jaguar</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
@@ -11879,127 +12317,116 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Zappo</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Goblin</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>8</v>
       </c>
     </row>
@@ -12010,199 +12437,176 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>HUME</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>MUTE</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A6" si="0">B4</f>
-        <v>MONS</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>ROBO</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Jerk</v>
-      </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
@@ -12213,196 +12617,173 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>HUME</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>56</v>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>MUTE</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A6" si="0">B4</f>
-        <v>MONS</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>ROBO</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Jerk</v>
-      </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
@@ -12413,154 +12794,135 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2</f>
-        <v>Flammie</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3</f>
-        <v>Goblin</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="C4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A5" si="0">B4</f>
-        <v>Jaguar</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Eagle</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>4</v>
       </c>
     </row>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD65F7D-0871-41D3-8478-350961C96950}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8AE56C-1D84-416A-BB74-B9977FFBC584}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -9279,7 +9279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9CF8B5-E403-487C-8FDB-E1A3B4A0FA54}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:U14"/>
     </sheetView>
   </sheetViews>
@@ -10996,8 +10996,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11099,33 +11099,33 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12202,7 +12202,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12307,7 +12307,7 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8AE56C-1D84-416A-BB74-B9977FFBC584}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B93DE-0127-40F6-82D0-645A59CEF658}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="13" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="95">
   <si>
     <t>NAME</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Cursed</t>
-  </si>
-  <si>
-    <t>Stunned</t>
   </si>
   <si>
     <t>Paralyzed</t>
@@ -8547,70 +8544,70 @@
         <v>20</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="M1" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -8622,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1">
         <v>59</v>
@@ -8656,13 +8653,13 @@
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="Q2" s="13"/>
     </row>
@@ -8675,7 +8672,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1">
         <v>45</v>
@@ -8709,16 +8706,16 @@
         <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -8730,7 +8727,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
         <v>45</v>
@@ -8767,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -8779,10 +8776,10 @@
         <v>ROBO</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
         <v>60</v>
@@ -8816,13 +8813,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -8831,10 +8828,10 @@
         <v>Zappo</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -8868,22 +8865,22 @@
         <v>6</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -8892,10 +8889,10 @@
         <v>Flammie</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1">
         <v>999</v>
@@ -8932,10 +8929,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -8944,10 +8941,10 @@
         <v>Slashy</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1">
         <v>400</v>
@@ -8981,10 +8978,10 @@
         <v>4</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -8993,10 +8990,10 @@
         <v>Revenge</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -9030,7 +9027,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -9039,10 +9036,10 @@
         <v>Turtle1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -9076,7 +9073,7 @@
         <v>10</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -9085,10 +9082,10 @@
         <v>Turtle2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -9122,7 +9119,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -9138,10 +9135,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9155,7 +9152,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9193,19 +9190,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -9214,15 +9211,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -9234,10 +9228,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9248,9 +9242,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -9259,9 +9253,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -9277,10 +9271,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9CF8B5-E403-487C-8FDB-E1A3B4A0FA54}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U14"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9294,7 +9288,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9332,19 +9326,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -9353,15 +9347,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -9391,12 +9382,12 @@
         <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -9426,30 +9417,30 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" t="s">
         <v>94</v>
       </c>
-      <c r="N3" t="s">
-        <v>95</v>
-      </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="P3" t="s">
+        <v>94</v>
       </c>
       <c r="Q3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S3" t="s">
-        <v>95</v>
-      </c>
-      <c r="T3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -9479,12 +9470,12 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -9514,30 +9505,30 @@
         <v>5</v>
       </c>
       <c r="K5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" t="s">
         <v>94</v>
       </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
       </c>
       <c r="Q5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
-      </c>
-      <c r="T5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -9567,12 +9558,12 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -9602,12 +9593,12 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -9637,12 +9628,12 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -9672,30 +9663,30 @@
         <v>5</v>
       </c>
       <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" t="s">
         <v>94</v>
       </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S9" t="s">
-        <v>95</v>
-      </c>
-      <c r="T9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -9725,28 +9716,28 @@
         <v>5</v>
       </c>
       <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s">
         <v>94</v>
       </c>
-      <c r="N10" t="s">
-        <v>95</v>
-      </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="P10" t="s">
+        <v>94</v>
       </c>
       <c r="Q10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
-      </c>
-      <c r="T10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -9778,28 +9769,28 @@
         <v>5</v>
       </c>
       <c r="K11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
-        <v>95</v>
-      </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="P11" t="s">
+        <v>94</v>
       </c>
       <c r="Q11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>95</v>
-      </c>
-      <c r="T11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -9831,28 +9822,28 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" t="s">
         <v>94</v>
       </c>
-      <c r="N12" t="s">
-        <v>95</v>
-      </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S12" t="s">
-        <v>95</v>
-      </c>
-      <c r="T12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -9884,28 +9875,28 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" t="s">
         <v>94</v>
       </c>
-      <c r="N13" t="s">
-        <v>95</v>
-      </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="P13" t="s">
+        <v>94</v>
       </c>
       <c r="Q13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>95</v>
-      </c>
-      <c r="T13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -9937,25 +9928,25 @@
         <v>5</v>
       </c>
       <c r="K14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" t="s">
         <v>94</v>
       </c>
-      <c r="N14" t="s">
-        <v>95</v>
-      </c>
       <c r="O14" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="P14" t="s">
+        <v>94</v>
       </c>
       <c r="Q14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>95</v>
-      </c>
-      <c r="T14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -9965,10 +9956,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9980,10 +9971,10 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10021,19 +10012,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -10042,15 +10033,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -10062,13 +10050,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10086,10 +10074,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10103,7 +10091,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10141,19 +10129,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -10162,15 +10150,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -10182,13 +10167,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10206,10 +10191,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10223,7 +10208,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10261,19 +10246,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -10282,15 +10267,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -10302,15 +10284,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -10326,10 +10308,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10343,7 +10325,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10381,19 +10363,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -10402,15 +10384,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -10422,15 +10401,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -10451,7 +10430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10469,10 +10448,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10486,7 +10465,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10524,19 +10503,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -10545,15 +10524,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -10568,15 +10544,15 @@
         <v>150</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -10588,13 +10564,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10612,10 +10588,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10627,10 +10603,10 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10668,19 +10644,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -10689,13 +10665,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10712,12 +10685,12 @@
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -10726,9 +10699,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -10743,7 +10716,7 @@
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -10753,10 +10726,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10770,7 +10743,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10808,19 +10781,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -10829,15 +10802,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -10849,15 +10819,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -10873,10 +10843,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10890,7 +10860,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10928,19 +10898,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -10949,15 +10919,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -10969,13 +10936,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10994,10 +10961,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11009,10 +10976,10 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11050,19 +11017,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -11071,13 +11038,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11091,13 +11055,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11117,7 +11081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11135,10 +11099,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11152,7 +11116,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11190,19 +11154,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -11211,13 +11175,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11231,13 +11192,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -11251,13 +11212,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -11274,12 +11235,12 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -11291,15 +11252,15 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -11315,10 +11276,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11332,7 +11293,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11370,19 +11331,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -11391,15 +11352,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -11411,15 +11369,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -11435,10 +11393,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11452,7 +11410,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11490,19 +11448,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -11511,15 +11469,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -11531,15 +11486,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -11555,10 +11510,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11572,7 +11527,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11610,19 +11565,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -11631,13 +11586,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -11651,12 +11603,12 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -11672,10 +11624,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C62C4B-A558-47BB-B36D-F4A067E322AA}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11687,10 +11639,10 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11728,19 +11680,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -11749,15 +11701,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -11769,10 +11718,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11790,10 +11739,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4822E79-A2B0-4184-B515-4C5C1DD56F74}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11805,10 +11754,10 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11846,19 +11795,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -11867,15 +11816,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -11887,10 +11833,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11901,9 +11847,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -11915,7 +11861,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -11925,10 +11871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11940,10 +11886,10 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11981,19 +11927,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -12002,15 +11948,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12022,13 +11965,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12048,7 +11991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12059,9 +12002,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -12078,10 +12021,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12095,7 +12038,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12133,19 +12076,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -12154,13 +12097,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -12174,15 +12114,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -12199,10 +12139,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12214,10 +12154,10 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12255,19 +12195,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -12276,13 +12216,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12296,12 +12233,12 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -12317,10 +12254,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12334,7 +12271,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12372,19 +12309,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -12393,15 +12330,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12413,13 +12347,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -12437,10 +12371,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12454,7 +12388,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12492,19 +12426,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -12513,13 +12447,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12533,13 +12464,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -12553,13 +12484,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12576,12 +12507,12 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -12593,15 +12524,15 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -12617,10 +12548,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12634,7 +12565,7 @@
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12672,19 +12603,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -12693,13 +12624,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12713,10 +12641,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -12730,13 +12658,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12753,12 +12681,12 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -12770,15 +12698,15 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -12794,10 +12722,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12811,7 +12739,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12849,19 +12777,19 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -12870,15 +12798,12 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12890,10 +12815,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -12904,9 +12829,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -12915,9 +12840,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B93DE-0127-40F6-82D0-645A59CEF658}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="13" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7785" tabRatio="838" firstSheet="19" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -38,16 +37,19 @@
     <sheet name="Reflect" sheetId="31" r:id="rId23"/>
     <sheet name="STR Counter" sheetId="32" r:id="rId24"/>
     <sheet name="Other Counters" sheetId="33" r:id="rId25"/>
+    <sheet name="Enemy Surprise" sheetId="36" r:id="rId26"/>
+    <sheet name="Player Surprise" sheetId="37" r:id="rId27"/>
+    <sheet name="Both Surprise" sheetId="38" r:id="rId28"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="100">
   <si>
     <t>NAME</t>
   </si>
@@ -333,11 +335,26 @@
   <si>
     <t>n</t>
   </si>
+  <si>
+    <t>WereWolf</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Katana</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -485,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -515,10 +532,11 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -8271,23 +8289,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8323,23 +8324,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8515,11 +8499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8612,7 +8596,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A11" si="0">B2</f>
+        <f t="shared" ref="A2:A12" si="0">B2</f>
         <v>HUME</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8681,7 +8665,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:G11" si="1">F3</f>
+        <f t="shared" ref="G3:G12" si="1">F3</f>
         <v>4</v>
       </c>
       <c r="H3" s="1">
@@ -8695,14 +8679,14 @@
         <v>5</v>
       </c>
       <c r="K3" s="19">
-        <f t="shared" ref="K3:K11" si="2">J3</f>
+        <f t="shared" ref="K3:K12" si="2">J3</f>
         <v>5</v>
       </c>
       <c r="L3" s="1">
         <v>6</v>
       </c>
       <c r="M3" s="19">
-        <f t="shared" ref="M3:M11" si="3">L3</f>
+        <f t="shared" ref="M3:M12" si="3">L3</f>
         <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -9120,6 +9104,57 @@
       </c>
       <c r="N11" s="14" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Leonardo</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1">
+        <v>250</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H12" s="1">
+        <v>15</v>
+      </c>
+      <c r="I12" s="19">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L12" s="1">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -9134,7 +9169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9270,7 +9305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9CF8B5-E403-487C-8FDB-E1A3B4A0FA54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9955,7 +9990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10073,7 +10108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10190,7 +10225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10307,7 +10342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10447,7 +10482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10587,7 +10622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10725,7 +10760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10842,7 +10877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10959,7 +10994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T4"/>
   <sheetViews>
@@ -11098,7 +11133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11275,7 +11310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11392,7 +11427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11509,7 +11544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11623,7 +11658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C62C4B-A558-47BB-B36D-F4A067E322AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11738,10 +11773,10 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4822E79-A2B0-4184-B515-4C5C1DD56F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -11869,8 +11904,362 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12019,7 +12408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -12137,7 +12526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -12253,7 +12642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12370,7 +12759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12547,7 +12936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12721,7 +13110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7785" tabRatio="838" firstSheet="19" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7785" tabRatio="838" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
     <sheet name="Single STR" sheetId="1" r:id="rId2"/>
     <sheet name="Ineffective" sheetId="29" r:id="rId3"/>
     <sheet name="Single AGL" sheetId="3" r:id="rId4"/>
-    <sheet name="Shield" sheetId="7" r:id="rId5"/>
-    <sheet name="Group MANA - PC" sheetId="9" r:id="rId6"/>
-    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId7"/>
-    <sheet name="Barrier" sheetId="24" r:id="rId8"/>
-    <sheet name="All Enemies - PC" sheetId="13" r:id="rId9"/>
-    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId10"/>
-    <sheet name="All Enemies - Dead Test (2)" sheetId="34" r:id="rId11"/>
-    <sheet name="Static DMG" sheetId="14" r:id="rId12"/>
+    <sheet name="Bow" sheetId="40" r:id="rId5"/>
+    <sheet name="Shield" sheetId="7" r:id="rId6"/>
+    <sheet name="Group MANA - PC" sheetId="9" r:id="rId7"/>
+    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId8"/>
+    <sheet name="Barrier" sheetId="24" r:id="rId9"/>
+    <sheet name="All Enemies - PC" sheetId="13" r:id="rId10"/>
+    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId11"/>
+    <sheet name="Single Gun" sheetId="14" r:id="rId12"/>
     <sheet name="Group Static" sheetId="15" r:id="rId13"/>
     <sheet name="O-Weapon" sheetId="20" r:id="rId14"/>
     <sheet name="PC Cure - Magic" sheetId="17" r:id="rId15"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="100">
   <si>
     <t>NAME</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Flame Sword</t>
   </si>
   <si>
-    <t>MAGI</t>
-  </si>
-  <si>
     <t>INVENTORY</t>
   </si>
   <si>
@@ -330,12 +327,6 @@
     <t>Natural MANA</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>WereWolf</t>
   </si>
   <si>
@@ -349,6 +340,15 @@
   </si>
   <si>
     <t>Katana</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>EQUIPPED MAGI</t>
+  </si>
+  <si>
+    <t>OTHER MAGI</t>
   </si>
 </sst>
 </file>
@@ -8500,10 +8500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8518,12 +8518,12 @@
     <col min="17" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="20.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="23" width="20.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -8540,25 +8540,25 @@
         <v>49</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>47</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>45</v>
@@ -8587,14 +8587,17 @@
       <c r="U1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="17" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A12" si="0">B2</f>
         <v>HUME</v>
@@ -8603,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1">
         <v>59</v>
@@ -8647,7 +8650,7 @@
       </c>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MUTE</v>
@@ -8656,7 +8659,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1">
         <v>45</v>
@@ -8693,7 +8696,7 @@
         <v>35</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>56</v>
@@ -8701,8 +8704,11 @@
       <c r="S3" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="T3" s="21" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MONS</v>
@@ -8711,7 +8717,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1">
         <v>45</v>
@@ -8754,7 +8760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROBO</v>
@@ -8803,10 +8809,10 @@
         <v>57</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Zappo</v>
@@ -8815,7 +8821,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -8864,10 +8870,10 @@
         <v>64</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Flammie</v>
@@ -8876,7 +8882,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1">
         <v>999</v>
@@ -8919,7 +8925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Slashy</v>
@@ -8928,7 +8934,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1">
         <v>400</v>
@@ -8965,19 +8971,19 @@
         <v>69</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Revenge</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -9011,19 +9017,19 @@
         <v>3</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -9057,19 +9063,19 @@
         <v>10</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -9103,19 +9109,19 @@
         <v>10</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Leonardo</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1">
         <v>250</v>
@@ -9148,13 +9154,13 @@
         <v>11</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -9290,7 +9296,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -9306,7 +9312,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P1048576"/>
@@ -9398,590 +9404,41 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>54</v>
-      </c>
-      <c r="F2">
-        <v>999</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>99</v>
-      </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
         <v>4</v>
-      </c>
-      <c r="E3">
-        <v>6.25</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>6.05</v>
-      </c>
-      <c r="F4">
-        <v>68.52000000000001</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>5.6499999999999986</v>
-      </c>
-      <c r="F6">
-        <v>68.52000000000001</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
         <v>4</v>
-      </c>
-      <c r="E7">
-        <v>5.5500000000000007</v>
-      </c>
-      <c r="F7">
-        <v>68.52000000000001</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>5.4</v>
-      </c>
-      <c r="F8">
-        <v>68.52000000000001</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>94</v>
-      </c>
-      <c r="R9" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>94</v>
-      </c>
-      <c r="R10" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>4.68</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" t="s">
-        <v>94</v>
-      </c>
-      <c r="O11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O12" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>94</v>
-      </c>
-      <c r="R12" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>4.12</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>94</v>
-      </c>
-      <c r="R13" t="s">
-        <v>94</v>
-      </c>
-      <c r="S13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>4.04</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" t="s">
-        <v>94</v>
-      </c>
-      <c r="P14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>94</v>
-      </c>
-      <c r="R14" t="s">
-        <v>94</v>
-      </c>
-      <c r="S14" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -10971,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -11230,7 +10687,7 @@
         <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -11250,7 +10707,7 @@
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -11270,7 +10727,7 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -11290,12 +10747,12 @@
         <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -11521,15 +10978,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
         <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -11638,7 +11095,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -11741,7 +11198,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -11753,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -11856,7 +11313,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -11868,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -11884,7 +11341,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -11896,7 +11353,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -12003,12 +11460,12 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -12106,7 +11563,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12118,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -12144,7 +11601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -12224,7 +11681,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12236,15 +11693,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -12527,6 +11984,123 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -12641,7 +12215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -12758,12 +12332,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12935,7 +12509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -13107,140 +12681,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7785" tabRatio="838" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7785" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="105">
   <si>
     <t>NAME</t>
   </si>
@@ -350,6 +350,21 @@
   <si>
     <t>OTHER MAGI</t>
   </si>
+  <si>
+    <t>Power-2, Fire-1</t>
+  </si>
+  <si>
+    <t>Cure Potion-3, Elixier</t>
+  </si>
+  <si>
+    <t>Mana Magi-2</t>
+  </si>
+  <si>
+    <t>Ice Magi-1</t>
+  </si>
+  <si>
+    <t>Fire Magi-1</t>
+  </si>
 </sst>
 </file>
 
@@ -580,9 +595,9 @@
       <sheetName val="Move Prob - %"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -8202,12 +8217,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8502,7 +8517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
@@ -8649,6 +8664,12 @@
         <v>55</v>
       </c>
       <c r="Q2" s="13"/>
+      <c r="W2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
@@ -8707,6 +8728,10 @@
       <c r="T3" s="21" t="s">
         <v>97</v>
       </c>
+      <c r="V3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
@@ -8872,6 +8897,10 @@
       <c r="S6" s="12" t="s">
         <v>81</v>
       </c>
+      <c r="V6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" s="21"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
@@ -8923,6 +8952,9 @@
       </c>
       <c r="P7" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -12336,7 +12368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,55 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD943F3-80E3-4420-ABEF-001E00D7E153}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7785" tabRatio="838"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
     <sheet name="Single STR" sheetId="1" r:id="rId2"/>
     <sheet name="Ineffective" sheetId="29" r:id="rId3"/>
-    <sheet name="Single AGL" sheetId="3" r:id="rId4"/>
-    <sheet name="Bow" sheetId="40" r:id="rId5"/>
-    <sheet name="Shield" sheetId="7" r:id="rId6"/>
-    <sheet name="Group MANA - PC" sheetId="9" r:id="rId7"/>
-    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId8"/>
-    <sheet name="Barrier" sheetId="24" r:id="rId9"/>
-    <sheet name="All Enemies - PC" sheetId="13" r:id="rId10"/>
-    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId11"/>
-    <sheet name="Single Gun" sheetId="14" r:id="rId12"/>
-    <sheet name="Group Static" sheetId="15" r:id="rId13"/>
-    <sheet name="O-Weapon" sheetId="20" r:id="rId14"/>
-    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId15"/>
-    <sheet name="PC Cure - Item" sheetId="18" r:id="rId16"/>
-    <sheet name="PC All Heal" sheetId="19" r:id="rId17"/>
-    <sheet name="Status Effect" sheetId="21" r:id="rId18"/>
-    <sheet name="Group Status" sheetId="22" r:id="rId19"/>
-    <sheet name="All Enemies - Status" sheetId="28" r:id="rId20"/>
-    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId21"/>
-    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId22"/>
-    <sheet name="Reflect" sheetId="31" r:id="rId23"/>
-    <sheet name="STR Counter" sheetId="32" r:id="rId24"/>
-    <sheet name="Other Counters" sheetId="33" r:id="rId25"/>
-    <sheet name="Enemy Surprise" sheetId="36" r:id="rId26"/>
-    <sheet name="Player Surprise" sheetId="37" r:id="rId27"/>
-    <sheet name="Both Surprise" sheetId="38" r:id="rId28"/>
+    <sheet name="Masmune" sheetId="41" r:id="rId4"/>
+    <sheet name="Explode" sheetId="43" r:id="rId5"/>
+    <sheet name="Single AGL" sheetId="3" r:id="rId6"/>
+    <sheet name="Whip" sheetId="42" r:id="rId7"/>
+    <sheet name="Bow" sheetId="40" r:id="rId8"/>
+    <sheet name="Shield" sheetId="7" r:id="rId9"/>
+    <sheet name="Group MANA - PC" sheetId="9" r:id="rId10"/>
+    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId11"/>
+    <sheet name="Barrier" sheetId="24" r:id="rId12"/>
+    <sheet name="All Enemies - PC" sheetId="13" r:id="rId13"/>
+    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId14"/>
+    <sheet name="Single Gun" sheetId="14" r:id="rId15"/>
+    <sheet name="Group Static" sheetId="15" r:id="rId16"/>
+    <sheet name="O-Weapon" sheetId="20" r:id="rId17"/>
+    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId18"/>
+    <sheet name="PC Cure - Item" sheetId="18" r:id="rId19"/>
+    <sheet name="PC All Heal" sheetId="19" r:id="rId20"/>
+    <sheet name="Status Effect" sheetId="21" r:id="rId21"/>
+    <sheet name="Group Status" sheetId="22" r:id="rId22"/>
+    <sheet name="All Enemies - Status" sheetId="28" r:id="rId23"/>
+    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId24"/>
+    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId25"/>
+    <sheet name="Reflect" sheetId="31" r:id="rId26"/>
+    <sheet name="STR Counter" sheetId="32" r:id="rId27"/>
+    <sheet name="Other Counters" sheetId="33" r:id="rId28"/>
+    <sheet name="Enemy Surprise" sheetId="36" r:id="rId29"/>
+    <sheet name="Player Surprise" sheetId="37" r:id="rId30"/>
+    <sheet name="Both Surprise" sheetId="38" r:id="rId31"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId32"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="121">
   <si>
     <t>NAME</t>
   </si>
@@ -365,17 +369,79 @@
   <si>
     <t>Fire Magi-1</t>
   </si>
+  <si>
+    <t>Isis</t>
+  </si>
+  <si>
+    <t>Masmune Magi</t>
+  </si>
+  <si>
+    <t>O-All</t>
+  </si>
+  <si>
+    <t>KingToad</t>
+  </si>
+  <si>
+    <t>Whip</t>
+  </si>
+  <si>
+    <t>Beholder</t>
+  </si>
+  <si>
+    <t>Aegis Magi</t>
+  </si>
+  <si>
+    <t>EyeUponU</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>D-Beam</t>
+  </si>
+  <si>
+    <t>Gaze</t>
+  </si>
+  <si>
+    <t>StonGaze</t>
+  </si>
+  <si>
+    <t>DeathGaze</t>
+  </si>
+  <si>
+    <t>Explode</t>
+  </si>
+  <si>
+    <t>O-Quake</t>
+  </si>
+  <si>
+    <t>Recover</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -515,43 +581,44 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -595,9 +662,9 @@
       <sheetName val="Move Prob - %"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -8217,12 +8284,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8304,6 +8371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8339,6 +8423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8514,11 +8615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8539,7 +8640,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -8614,7 +8715,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A12" si="0">B2</f>
+        <f t="shared" ref="A2:A14" si="0">B2</f>
         <v>HUME</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8664,10 +8765,10 @@
         <v>55</v>
       </c>
       <c r="Q2" s="13"/>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8689,7 +8790,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:G12" si="1">F3</f>
+        <f t="shared" ref="G3:G14" si="1">F3</f>
         <v>4</v>
       </c>
       <c r="H3" s="1">
@@ -8703,14 +8804,14 @@
         <v>5</v>
       </c>
       <c r="K3" s="19">
-        <f t="shared" ref="K3:K12" si="2">J3</f>
+        <f t="shared" ref="K3:K14" si="2">J3</f>
         <v>5</v>
       </c>
       <c r="L3" s="1">
         <v>6</v>
       </c>
       <c r="M3" s="19">
-        <f t="shared" ref="M3:M12" si="3">L3</f>
+        <f t="shared" ref="M3:M14" si="3">L3</f>
         <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -8725,13 +8826,16 @@
       <c r="S3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="U3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="W3" s="21"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
@@ -8897,10 +9001,10 @@
       <c r="S6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="W6" s="21"/>
+      <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
@@ -8953,7 +9057,7 @@
       <c r="P7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="V7" s="20" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9149,10 +9253,10 @@
         <f t="shared" si="0"/>
         <v>Leonardo</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="1">
@@ -9161,7 +9265,7 @@
       <c r="F12" s="1">
         <v>30</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -9169,30 +9273,153 @@
         <v>15</v>
       </c>
       <c r="I12" s="19">
-        <v>30</v>
+        <f>H12+_xlfn.IFNA(VLOOKUP(N12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U12,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>15</v>
       </c>
       <c r="J12" s="1">
         <v>50</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="19">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="L12" s="1">
         <v>11</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="19">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="20" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Isis</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1">
+        <v>999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>99</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H13" s="1">
+        <v>99</v>
+      </c>
+      <c r="I13" s="19">
+        <f>H13+_xlfn.IFNA(VLOOKUP(N13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U13,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>99</v>
+      </c>
+      <c r="J13" s="1">
+        <v>99</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="L13" s="1">
+        <v>99</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EyeUponU</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="1">
+        <v>858</v>
+      </c>
+      <c r="F14" s="1">
+        <v>83</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="H14" s="1">
+        <v>78</v>
+      </c>
+      <c r="I14" s="19">
+        <f>H14+_xlfn.IFNA(VLOOKUP(N14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U14,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>78</v>
+      </c>
+      <c r="J14" s="1">
+        <v>97</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="L14" s="1">
+        <v>86</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -9207,7 +9434,475 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9342,8 +10037,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9478,8 +10173,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9596,8 +10291,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9713,8 +10408,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9830,8 +10525,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9970,8 +10665,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10110,380 +10805,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T4"/>
   <sheetViews>
@@ -10622,7 +10945,379 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10798,8 +11493,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10915,8 +11610,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11032,8 +11727,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11146,8 +11841,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11261,8 +11956,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11393,8 +12088,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11511,8 +12206,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11629,8 +12473,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11747,12 +12591,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2167536-BCD6-4485-BB27-1A881AF06677}">
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11831,7 +12675,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -11840,55 +12684,24 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
         <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11896,8 +12709,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F613FB1-311D-44AF-A16D-7121D97D052A}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -12014,8 +12942,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A425FDE-C9EC-4D06-BAAE-85C83CB3C979}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12131,8 +13176,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -12245,472 +13290,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD943F3-80E3-4420-ABEF-001E00D7E153}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="22" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -38,22 +37,25 @@
     <sheet name="All Enemies - Status" sheetId="28" r:id="rId23"/>
     <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId24"/>
     <sheet name="Weak - Race Melee" sheetId="27" r:id="rId25"/>
-    <sheet name="Reflect" sheetId="31" r:id="rId26"/>
-    <sheet name="STR Counter" sheetId="32" r:id="rId27"/>
-    <sheet name="Other Counters" sheetId="33" r:id="rId28"/>
-    <sheet name="Enemy Surprise" sheetId="36" r:id="rId29"/>
-    <sheet name="Player Surprise" sheetId="37" r:id="rId30"/>
-    <sheet name="Both Surprise" sheetId="38" r:id="rId31"/>
+    <sheet name="Drain Reversal" sheetId="44" r:id="rId26"/>
+    <sheet name="Drain Success" sheetId="45" r:id="rId27"/>
+    <sheet name="Multi-hit" sheetId="46" r:id="rId28"/>
+    <sheet name="Reflect" sheetId="31" r:id="rId29"/>
+    <sheet name="STR Counter" sheetId="32" r:id="rId30"/>
+    <sheet name="Other Counters" sheetId="33" r:id="rId31"/>
+    <sheet name="Enemy Surprise" sheetId="36" r:id="rId32"/>
+    <sheet name="Player Surprise" sheetId="37" r:id="rId33"/>
+    <sheet name="Both Surprise" sheetId="38" r:id="rId34"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId32"/>
+    <externalReference r:id="rId35"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="124">
   <si>
     <t>NAME</t>
   </si>
@@ -417,11 +419,20 @@
   <si>
     <t>Recover</t>
   </si>
+  <si>
+    <t>Vampic Sword</t>
+  </si>
+  <si>
+    <t>Seven Sword</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -618,7 +629,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -662,9 +673,9 @@
       <sheetName val="Move Prob - %"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -8284,12 +8295,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8371,23 +8382,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8423,23 +8417,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8615,11 +8592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9097,17 +9074,23 @@
         <v>25</v>
       </c>
       <c r="L8" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>69</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>71</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -9434,7 +9417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9551,7 +9534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9728,7 +9711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9902,7 +9885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10038,7 +10021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10174,7 +10157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10292,7 +10275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10409,7 +10392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10526,7 +10509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10666,7 +10649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10806,7 +10789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T4"/>
   <sheetViews>
@@ -10945,7 +10928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11083,7 +11066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11200,7 +11183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11317,7 +11300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11494,7 +11477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11611,7 +11594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11728,7 +11711,358 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11841,8 +12175,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11956,8 +12439,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12088,8 +12571,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12206,157 +12689,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12473,8 +12807,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12592,7 +12926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2167536-BCD6-4485-BB27-1A881AF06677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12710,7 +13044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F613FB1-311D-44AF-A16D-7121D97D052A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12825,7 +13159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -12943,7 +13277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A425FDE-C9EC-4D06-BAAE-85C83CB3C979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13060,7 +13394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13177,7 +13511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T3"/>
   <sheetViews>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="22" activeTab="27"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="27" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -40,22 +40,26 @@
     <sheet name="Drain Reversal" sheetId="44" r:id="rId26"/>
     <sheet name="Drain Success" sheetId="45" r:id="rId27"/>
     <sheet name="Multi-hit" sheetId="46" r:id="rId28"/>
-    <sheet name="Reflect" sheetId="31" r:id="rId29"/>
-    <sheet name="STR Counter" sheetId="32" r:id="rId30"/>
-    <sheet name="Other Counters" sheetId="33" r:id="rId31"/>
-    <sheet name="Enemy Surprise" sheetId="36" r:id="rId32"/>
-    <sheet name="Player Surprise" sheetId="37" r:id="rId33"/>
-    <sheet name="Both Surprise" sheetId="38" r:id="rId34"/>
+    <sheet name="Buff and Debuff" sheetId="47" r:id="rId29"/>
+    <sheet name="Reflect" sheetId="31" r:id="rId30"/>
+    <sheet name="STR Counter" sheetId="32" r:id="rId31"/>
+    <sheet name="Other Counters" sheetId="33" r:id="rId32"/>
+    <sheet name="ChainSaw" sheetId="48" r:id="rId33"/>
+    <sheet name="Enemy Surprise" sheetId="36" r:id="rId34"/>
+    <sheet name="Player Surprise" sheetId="37" r:id="rId35"/>
+    <sheet name="Both Surprise" sheetId="38" r:id="rId36"/>
+    <sheet name="Run" sheetId="49" r:id="rId37"/>
+    <sheet name="Heart" sheetId="50" r:id="rId38"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId35"/>
+    <externalReference r:id="rId39"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="130">
   <si>
     <t>NAME</t>
   </si>
@@ -428,6 +432,24 @@
   <si>
     <t>Crab</t>
   </si>
+  <si>
+    <t>Haste</t>
+  </si>
+  <si>
+    <t>Cobble</t>
+  </si>
+  <si>
+    <t>ChainSaw</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>Heart Magi</t>
+  </si>
 </sst>
 </file>
 
@@ -673,9 +695,9 @@
       <sheetName val="Move Prob - %"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -5730,10 +5752,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>MegaCure</v>
+            <v>Life</v>
           </cell>
           <cell r="B164" t="str">
-            <v>MegaCure</v>
+            <v>Life</v>
           </cell>
           <cell r="C164" t="str">
             <v>Life</v>
@@ -8295,12 +8317,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8596,7 +8618,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8741,7 +8763,7 @@
       <c r="P2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="13"/>
+      <c r="Q2" s="22"/>
       <c r="W2" s="20" t="s">
         <v>100</v>
       </c>
@@ -9138,6 +9160,9 @@
       <c r="N9" s="13" t="s">
         <v>82</v>
       </c>
+      <c r="O9" s="22" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
@@ -9281,6 +9306,9 @@
       </c>
       <c r="P12" s="20" t="s">
         <v>95</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -11948,7 +11976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -12066,7 +12094,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12144,7 +12172,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12156,18 +12184,18 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12334,6 +12362,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
     <col min="3" max="4" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -12439,7 +12581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
@@ -12564,124 +12706,6 @@
       </c>
       <c r="K4" t="s">
         <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12773,7 +12797,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12785,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -12799,7 +12823,7 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12891,7 +12915,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12903,7 +12927,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
         <v>92</v>
@@ -12918,6 +12942,568 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4FA8AC-6485-4962-8C3B-338EB00625AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="27" activeTab="37"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="12" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -35,31 +36,32 @@
     <sheet name="Status Effect" sheetId="21" r:id="rId21"/>
     <sheet name="Group Status" sheetId="22" r:id="rId22"/>
     <sheet name="All Enemies - Status" sheetId="28" r:id="rId23"/>
-    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId24"/>
-    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId25"/>
-    <sheet name="Drain Reversal" sheetId="44" r:id="rId26"/>
-    <sheet name="Drain Success" sheetId="45" r:id="rId27"/>
-    <sheet name="Multi-hit" sheetId="46" r:id="rId28"/>
-    <sheet name="Buff and Debuff" sheetId="47" r:id="rId29"/>
-    <sheet name="Reflect" sheetId="31" r:id="rId30"/>
-    <sheet name="STR Counter" sheetId="32" r:id="rId31"/>
-    <sheet name="Other Counters" sheetId="33" r:id="rId32"/>
-    <sheet name="ChainSaw" sheetId="48" r:id="rId33"/>
-    <sheet name="Enemy Surprise" sheetId="36" r:id="rId34"/>
-    <sheet name="Player Surprise" sheetId="37" r:id="rId35"/>
-    <sheet name="Both Surprise" sheetId="38" r:id="rId36"/>
-    <sheet name="Run" sheetId="49" r:id="rId37"/>
-    <sheet name="Heart" sheetId="50" r:id="rId38"/>
+    <sheet name="Confuse Enemies" sheetId="51" r:id="rId24"/>
+    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId25"/>
+    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId26"/>
+    <sheet name="Drain Reversal" sheetId="44" r:id="rId27"/>
+    <sheet name="Drain Success" sheetId="45" r:id="rId28"/>
+    <sheet name="Multi-hit" sheetId="46" r:id="rId29"/>
+    <sheet name="Buff and Debuff" sheetId="47" r:id="rId30"/>
+    <sheet name="Reflect" sheetId="31" r:id="rId31"/>
+    <sheet name="STR Counter" sheetId="32" r:id="rId32"/>
+    <sheet name="Other Counters" sheetId="33" r:id="rId33"/>
+    <sheet name="ChainSaw" sheetId="48" r:id="rId34"/>
+    <sheet name="Enemy Surprise" sheetId="36" r:id="rId35"/>
+    <sheet name="Player Surprise" sheetId="37" r:id="rId36"/>
+    <sheet name="Both Surprise" sheetId="38" r:id="rId37"/>
+    <sheet name="Run" sheetId="49" r:id="rId38"/>
+    <sheet name="Heart" sheetId="50" r:id="rId39"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="149">
   <si>
     <t>NAME</t>
   </si>
@@ -449,18 +451,82 @@
   </si>
   <si>
     <t>Heart Magi</t>
+  </si>
+  <si>
+    <t>S0 Uses Left</t>
+  </si>
+  <si>
+    <t>MAGI Uses Left</t>
+  </si>
+  <si>
+    <t>S1 Uses Left</t>
+  </si>
+  <si>
+    <t>S2 Uses Left</t>
+  </si>
+  <si>
+    <t>S3 Uses Left</t>
+  </si>
+  <si>
+    <t>S4 Uses Left</t>
+  </si>
+  <si>
+    <t>S5 Uses Left</t>
+  </si>
+  <si>
+    <t>S6 Uses Left</t>
+  </si>
+  <si>
+    <t>S7 Uses Left</t>
+  </si>
+  <si>
+    <t>HypnoToad</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>Kick</t>
+  </si>
+  <si>
+    <t>Tie Up</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>MadSong</t>
+  </si>
+  <si>
+    <t>CursSong</t>
+  </si>
+  <si>
+    <t>O-Poison</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Haste, Haste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -603,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -611,47 +677,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -695,9 +818,9 @@
       <sheetName val="Move Prob - %"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -8316,13 +8439,21 @@
             <v>O</v>
           </cell>
         </row>
+        <row r="259">
+          <cell r="A259" t="str">
+            <v>Tremor</v>
+          </cell>
+          <cell r="B259" t="str">
+            <v>Tremor</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8404,6 +8535,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8439,6 +8587,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8614,11 +8779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8628,93 +8793,133 @@
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="23" width="20.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="7.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="7.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.28515625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="23.42578125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="T1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="U1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="W1" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="Y1" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="AA1" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="AC1" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD1" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="AE1" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="AG1" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A14" si="0">B2</f>
+        <f t="shared" ref="A2:A15" si="0">B2</f>
         <v>HUME</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8726,52 +8931,57 @@
       <c r="E2" s="1">
         <v>59</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="20">
         <v>6</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="16">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="20">
         <v>0</v>
       </c>
-      <c r="I2" s="19">
-        <f>H2+_xlfn.IFNA(VLOOKUP(N2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U2,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I2" s="16">
+        <f>H2+_xlfn.IFNA(VLOOKUP(N2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB2,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="20">
         <v>5</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="16">
         <f>J2</f>
         <v>5</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="20">
         <v>3</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="16">
         <f>L2</f>
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="W2" s="20" t="s">
+      <c r="T2" s="30"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AF2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="AG2" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MUTE</v>
@@ -8785,58 +8995,64 @@
       <c r="E3" s="1">
         <v>45</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="20">
         <v>4</v>
       </c>
-      <c r="G3" s="19">
-        <f t="shared" ref="G3:G14" si="1">F3</f>
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G15" si="1">F3</f>
         <v>4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="20">
         <v>0</v>
       </c>
-      <c r="I3" s="19">
-        <f>H3+_xlfn.IFNA(VLOOKUP(N3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U3,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I3" s="16">
+        <f>H3+_xlfn.IFNA(VLOOKUP(N3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB3,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>13</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="20">
         <v>5</v>
       </c>
-      <c r="K3" s="19">
-        <f t="shared" ref="K3:K14" si="2">J3</f>
+      <c r="K3" s="16">
+        <f t="shared" ref="K3:K15" si="2">J3</f>
         <v>5</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="20">
         <v>6</v>
       </c>
-      <c r="M3" s="19">
-        <f t="shared" ref="M3:M14" si="3">L3</f>
+      <c r="M3" s="16">
+        <f t="shared" ref="M3:M15" si="3">L3</f>
         <v>6</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="V3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="X3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="Z3" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MONS</v>
@@ -8850,45 +9066,51 @@
       <c r="E4" s="1">
         <v>45</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="20">
         <v>5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="16">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="20">
         <v>5</v>
       </c>
-      <c r="I4" s="19">
-        <f>H4+_xlfn.IFNA(VLOOKUP(N4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U4,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I4" s="16">
+        <f>H4+_xlfn.IFNA(VLOOKUP(N4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB4,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="20">
         <v>2</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="16">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="20">
         <v>6</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="16">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S4" s="4"/>
+      <c r="T4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AB4" s="20"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROBO</v>
@@ -8902,45 +9124,52 @@
       <c r="E5" s="1">
         <v>60</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="20">
         <v>0</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="20">
         <v>6</v>
       </c>
-      <c r="I5" s="19">
-        <f>H5+_xlfn.IFNA(VLOOKUP(N5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U5,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I5" s="16">
+        <f>H5+_xlfn.IFNA(VLOOKUP(N5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB5,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>6</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="20">
         <v>5</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="16">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="20">
         <v>0</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="R5" s="32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S5" s="9"/>
+      <c r="T5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AB5" s="20"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Zappo</v>
@@ -8954,58 +9183,66 @@
       <c r="E6" s="1">
         <v>200</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="20">
         <v>4</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="20">
         <v>0</v>
       </c>
-      <c r="I6" s="19">
-        <f>H6+_xlfn.IFNA(VLOOKUP(N6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U6,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I6" s="16">
+        <f>H6+_xlfn.IFNA(VLOOKUP(N6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB6,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>21</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="20">
         <v>5</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="16">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="20">
         <v>6</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="16">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="S6" s="3"/>
+      <c r="T6" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="U6" s="3"/>
+      <c r="V6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="W6" s="6"/>
+      <c r="X6" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AD6" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="W6" s="20"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Flammie</v>
@@ -9019,48 +9256,55 @@
       <c r="E7" s="1">
         <v>999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="20">
         <v>2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="20">
         <v>99</v>
       </c>
-      <c r="I7" s="19">
-        <f>H7+_xlfn.IFNA(VLOOKUP(N7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U7,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I7" s="16">
+        <f>H7+_xlfn.IFNA(VLOOKUP(N7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB7,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>99</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="20">
         <v>50</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="20">
         <v>10</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="20" t="s">
+      <c r="S7" s="3"/>
+      <c r="T7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AD7" s="17" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AE7" s="17"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Slashy</v>
@@ -9074,48 +9318,56 @@
       <c r="E8" s="1">
         <v>400</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="20">
         <v>30</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="16">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="20">
         <v>50</v>
       </c>
-      <c r="I8" s="19">
-        <f>H8+_xlfn.IFNA(VLOOKUP(N8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U8,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I8" s="16">
+        <f>H8+_xlfn.IFNA(VLOOKUP(N8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB8,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>50</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="20">
         <v>25</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="16">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="20">
         <v>30</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="16">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7"/>
+      <c r="P8" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="S8" s="19"/>
+      <c r="T8" s="30" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U8" s="19"/>
+      <c r="V8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AB8" s="20"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Revenge</v>
@@ -9129,42 +9381,50 @@
       <c r="E9" s="1">
         <v>100</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="20">
         <v>15</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="20">
         <v>9</v>
       </c>
-      <c r="I9" s="19">
-        <f>H9+_xlfn.IFNA(VLOOKUP(N9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U9,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I9" s="16">
+        <f>H9+_xlfn.IFNA(VLOOKUP(N9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB9,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>9</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="20">
         <v>8</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="16">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="20">
         <v>3</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="16">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="13"/>
+      <c r="P9" s="30" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AB9" s="20"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle1</v>
@@ -9178,39 +9438,47 @@
       <c r="E10" s="1">
         <v>100</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="20">
         <v>2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="20">
         <v>9</v>
       </c>
-      <c r="I10" s="19">
-        <f>H10+_xlfn.IFNA(VLOOKUP(N10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U10,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I10" s="16">
+        <f>H10+_xlfn.IFNA(VLOOKUP(N10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB10,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>9</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="20">
         <v>10</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="20">
         <v>10</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O10" s="14"/>
+      <c r="P10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AB10" s="20"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle2</v>
@@ -9224,213 +9492,304 @@
       <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="20">
         <v>9</v>
       </c>
-      <c r="I11" s="19">
-        <f>H11+_xlfn.IFNA(VLOOKUP(N11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U11,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I11" s="16">
+        <f>H11+_xlfn.IFNA(VLOOKUP(N11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB11,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>9</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="20">
         <v>10</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="16">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="20">
         <v>10</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O11" s="14"/>
+      <c r="P11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AB11" s="20"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Leonardo</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="1">
         <v>250</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="20">
         <v>30</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="20">
         <v>15</v>
       </c>
-      <c r="I12" s="19">
-        <f>H12+_xlfn.IFNA(VLOOKUP(N12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U12,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I12" s="16">
+        <f>H12+_xlfn.IFNA(VLOOKUP(N12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB12,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>15</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="20">
         <v>50</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="16">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="20">
         <v>11</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="17"/>
+      <c r="P12" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="Q12" s="17"/>
+      <c r="R12" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="S12" s="17"/>
+      <c r="T12" s="30" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U12" s="19"/>
+      <c r="V12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AB12" s="20"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Isis</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="1">
         <v>999</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="20">
         <v>99</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="20">
         <v>99</v>
       </c>
-      <c r="I13" s="19">
-        <f>H13+_xlfn.IFNA(VLOOKUP(N13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U13,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I13" s="16">
+        <f>H13+_xlfn.IFNA(VLOOKUP(N13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB13,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>99</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="20">
         <v>99</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="16">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="20">
         <v>99</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="16">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="18"/>
+      <c r="P13" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="Q13" s="18"/>
+      <c r="R13" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="Q13" s="22" t="s">
+      <c r="S13" s="19"/>
+      <c r="T13" s="30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U13" s="19"/>
+      <c r="V13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AB13" s="20"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EyeUponU</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="1">
         <v>858</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="20">
         <v>83</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="20">
         <v>78</v>
       </c>
-      <c r="I14" s="19">
-        <f>H14+_xlfn.IFNA(VLOOKUP(N14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(O14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(S14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(U14,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+      <c r="I14" s="16">
+        <f>H14+_xlfn.IFNA(VLOOKUP(N14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB14,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>78</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="20">
         <v>97</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="16">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="20">
         <v>86</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="16">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="T14" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="V14" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="X14" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="Z14" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="AB14" s="20" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HypnoToad</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1">
+        <v>885</v>
+      </c>
+      <c r="F15" s="20">
+        <v>86</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="H15" s="20">
+        <v>83</v>
+      </c>
+      <c r="I15" s="16">
+        <f>H15+_xlfn.IFNA(VLOOKUP(N15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB15,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>83</v>
+      </c>
+      <c r="J15" s="20">
+        <v>91</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="L15" s="20">
+        <v>80</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB15" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -9445,7 +9804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9562,7 +9921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9739,7 +10098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9913,7 +10272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10049,7 +10408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10185,7 +10544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10303,7 +10662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10420,7 +10779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10537,7 +10896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10677,7 +11036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10817,8 +11176,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10910,144 +11410,6 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
         <v>1</v>
       </c>
       <c r="F2">
@@ -11094,7 +11456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11211,7 +11573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11328,7 +11690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11505,7 +11867,143 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CE5A13-43F3-4D09-BA0A-70545C4F6BB2}">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11621,8 +12119,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11738,8 +12236,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11855,8 +12353,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11972,8 +12470,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12089,122 +12587,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12353,7 +12737,121 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12466,8 +12964,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12581,8 +13079,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12713,8 +13211,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12831,8 +13329,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12949,8 +13447,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13067,8 +13565,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13185,8 +13683,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13317,11 +13815,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -13512,7 +14010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13630,7 +14128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13745,7 +14243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -13863,7 +14361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13980,7 +14478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14097,12 +14595,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14195,10 +14693,13 @@
       <c r="K2" t="s">
         <v>55</v>
       </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4FA8AC-6485-4962-8C3B-338EB00625AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="12" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -56,7 +55,7 @@
   <externalReferences>
     <externalReference r:id="rId40"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -513,7 +512,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -774,7 +773,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -807,10 +806,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Monster"/>
-      <sheetName val="Magic"/>
+      <sheetName val="Growth Rates"/>
+      <sheetName val="Mutant Skills"/>
+      <sheetName val="Encounters"/>
       <sheetName val="Evolve"/>
       <sheetName val="Weapon"/>
-      <sheetName val="Items"/>
       <sheetName val="Treasure"/>
       <sheetName val="Shops"/>
       <sheetName val="Item Hex"/>
@@ -821,7 +821,9 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
             <v>Index</v>
@@ -8448,12 +8450,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8535,23 +8536,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8587,23 +8571,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8779,11 +8746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9804,7 +9771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9921,7 +9888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10098,7 +10065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10272,7 +10239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10408,7 +10375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10544,7 +10511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10662,7 +10629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10779,7 +10746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10896,7 +10863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11036,7 +11003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11176,7 +11143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T4"/>
   <sheetViews>
@@ -11318,7 +11285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11456,7 +11423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11573,7 +11540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11690,7 +11657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11867,10 +11834,10 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CE5A13-43F3-4D09-BA0A-70545C4F6BB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -12003,7 +11970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12120,7 +12087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12237,7 +12204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12354,7 +12321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12471,7 +12438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12588,7 +12555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12737,7 +12704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12851,7 +12818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12965,7 +12932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13080,7 +13047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13212,7 +13179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13330,7 +13297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13448,7 +13415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13566,7 +13533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13684,7 +13651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13816,7 +13783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14010,7 +13977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14128,7 +14095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14243,12 +14210,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14361,7 +14328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14478,11 +14445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14575,12 +14542,12 @@
         <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -14595,7 +14562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T3"/>
   <sheetViews>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DAC3A1-589E-4868-83D1-4C25714FF854}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="7"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -55,12 +56,12 @@
   <externalReferences>
     <externalReference r:id="rId40"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="150">
   <si>
     <t>NAME</t>
   </si>
@@ -507,12 +508,15 @@
   </si>
   <si>
     <t>Haste, Haste</t>
+  </si>
+  <si>
+    <t>STATS USED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -773,7 +777,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -8536,6 +8540,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8571,6 +8592,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8746,10 +8784,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -9771,11 +9809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9789,7 +9827,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9850,8 +9888,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -9871,7 +9912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9888,11 +9929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9906,7 +9947,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9967,8 +10008,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9988,7 +10032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10008,7 +10052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10028,7 +10072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -10048,7 +10092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -10065,11 +10109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10083,7 +10127,7 @@
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10144,8 +10188,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10162,7 +10209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10182,7 +10229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10202,7 +10249,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -10222,7 +10269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -10239,11 +10286,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10257,7 +10304,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10318,8 +10365,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -10336,7 +10386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10347,7 +10397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -10358,7 +10408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -10375,11 +10425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10393,7 +10443,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10454,8 +10504,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -10472,7 +10525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10483,7 +10536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -10494,7 +10547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -10511,11 +10564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10530,7 +10583,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10591,8 +10644,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -10612,7 +10668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10629,11 +10685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10647,7 +10703,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10708,8 +10764,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -10729,7 +10788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10746,11 +10805,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10764,7 +10823,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10825,8 +10884,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -10846,7 +10908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -10863,11 +10925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10881,7 +10943,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10942,8 +11004,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -10963,7 +11028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -10986,7 +11051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11003,11 +11068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11021,7 +11086,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11082,8 +11147,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -11106,7 +11174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -11126,7 +11194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11143,12 +11211,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11163,7 +11231,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11224,8 +11292,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11248,7 +11319,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11268,7 +11339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11285,11 +11356,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11304,7 +11375,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11365,8 +11436,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11386,7 +11460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -11397,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -11423,11 +11497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11441,7 +11515,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11502,8 +11576,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -11523,7 +11600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -11540,11 +11617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11558,7 +11635,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11619,8 +11696,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -11640,7 +11720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11657,11 +11737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11675,7 +11755,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11736,8 +11816,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11757,7 +11840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -11777,7 +11860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -11797,7 +11880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -11817,7 +11900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -11834,11 +11917,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11852,7 +11935,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11913,8 +11996,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -11931,7 +12017,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11942,7 +12028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -11953,7 +12039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -11970,11 +12056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11988,7 +12074,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12049,8 +12135,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -12070,7 +12159,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -12087,11 +12176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12105,7 +12194,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12166,8 +12255,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -12187,7 +12279,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -12204,11 +12296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12222,7 +12314,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12283,8 +12375,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -12304,7 +12399,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -12321,11 +12416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12339,7 +12434,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12400,8 +12495,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -12421,7 +12519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -12438,11 +12536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12456,7 +12554,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12517,8 +12615,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -12538,7 +12639,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -12555,11 +12656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12574,7 +12675,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12635,8 +12736,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -12656,7 +12760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12676,7 +12780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12687,7 +12791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -12704,11 +12808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12722,7 +12826,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12783,8 +12887,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -12801,7 +12908,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -12818,11 +12925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12836,7 +12943,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12897,8 +13004,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -12915,7 +13025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -12932,11 +13042,11 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12951,7 +13061,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13012,8 +13122,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -13030,7 +13143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13047,11 +13160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13066,7 +13179,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13127,8 +13240,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -13145,7 +13261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13156,7 +13272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -13179,11 +13295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13198,7 +13314,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13259,8 +13375,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -13280,7 +13399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13297,11 +13416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13316,7 +13435,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13377,8 +13496,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -13398,7 +13520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -13415,11 +13537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13434,7 +13556,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13495,8 +13617,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -13516,7 +13641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13533,11 +13658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13552,7 +13677,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13613,8 +13738,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -13634,7 +13762,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -13651,11 +13779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13670,7 +13798,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13731,8 +13859,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13749,7 +13880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13766,7 +13897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13783,11 +13914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13801,7 +13932,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13862,8 +13993,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13883,7 +14017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -13903,7 +14037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13923,7 +14057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -13943,7 +14077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -13960,7 +14094,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -13977,11 +14111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13996,7 +14130,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14057,8 +14191,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -14078,7 +14215,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -14095,11 +14232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14114,7 +14251,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14175,8 +14312,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -14193,7 +14333,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -14210,12 +14350,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14229,7 +14369,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14290,8 +14430,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -14311,7 +14454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -14328,11 +14471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14346,7 +14489,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14407,8 +14550,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -14428,7 +14574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -14445,11 +14591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14463,7 +14609,7 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14524,8 +14670,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -14545,7 +14694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -14562,12 +14711,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14582,7 +14731,7 @@
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14643,8 +14792,11 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14664,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>147</v>
       </c>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DAC3A1-589E-4868-83D1-4C25714FF854}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -23,45 +22,46 @@
     <sheet name="Bow" sheetId="40" r:id="rId8"/>
     <sheet name="Shield" sheetId="7" r:id="rId9"/>
     <sheet name="Group MANA - PC" sheetId="9" r:id="rId10"/>
-    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId11"/>
-    <sheet name="Barrier" sheetId="24" r:id="rId12"/>
-    <sheet name="All Enemies - PC" sheetId="13" r:id="rId13"/>
-    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId14"/>
-    <sheet name="Single Gun" sheetId="14" r:id="rId15"/>
-    <sheet name="Group Static" sheetId="15" r:id="rId16"/>
-    <sheet name="O-Weapon" sheetId="20" r:id="rId17"/>
-    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId18"/>
-    <sheet name="PC Cure - Item" sheetId="18" r:id="rId19"/>
-    <sheet name="PC All Heal" sheetId="19" r:id="rId20"/>
-    <sheet name="Status Effect" sheetId="21" r:id="rId21"/>
-    <sheet name="Group Status" sheetId="22" r:id="rId22"/>
-    <sheet name="All Enemies - Status" sheetId="28" r:id="rId23"/>
-    <sheet name="Confuse Enemies" sheetId="51" r:id="rId24"/>
-    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId25"/>
-    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId26"/>
-    <sheet name="Drain Reversal" sheetId="44" r:id="rId27"/>
-    <sheet name="Drain Success" sheetId="45" r:id="rId28"/>
-    <sheet name="Multi-hit" sheetId="46" r:id="rId29"/>
-    <sheet name="Buff and Debuff" sheetId="47" r:id="rId30"/>
-    <sheet name="Reflect" sheetId="31" r:id="rId31"/>
-    <sheet name="STR Counter" sheetId="32" r:id="rId32"/>
-    <sheet name="Other Counters" sheetId="33" r:id="rId33"/>
-    <sheet name="ChainSaw" sheetId="48" r:id="rId34"/>
-    <sheet name="Enemy Surprise" sheetId="36" r:id="rId35"/>
-    <sheet name="Player Surprise" sheetId="37" r:id="rId36"/>
-    <sheet name="Both Surprise" sheetId="38" r:id="rId37"/>
-    <sheet name="Run" sheetId="49" r:id="rId38"/>
-    <sheet name="Heart" sheetId="50" r:id="rId39"/>
+    <sheet name="Group Reflect" sheetId="52" r:id="rId11"/>
+    <sheet name="Group MANA - Enemy" sheetId="11" r:id="rId12"/>
+    <sheet name="Barrier" sheetId="24" r:id="rId13"/>
+    <sheet name="All Enemies - PC" sheetId="13" r:id="rId14"/>
+    <sheet name="All Enemies - Dead Test" sheetId="23" r:id="rId15"/>
+    <sheet name="Single Gun" sheetId="14" r:id="rId16"/>
+    <sheet name="Group Static" sheetId="15" r:id="rId17"/>
+    <sheet name="O-Weapon" sheetId="20" r:id="rId18"/>
+    <sheet name="PC Cure - Magic" sheetId="17" r:id="rId19"/>
+    <sheet name="PC Cure - Item" sheetId="18" r:id="rId20"/>
+    <sheet name="PC All Heal" sheetId="19" r:id="rId21"/>
+    <sheet name="Status Effect" sheetId="21" r:id="rId22"/>
+    <sheet name="Group Status" sheetId="22" r:id="rId23"/>
+    <sheet name="All Enemies - Status" sheetId="28" r:id="rId24"/>
+    <sheet name="Confuse Enemies" sheetId="51" r:id="rId25"/>
+    <sheet name="Weak - Elem Melee" sheetId="26" r:id="rId26"/>
+    <sheet name="Weak - Race Melee" sheetId="27" r:id="rId27"/>
+    <sheet name="Drain Reversal" sheetId="44" r:id="rId28"/>
+    <sheet name="Drain Success" sheetId="45" r:id="rId29"/>
+    <sheet name="Multi-hit" sheetId="46" r:id="rId30"/>
+    <sheet name="Buff and Debuff" sheetId="47" r:id="rId31"/>
+    <sheet name="Reflect" sheetId="31" r:id="rId32"/>
+    <sheet name="STR Counter" sheetId="32" r:id="rId33"/>
+    <sheet name="Other Counters" sheetId="33" r:id="rId34"/>
+    <sheet name="ChainSaw" sheetId="48" r:id="rId35"/>
+    <sheet name="Enemy Surprise" sheetId="36" r:id="rId36"/>
+    <sheet name="Player Surprise" sheetId="37" r:id="rId37"/>
+    <sheet name="Both Surprise" sheetId="38" r:id="rId38"/>
+    <sheet name="Run" sheetId="49" r:id="rId39"/>
+    <sheet name="Heart" sheetId="50" r:id="rId40"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="153">
   <si>
     <t>NAME</t>
   </si>
@@ -511,12 +511,21 @@
   </si>
   <si>
     <t>STATS USED</t>
+  </si>
+  <si>
+    <t>SpellGod</t>
+  </si>
+  <si>
+    <t>Thunder Book</t>
+  </si>
+  <si>
+    <t>Rakshasa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -777,7 +786,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3255,13 +3264,13 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Chop Art</v>
+            <v>Strike</v>
           </cell>
           <cell r="B75" t="str">
-            <v>Chop Art</v>
+            <v>Strike</v>
           </cell>
           <cell r="C75" t="str">
-            <v>Chop</v>
+            <v>Strike</v>
           </cell>
           <cell r="D75" t="str">
             <v>Art</v>
@@ -3287,13 +3296,13 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Kick Art</v>
+            <v>Elbow</v>
           </cell>
           <cell r="B76" t="str">
-            <v>Kick Art</v>
+            <v>Elbow</v>
           </cell>
           <cell r="C76" t="str">
-            <v>Kick</v>
+            <v>Elbow</v>
           </cell>
           <cell r="D76" t="str">
             <v>Art</v>
@@ -3319,13 +3328,13 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>HeadBut Art</v>
+            <v>HeadButt</v>
           </cell>
           <cell r="B77" t="str">
-            <v>HeadBut Art</v>
+            <v>HeadButt</v>
           </cell>
           <cell r="C77" t="str">
-            <v>HeadBut</v>
+            <v>HeadButt</v>
           </cell>
           <cell r="D77" t="str">
             <v>Art</v>
@@ -3351,10 +3360,10 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Roundhouse Art</v>
+            <v>Roundhouse</v>
           </cell>
           <cell r="B78" t="str">
-            <v>Roundhouse Art</v>
+            <v>Roundhouse</v>
           </cell>
           <cell r="C78" t="str">
             <v>Roundhouse</v>
@@ -3383,10 +3392,10 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Jyudo Art</v>
+            <v>Jyudo</v>
           </cell>
           <cell r="B79" t="str">
-            <v>Jyudo Art</v>
+            <v>Jyudo</v>
           </cell>
           <cell r="C79" t="str">
             <v>Jyudo</v>
@@ -3415,10 +3424,10 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Karate Art</v>
+            <v>Karate</v>
           </cell>
           <cell r="B80" t="str">
-            <v>Karate Art</v>
+            <v>Karate</v>
           </cell>
           <cell r="C80" t="str">
             <v>Karate</v>
@@ -3525,9 +3534,6 @@
           <cell r="G83">
             <v>30</v>
           </cell>
-          <cell r="H83">
-            <v>0</v>
-          </cell>
           <cell r="L83">
             <v>9</v>
           </cell>
@@ -3554,9 +3560,6 @@
           <cell r="G84">
             <v>30</v>
           </cell>
-          <cell r="H84">
-            <v>0</v>
-          </cell>
           <cell r="L84">
             <v>9</v>
           </cell>
@@ -3583,9 +3586,6 @@
           <cell r="G85">
             <v>30</v>
           </cell>
-          <cell r="H85">
-            <v>0</v>
-          </cell>
           <cell r="L85">
             <v>9</v>
           </cell>
@@ -3656,10 +3656,10 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Bazooka Cannon</v>
+            <v>Bazooka</v>
           </cell>
           <cell r="B88" t="str">
-            <v>Bazooka Cannon</v>
+            <v>Bazooka</v>
           </cell>
           <cell r="C88" t="str">
             <v>Bazooka</v>
@@ -3688,10 +3688,10 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Vulcan Cannon</v>
+            <v>Vulcan</v>
           </cell>
           <cell r="B89" t="str">
-            <v>Vulcan Cannon</v>
+            <v>Vulcan</v>
           </cell>
           <cell r="C89" t="str">
             <v>Vulcan</v>
@@ -3720,10 +3720,10 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Tank Cannon</v>
+            <v>Tank</v>
           </cell>
           <cell r="B90" t="str">
-            <v>Tank Cannon</v>
+            <v>Tank</v>
           </cell>
           <cell r="C90" t="str">
             <v>Tank</v>
@@ -3784,10 +3784,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>Missile Cannon</v>
+            <v>Missile</v>
           </cell>
           <cell r="B92" t="str">
-            <v>Missile Cannon</v>
+            <v>Missile</v>
           </cell>
           <cell r="C92" t="str">
             <v>Missile</v>
@@ -4055,10 +4055,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Kimono Armor</v>
+            <v>Kimono</v>
           </cell>
           <cell r="B100" t="str">
-            <v>Kimono Armor</v>
+            <v>Kimono</v>
           </cell>
           <cell r="C100" t="str">
             <v>Kimono</v>
@@ -4160,10 +4160,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Gungnir Spear</v>
+            <v>Gungnir</v>
           </cell>
           <cell r="B103" t="str">
-            <v>Gungnir Spear</v>
+            <v>Gungnir</v>
           </cell>
           <cell r="C103" t="str">
             <v>Gungnir</v>
@@ -8540,23 +8540,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8592,23 +8575,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8784,11 +8750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,7 +8890,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A15" si="0">B2</f>
+        <f t="shared" ref="A2:A16" si="0">B2</f>
         <v>HUME</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9004,7 +8970,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="16">
-        <f t="shared" ref="G3:G15" si="1">F3</f>
+        <f t="shared" ref="G3:G16" si="1">F3</f>
         <v>4</v>
       </c>
       <c r="H3" s="20">
@@ -9018,14 +8984,14 @@
         <v>5</v>
       </c>
       <c r="K3" s="16">
-        <f t="shared" ref="K3:K15" si="2">J3</f>
+        <f t="shared" ref="K3:K16" si="2">J3</f>
         <v>5</v>
       </c>
       <c r="L3" s="20">
         <v>6</v>
       </c>
       <c r="M3" s="16">
-        <f t="shared" ref="M3:M15" si="3">L3</f>
+        <f t="shared" ref="M3:M16" si="3">L3</f>
         <v>6</v>
       </c>
       <c r="N3" s="20" t="s">
@@ -9795,6 +9761,55 @@
       </c>
       <c r="AB15" s="20" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SpellGod</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="1">
+        <v>99</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H16" s="1">
+        <v>120</v>
+      </c>
+      <c r="I16" s="16">
+        <f>H16+_xlfn.IFNA(VLOOKUP(N16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB16,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <v>120</v>
+      </c>
+      <c r="J16" s="1">
+        <v>120</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="L16" s="1">
+        <v>99</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -9809,7 +9824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9929,7 +9944,127 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10108,8 +10243,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10285,8 +10420,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10424,8 +10559,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10563,8 +10698,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10684,8 +10819,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10804,8 +10939,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10924,8 +11059,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11067,151 +11202,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>150</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U4"/>
   <sheetViews>
@@ -11356,7 +11348,150 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>150</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11496,8 +11631,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11616,8 +11751,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11736,8 +11871,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11916,8 +12051,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12055,8 +12190,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12175,8 +12310,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12295,8 +12430,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12415,8 +12550,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12535,128 +12670,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12808,7 +12823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12893,7 +12908,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12905,18 +12920,21 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -12925,7 +12943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13010,7 +13028,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -13022,18 +13040,18 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -13042,7 +13060,124 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13159,8 +13294,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13294,8 +13429,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13415,8 +13550,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13536,8 +13671,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13657,8 +13792,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13778,8 +13913,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13913,205 +14048,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
-  <dimension ref="A1:U7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14231,8 +14169,205 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14350,7 +14485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -14471,7 +14606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14591,7 +14726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14711,7 +14846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U3"/>
   <sheetViews>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CA939D-226E-4262-816A-AD68F9D22C8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -56,12 +57,12 @@
   <externalReferences>
     <externalReference r:id="rId41"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="153">
   <si>
     <t>NAME</t>
   </si>
@@ -525,13 +526,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -721,72 +729,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3534,6 +3543,9 @@
           <cell r="G83">
             <v>30</v>
           </cell>
+          <cell r="H83">
+            <v>0</v>
+          </cell>
           <cell r="L83">
             <v>9</v>
           </cell>
@@ -3560,6 +3572,9 @@
           <cell r="G84">
             <v>30</v>
           </cell>
+          <cell r="H84">
+            <v>0</v>
+          </cell>
           <cell r="L84">
             <v>9</v>
           </cell>
@@ -3585,6 +3600,9 @@
           </cell>
           <cell r="G85">
             <v>30</v>
+          </cell>
+          <cell r="H85">
+            <v>0</v>
           </cell>
           <cell r="L85">
             <v>9</v>
@@ -8540,6 +8558,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8575,6 +8610,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8750,11 +8802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9107,7 +9159,7 @@
       </c>
       <c r="I5" s="16">
         <f>H5+_xlfn.IFNA(VLOOKUP(N5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB5,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J5" s="20">
         <v>5</v>
@@ -9134,7 +9186,9 @@
         <v>74</v>
       </c>
       <c r="S5" s="9"/>
-      <c r="T5" s="20"/>
+      <c r="T5" s="43" t="s">
+        <v>56</v>
+      </c>
       <c r="V5" s="20"/>
       <c r="X5" s="20"/>
       <c r="Z5" s="20"/>
@@ -9824,7 +9878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9944,7 +9998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10064,7 +10118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10244,7 +10298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10421,7 +10475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10560,7 +10614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10699,7 +10753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10820,7 +10874,127 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10920,126 +11094,6 @@
         <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -11060,7 +11114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11203,7 +11257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U4"/>
   <sheetViews>
@@ -11348,7 +11402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11491,7 +11545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11632,7 +11686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11752,7 +11806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11872,7 +11926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12052,7 +12106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12191,7 +12245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12311,7 +12365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12431,7 +12485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12551,7 +12605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12671,7 +12725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12823,7 +12877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12943,7 +12997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13060,7 +13114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13177,7 +13231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13295,7 +13349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13430,7 +13484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13551,7 +13605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13672,7 +13726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13793,7 +13847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13914,7 +13968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14049,7 +14103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14170,7 +14224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14367,7 +14421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14485,7 +14539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -14606,7 +14660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14726,7 +14780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14846,7 +14900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U3"/>
   <sheetViews>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CA939D-226E-4262-816A-AD68F9D22C8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAD34B-436E-4B28-AA6A-B2FD63C125B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="151">
   <si>
     <t>NAME</t>
   </si>
@@ -289,18 +289,6 @@
     <t>O-Pa/Po</t>
   </si>
   <si>
-    <t>Human M</t>
-  </si>
-  <si>
-    <t>Mutant F</t>
-  </si>
-  <si>
-    <t>Mutant M</t>
-  </si>
-  <si>
-    <t>Human F</t>
-  </si>
-  <si>
     <t>Hatchling</t>
   </si>
   <si>
@@ -522,6 +510,12 @@
   <si>
     <t>Rakshasa</t>
   </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Mutant</t>
+  </si>
 </sst>
 </file>
 
@@ -689,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -726,72 +720,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,10 +1836,10 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Xcalibr Sword</v>
+            <v>Xcalibr</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Xcalibr Sword</v>
+            <v>Xcalibr</v>
           </cell>
           <cell r="C30" t="str">
             <v>Xcalibr</v>
@@ -3305,13 +3362,13 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Elbow</v>
+            <v>Flying Kick</v>
           </cell>
           <cell r="B76" t="str">
-            <v>Elbow</v>
+            <v>Flying Kick</v>
           </cell>
           <cell r="C76" t="str">
-            <v>Elbow</v>
+            <v>Flying Kick</v>
           </cell>
           <cell r="D76" t="str">
             <v>Art</v>
@@ -8805,8 +8862,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8815,128 +8875,136 @@
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="7.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="7.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="9.140625" style="29"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="9.140625" style="10"/>
+    <col min="11" max="11" width="9.140625" style="29"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="6"/>
+    <col min="14" max="14" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="31" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="31" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="31" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="31" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" style="31" customWidth="1"/>
+    <col min="24" max="24" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" style="31" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="10"/>
+    <col min="27" max="27" width="7.7109375" style="31" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="10"/>
+    <col min="29" max="29" width="7.7109375" style="31" customWidth="1"/>
+    <col min="30" max="30" width="20.28515625" style="10" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" style="31" customWidth="1"/>
     <col min="32" max="32" width="20.28515625" style="1" customWidth="1"/>
     <col min="33" max="33" width="23.42578125" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="37" t="s">
+      <c r="L1" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="39" t="s">
+      <c r="V1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="39" t="s">
+      <c r="Z1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="39" t="s">
+      <c r="AB1" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="V1" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="X1" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z1" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB1" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD1" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE1" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF1" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AD1" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF1" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="48" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8948,60 +9016,56 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="6">
         <v>59</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="10">
         <v>6</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="29">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="28">
         <v>0</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="6">
         <f>H2+_xlfn.IFNA(VLOOKUP(N2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB2,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>3</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="10">
         <v>5</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="29">
         <f>J2</f>
         <v>5</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="28">
         <v>3</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="6">
         <f>L2</f>
         <v>3</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AF2" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>101</v>
+      <c r="T2" s="20"/>
+      <c r="U2" s="41"/>
+      <c r="AF2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -9012,68 +9076,66 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="6">
         <v>45</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="10">
         <v>4</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="29">
         <f t="shared" ref="G3:G16" si="1">F3</f>
         <v>4</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="28">
         <v>0</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="6">
         <f>H3+_xlfn.IFNA(VLOOKUP(N3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB3,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>13</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="10">
         <v>5</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="29">
         <f t="shared" ref="K3:K16" si="2">J3</f>
         <v>5</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="28">
         <v>6</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="6">
         <f t="shared" ref="M3:M16" si="3">L3</f>
         <v>6</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="V3" s="20" t="s">
+      <c r="P3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="38"/>
+      <c r="V3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
+      <c r="Z3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
@@ -9083,55 +9145,50 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="6">
         <v>45</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="10">
         <v>5</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="28">
         <v>5</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="6">
         <f>H4+_xlfn.IFNA(VLOOKUP(N4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB4,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="29">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="28">
         <v>6</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AB4" s="20"/>
+      <c r="S4" s="50"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
@@ -9144,55 +9201,51 @@
       <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>60</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="28">
         <v>6</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="6">
         <f>H5+_xlfn.IFNA(VLOOKUP(N5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB5,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>19</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="10">
         <v>5</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="29">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="28">
         <v>0</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="20" t="s">
+      <c r="O5" s="32"/>
+      <c r="P5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="43" t="s">
+      <c r="S5" s="51"/>
+      <c r="T5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AB5" s="20"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
@@ -9202,70 +9255,79 @@
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="6">
         <v>200</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="10">
         <v>4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="28">
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="6">
         <f>H6+_xlfn.IFNA(VLOOKUP(N6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB6,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>21</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="10">
         <v>5</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="29">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="28">
         <v>6</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="O6" s="31">
+        <v>15</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="33" t="s">
+      <c r="Q6" s="39">
+        <v>15</v>
+      </c>
+      <c r="R6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="33" t="s">
+      <c r="S6" s="52">
+        <v>50</v>
+      </c>
+      <c r="T6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="34" t="s">
+      <c r="U6" s="52">
+        <v>10</v>
+      </c>
+      <c r="V6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AD6" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" s="38">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
@@ -9275,479 +9337,442 @@
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6">
         <v>999</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="10">
         <v>2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="28">
         <v>99</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="6">
         <f>H7+_xlfn.IFNA(VLOOKUP(N7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB7,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>99</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="10">
         <v>50</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="29">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="28">
         <v>10</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="R7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AD7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE7" s="17"/>
+      <c r="S7" s="52"/>
+      <c r="AD7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE7" s="36"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Slashy</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="6">
         <v>400</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="10">
         <v>30</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="29">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="28">
         <v>50</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="6">
         <f>H8+_xlfn.IFNA(VLOOKUP(N8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB8,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>50</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="10">
         <v>25</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="29">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="28">
         <v>30</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="6">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="29" t="s">
+      <c r="O8" s="33"/>
+      <c r="P8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="U8" s="19"/>
-      <c r="V8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" s="41"/>
+      <c r="T8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="41"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Revenge</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="6">
         <v>100</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="10">
         <v>15</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="29">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="28">
         <v>9</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="6">
         <f>H9+_xlfn.IFNA(VLOOKUP(N9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB9,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>9</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="10">
         <v>8</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="29">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="28">
         <v>3</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AB9" s="20"/>
+      <c r="N9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="34"/>
+      <c r="P9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle1</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="6">
         <v>100</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="28">
         <v>9</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="6">
         <f>H10+_xlfn.IFNA(VLOOKUP(N10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB10,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>9</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="10">
         <v>10</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="29">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="28">
         <v>10</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N10" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AB10" s="20"/>
+      <c r="N10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="35"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle2</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="6">
         <v>100</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="10">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="28">
         <v>9</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="6">
         <f>H11+_xlfn.IFNA(VLOOKUP(N11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB11,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>9</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="10">
         <v>10</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="29">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="28">
         <v>10</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AB11" s="20"/>
+      <c r="N11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="35"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Leonardo</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="6">
         <v>250</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="10">
         <v>30</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="29">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="28">
         <v>15</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="6">
         <f>H12+_xlfn.IFNA(VLOOKUP(N12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB12,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>15</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="10">
         <v>50</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="29">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="28">
         <v>11</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="6">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="N12" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" s="19"/>
-      <c r="V12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AB12" s="20"/>
+      <c r="N12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="36"/>
+      <c r="P12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" s="36"/>
+      <c r="T12" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="U12" s="41"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Isis</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="B13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="6">
         <v>999</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="10">
         <v>99</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="29">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="28">
         <v>99</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="6">
         <f>H13+_xlfn.IFNA(VLOOKUP(N13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB13,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>99</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="10">
         <v>99</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="29">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="28">
         <v>99</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="6">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="N13" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="26" t="s">
+      <c r="N13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="S13" s="19"/>
-      <c r="T13" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="U13" s="19"/>
-      <c r="V13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AB13" s="20"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="U13" s="41"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EyeUponU</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="6">
         <v>858</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="10">
         <v>83</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="29">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="28">
         <v>78</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="6">
         <f>H14+_xlfn.IFNA(VLOOKUP(N14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB14,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>78</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="10">
         <v>97</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="29">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="28">
         <v>86</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="6">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V14" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="X14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="AB14" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="X14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z14" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB14" s="20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -9755,66 +9780,66 @@
         <f t="shared" si="0"/>
         <v>HypnoToad</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B15" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="6">
         <v>885</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="10">
         <v>86</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="29">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="28">
         <v>83</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="6">
         <f>H15+_xlfn.IFNA(VLOOKUP(N15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB15,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>83</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="10">
         <v>91</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="29">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="28">
         <v>80</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="6">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="V15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="X15" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="Z15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB15" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z15" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB15" s="20" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -9822,48 +9847,51 @@
         <f t="shared" si="0"/>
         <v>SpellGod</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>1500</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="10">
         <v>99</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="H16" s="1">
         <v>120</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="6">
         <f>H16+_xlfn.IFNA(VLOOKUP(N16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z16,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB16,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>120</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="10">
         <v>120</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="29">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="L16" s="1">
         <v>99</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="6">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="N16" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="42" t="s">
-        <v>107</v>
+      <c r="N16" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" s="31">
+        <v>50</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -9958,7 +9986,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -10078,12 +10106,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -10095,15 +10123,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -10198,7 +10226,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -10378,7 +10406,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -10555,7 +10583,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -10694,7 +10722,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -10834,7 +10862,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -10877,7 +10905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -10954,7 +10982,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -11074,7 +11102,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -11194,7 +11222,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -11339,7 +11367,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -11362,7 +11390,7 @@
         <v>4</v>
       </c>
       <c r="T2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -11482,7 +11510,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -11626,7 +11654,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -11766,7 +11794,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -11886,7 +11914,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -11903,7 +11931,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -12006,7 +12034,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -12186,12 +12214,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -12203,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -12325,7 +12353,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -12445,7 +12473,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -12565,7 +12593,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -12582,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L2" t="s">
         <v>65</v>
@@ -12685,7 +12713,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -12702,7 +12730,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L2" t="s">
         <v>72</v>
@@ -12806,7 +12834,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -12957,7 +12985,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -12974,15 +13002,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -13077,12 +13105,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -13094,12 +13122,12 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -13194,7 +13222,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -13211,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -13312,12 +13340,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -13329,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -13430,12 +13458,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -13447,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -13463,7 +13491,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -13475,7 +13503,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -13565,12 +13593,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -13582,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -13686,7 +13714,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -13706,12 +13734,12 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -13807,12 +13835,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -13824,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -13928,12 +13956,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -13945,15 +13973,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -14049,7 +14077,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -14066,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -14083,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -14184,12 +14212,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -14201,15 +14229,15 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -14304,7 +14332,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -14389,10 +14417,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -14401,7 +14429,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -14502,12 +14530,12 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -14519,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -14620,7 +14648,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -14740,7 +14768,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -14757,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>28</v>
@@ -14860,7 +14888,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -14877,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -14982,7 +15010,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -15007,7 +15035,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>

--- a/Battle Log.xlsx
+++ b/Battle Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAD34B-436E-4B28-AA6A-B2FD63C125B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="16" r:id="rId1"/>
@@ -57,12 +56,12 @@
   <externalReferences>
     <externalReference r:id="rId41"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="159">
   <si>
     <t>NAME</t>
   </si>
@@ -516,11 +515,35 @@
   <si>
     <t>Mutant</t>
   </si>
+  <si>
+    <t>S0 Max Uses</t>
+  </si>
+  <si>
+    <t>S1 Max Uses</t>
+  </si>
+  <si>
+    <t>S2 Max Uses</t>
+  </si>
+  <si>
+    <t>S3 Max Uses</t>
+  </si>
+  <si>
+    <t>S4 Max Uses</t>
+  </si>
+  <si>
+    <t>S5 Max Uses</t>
+  </si>
+  <si>
+    <t>S6 Max Uses</t>
+  </si>
+  <si>
+    <t>S7 Max Uses</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -745,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -849,10 +872,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -954,6 +980,7 @@
           <cell r="C2" t="str">
             <v>Hammer</v>
           </cell>
+          <cell r="D2"/>
           <cell r="E2">
             <v>0</v>
           </cell>
@@ -966,6 +993,9 @@
           <cell r="H2">
             <v>50</v>
           </cell>
+          <cell r="I2"/>
+          <cell r="J2"/>
+          <cell r="K2"/>
           <cell r="L2">
             <v>9</v>
           </cell>
@@ -998,6 +1028,9 @@
           <cell r="H3">
             <v>400</v>
           </cell>
+          <cell r="I3"/>
+          <cell r="J3"/>
+          <cell r="K3"/>
           <cell r="L3">
             <v>18</v>
           </cell>
@@ -1030,6 +1063,9 @@
           <cell r="H4">
             <v>1400</v>
           </cell>
+          <cell r="I4"/>
+          <cell r="J4"/>
+          <cell r="K4"/>
           <cell r="L4">
             <v>27</v>
           </cell>
@@ -1062,6 +1098,9 @@
           <cell r="H5">
             <v>3200</v>
           </cell>
+          <cell r="I5"/>
+          <cell r="J5"/>
+          <cell r="K5"/>
           <cell r="L5">
             <v>36</v>
           </cell>
@@ -1094,6 +1133,9 @@
           <cell r="H6">
             <v>6800</v>
           </cell>
+          <cell r="I6"/>
+          <cell r="J6"/>
+          <cell r="K6"/>
           <cell r="L6">
             <v>45</v>
           </cell>
@@ -1126,6 +1168,9 @@
           <cell r="H7">
             <v>11000</v>
           </cell>
+          <cell r="I7"/>
+          <cell r="J7"/>
+          <cell r="K7"/>
           <cell r="L7">
             <v>63</v>
           </cell>
@@ -1158,6 +1203,9 @@
           <cell r="H8">
             <v>26000</v>
           </cell>
+          <cell r="I8"/>
+          <cell r="J8"/>
+          <cell r="K8"/>
           <cell r="L8">
             <v>99</v>
           </cell>
@@ -1190,6 +1238,9 @@
           <cell r="H9">
             <v>26000</v>
           </cell>
+          <cell r="I9"/>
+          <cell r="J9"/>
+          <cell r="K9"/>
           <cell r="L9">
             <v>99</v>
           </cell>
@@ -1222,6 +1273,9 @@
           <cell r="H10">
             <v>36000</v>
           </cell>
+          <cell r="I10"/>
+          <cell r="J10"/>
+          <cell r="K10"/>
           <cell r="L10">
             <v>117</v>
           </cell>
@@ -1254,6 +1308,9 @@
           <cell r="H11">
             <v>50000</v>
           </cell>
+          <cell r="I11"/>
+          <cell r="J11"/>
+          <cell r="K11"/>
           <cell r="L11">
             <v>144</v>
           </cell>
@@ -1286,6 +1343,9 @@
           <cell r="H12">
             <v>17000</v>
           </cell>
+          <cell r="I12"/>
+          <cell r="J12"/>
+          <cell r="K12"/>
           <cell r="L12">
             <v>81</v>
           </cell>
@@ -1318,6 +1378,9 @@
           <cell r="H13">
             <v>17000</v>
           </cell>
+          <cell r="I13"/>
+          <cell r="J13"/>
+          <cell r="K13"/>
           <cell r="L13">
             <v>81</v>
           </cell>
@@ -1350,6 +1413,9 @@
           <cell r="H14">
             <v>17000</v>
           </cell>
+          <cell r="I14"/>
+          <cell r="J14"/>
+          <cell r="K14"/>
           <cell r="L14">
             <v>81</v>
           </cell>
@@ -1382,6 +1448,9 @@
           <cell r="H15">
             <v>36000</v>
           </cell>
+          <cell r="I15"/>
+          <cell r="J15"/>
+          <cell r="K15"/>
           <cell r="L15">
             <v>117</v>
           </cell>
@@ -1414,6 +1483,9 @@
           <cell r="H16">
             <v>36000</v>
           </cell>
+          <cell r="I16"/>
+          <cell r="J16"/>
+          <cell r="K16"/>
           <cell r="L16">
             <v>45</v>
           </cell>
@@ -1446,6 +1518,9 @@
           <cell r="H17">
             <v>400</v>
           </cell>
+          <cell r="I17"/>
+          <cell r="J17"/>
+          <cell r="K17"/>
           <cell r="L17">
             <v>18</v>
           </cell>
@@ -1478,6 +1553,9 @@
           <cell r="H18">
             <v>6800</v>
           </cell>
+          <cell r="I18"/>
+          <cell r="J18"/>
+          <cell r="K18"/>
           <cell r="L18">
             <v>45</v>
           </cell>
@@ -1510,6 +1588,9 @@
           <cell r="H19">
             <v>50</v>
           </cell>
+          <cell r="I19"/>
+          <cell r="J19"/>
+          <cell r="K19"/>
           <cell r="L19">
             <v>9</v>
           </cell>
@@ -1542,6 +1623,9 @@
           <cell r="H20">
             <v>1400</v>
           </cell>
+          <cell r="I20"/>
+          <cell r="J20"/>
+          <cell r="K20"/>
           <cell r="L20">
             <v>27</v>
           </cell>
@@ -1574,6 +1658,9 @@
           <cell r="H21">
             <v>6800</v>
           </cell>
+          <cell r="I21"/>
+          <cell r="J21"/>
+          <cell r="K21"/>
           <cell r="L21">
             <v>45</v>
           </cell>
@@ -1606,6 +1693,9 @@
           <cell r="H22">
             <v>17000</v>
           </cell>
+          <cell r="I22"/>
+          <cell r="J22"/>
+          <cell r="K22"/>
           <cell r="L22">
             <v>81</v>
           </cell>
@@ -1638,6 +1728,9 @@
           <cell r="H23">
             <v>17000</v>
           </cell>
+          <cell r="I23"/>
+          <cell r="J23"/>
+          <cell r="K23"/>
           <cell r="L23">
             <v>81</v>
           </cell>
@@ -1670,6 +1763,9 @@
           <cell r="H24">
             <v>36000</v>
           </cell>
+          <cell r="I24"/>
+          <cell r="J24"/>
+          <cell r="K24"/>
           <cell r="L24">
             <v>117</v>
           </cell>
@@ -1702,6 +1798,9 @@
           <cell r="H25">
             <v>50</v>
           </cell>
+          <cell r="I25"/>
+          <cell r="J25"/>
+          <cell r="K25"/>
           <cell r="L25">
             <v>9</v>
           </cell>
@@ -1734,6 +1833,9 @@
           <cell r="H26">
             <v>300</v>
           </cell>
+          <cell r="I26"/>
+          <cell r="J26"/>
+          <cell r="K26"/>
           <cell r="L26">
             <v>9</v>
           </cell>
@@ -1766,6 +1868,9 @@
           <cell r="H27">
             <v>300</v>
           </cell>
+          <cell r="I27"/>
+          <cell r="J27"/>
+          <cell r="K27"/>
           <cell r="L27">
             <v>9</v>
           </cell>
@@ -1798,6 +1903,9 @@
           <cell r="H28">
             <v>200</v>
           </cell>
+          <cell r="I28"/>
+          <cell r="J28"/>
+          <cell r="K28"/>
           <cell r="L28">
             <v>9</v>
           </cell>
@@ -1815,6 +1923,7 @@
           <cell r="C29" t="str">
             <v>Abacus</v>
           </cell>
+          <cell r="D29"/>
           <cell r="E29">
             <v>33</v>
           </cell>
@@ -1827,6 +1936,9 @@
           <cell r="H29">
             <v>5000</v>
           </cell>
+          <cell r="I29"/>
+          <cell r="J29"/>
+          <cell r="K29"/>
           <cell r="L29">
             <v>9</v>
           </cell>
@@ -1859,6 +1971,9 @@
           <cell r="H30">
             <v>50000</v>
           </cell>
+          <cell r="I30"/>
+          <cell r="J30"/>
+          <cell r="K30"/>
           <cell r="L30">
             <v>144</v>
           </cell>
@@ -1891,6 +2006,9 @@
           <cell r="H31">
             <v>36000</v>
           </cell>
+          <cell r="I31"/>
+          <cell r="J31"/>
+          <cell r="K31"/>
           <cell r="L31">
             <v>117</v>
           </cell>
@@ -1923,6 +2041,9 @@
           <cell r="H32">
             <v>6800</v>
           </cell>
+          <cell r="I32"/>
+          <cell r="J32"/>
+          <cell r="K32"/>
           <cell r="L32">
             <v>45</v>
           </cell>
@@ -1955,6 +2076,9 @@
           <cell r="H33">
             <v>6800</v>
           </cell>
+          <cell r="I33"/>
+          <cell r="J33"/>
+          <cell r="K33"/>
           <cell r="L33">
             <v>45</v>
           </cell>
@@ -1987,6 +2111,9 @@
           <cell r="H34">
             <v>6800</v>
           </cell>
+          <cell r="I34"/>
+          <cell r="J34"/>
+          <cell r="K34"/>
           <cell r="L34">
             <v>45</v>
           </cell>
@@ -2019,6 +2146,9 @@
           <cell r="H35">
             <v>6800</v>
           </cell>
+          <cell r="I35"/>
+          <cell r="J35"/>
+          <cell r="K35"/>
           <cell r="L35">
             <v>45</v>
           </cell>
@@ -2051,6 +2181,9 @@
           <cell r="H36">
             <v>6800</v>
           </cell>
+          <cell r="I36"/>
+          <cell r="J36"/>
+          <cell r="K36"/>
           <cell r="L36">
             <v>45</v>
           </cell>
@@ -2083,6 +2216,9 @@
           <cell r="H37">
             <v>6800</v>
           </cell>
+          <cell r="I37"/>
+          <cell r="J37"/>
+          <cell r="K37"/>
           <cell r="L37">
             <v>45</v>
           </cell>
@@ -2115,6 +2251,9 @@
           <cell r="H38">
             <v>6800</v>
           </cell>
+          <cell r="I38"/>
+          <cell r="J38"/>
+          <cell r="K38"/>
           <cell r="L38">
             <v>45</v>
           </cell>
@@ -2147,6 +2286,9 @@
           <cell r="H39">
             <v>11000</v>
           </cell>
+          <cell r="I39"/>
+          <cell r="J39"/>
+          <cell r="K39"/>
           <cell r="L39">
             <v>63</v>
           </cell>
@@ -2179,6 +2321,9 @@
           <cell r="H40">
             <v>17000</v>
           </cell>
+          <cell r="I40"/>
+          <cell r="J40"/>
+          <cell r="K40"/>
           <cell r="L40">
             <v>81</v>
           </cell>
@@ -2211,6 +2356,9 @@
           <cell r="H41">
             <v>17000</v>
           </cell>
+          <cell r="I41"/>
+          <cell r="J41"/>
+          <cell r="K41"/>
           <cell r="L41">
             <v>81</v>
           </cell>
@@ -2243,6 +2391,9 @@
           <cell r="H42">
             <v>36000</v>
           </cell>
+          <cell r="I42"/>
+          <cell r="J42"/>
+          <cell r="K42"/>
           <cell r="L42">
             <v>117</v>
           </cell>
@@ -2275,6 +2426,9 @@
           <cell r="H43">
             <v>17000</v>
           </cell>
+          <cell r="I43"/>
+          <cell r="J43"/>
+          <cell r="K43"/>
           <cell r="L43">
             <v>81</v>
           </cell>
@@ -2307,6 +2461,9 @@
           <cell r="H44">
             <v>50000</v>
           </cell>
+          <cell r="I44"/>
+          <cell r="J44"/>
+          <cell r="K44"/>
           <cell r="L44">
             <v>144</v>
           </cell>
@@ -2342,6 +2499,8 @@
           <cell r="I45">
             <v>2</v>
           </cell>
+          <cell r="J45"/>
+          <cell r="K45"/>
           <cell r="L45">
             <v>9</v>
           </cell>
@@ -2377,6 +2536,8 @@
           <cell r="I46">
             <v>4</v>
           </cell>
+          <cell r="J46"/>
+          <cell r="K46"/>
           <cell r="L46">
             <v>27</v>
           </cell>
@@ -2412,6 +2573,8 @@
           <cell r="I47">
             <v>8</v>
           </cell>
+          <cell r="J47"/>
+          <cell r="K47"/>
           <cell r="L47">
             <v>45</v>
           </cell>
@@ -2447,6 +2610,8 @@
           <cell r="I48">
             <v>20</v>
           </cell>
+          <cell r="J48"/>
+          <cell r="K48"/>
           <cell r="L48">
             <v>117</v>
           </cell>
@@ -2482,6 +2647,8 @@
           <cell r="I49">
             <v>3</v>
           </cell>
+          <cell r="J49"/>
+          <cell r="K49"/>
           <cell r="L49">
             <v>9</v>
           </cell>
@@ -2517,6 +2684,8 @@
           <cell r="I50">
             <v>7</v>
           </cell>
+          <cell r="J50"/>
+          <cell r="K50"/>
           <cell r="L50">
             <v>27</v>
           </cell>
@@ -2552,6 +2721,8 @@
           <cell r="I51">
             <v>13</v>
           </cell>
+          <cell r="J51"/>
+          <cell r="K51"/>
           <cell r="L51">
             <v>45</v>
           </cell>
@@ -2587,6 +2758,8 @@
           <cell r="I52">
             <v>21</v>
           </cell>
+          <cell r="J52"/>
+          <cell r="K52"/>
           <cell r="L52">
             <v>81</v>
           </cell>
@@ -2622,6 +2795,8 @@
           <cell r="I53">
             <v>31</v>
           </cell>
+          <cell r="J53"/>
+          <cell r="K53"/>
           <cell r="L53">
             <v>117</v>
           </cell>
@@ -2657,6 +2832,8 @@
           <cell r="I54">
             <v>1</v>
           </cell>
+          <cell r="J54"/>
+          <cell r="K54"/>
           <cell r="L54">
             <v>9</v>
           </cell>
@@ -2692,6 +2869,8 @@
           <cell r="I55">
             <v>2</v>
           </cell>
+          <cell r="J55"/>
+          <cell r="K55"/>
           <cell r="L55">
             <v>27</v>
           </cell>
@@ -2727,6 +2906,8 @@
           <cell r="I56">
             <v>4</v>
           </cell>
+          <cell r="J56"/>
+          <cell r="K56"/>
           <cell r="L56">
             <v>45</v>
           </cell>
@@ -2803,6 +2984,8 @@
           <cell r="I58">
             <v>10</v>
           </cell>
+          <cell r="J58"/>
+          <cell r="K58"/>
           <cell r="L58">
             <v>117</v>
           </cell>
@@ -2902,6 +3085,7 @@
           <cell r="C61" t="str">
             <v>Elixier</v>
           </cell>
+          <cell r="D61"/>
           <cell r="E61">
             <v>65</v>
           </cell>
@@ -2914,6 +3098,9 @@
           <cell r="H61">
             <v>5000</v>
           </cell>
+          <cell r="I61"/>
+          <cell r="J61"/>
+          <cell r="K61"/>
           <cell r="L61">
             <v>9</v>
           </cell>
@@ -2946,6 +3133,9 @@
           <cell r="H62">
             <v>1000</v>
           </cell>
+          <cell r="I62"/>
+          <cell r="J62"/>
+          <cell r="K62"/>
           <cell r="L62">
             <v>9</v>
           </cell>
@@ -2978,6 +3168,9 @@
           <cell r="H63">
             <v>1000</v>
           </cell>
+          <cell r="I63"/>
+          <cell r="J63"/>
+          <cell r="K63"/>
           <cell r="L63">
             <v>9</v>
           </cell>
@@ -3010,6 +3203,9 @@
           <cell r="H64">
             <v>1000</v>
           </cell>
+          <cell r="I64"/>
+          <cell r="J64"/>
+          <cell r="K64"/>
           <cell r="L64">
             <v>9</v>
           </cell>
@@ -3042,6 +3238,9 @@
           <cell r="H65">
             <v>1000</v>
           </cell>
+          <cell r="I65"/>
+          <cell r="J65"/>
+          <cell r="K65"/>
           <cell r="L65">
             <v>9</v>
           </cell>
@@ -3074,6 +3273,9 @@
           <cell r="H66">
             <v>1000</v>
           </cell>
+          <cell r="I66"/>
+          <cell r="J66"/>
+          <cell r="K66"/>
           <cell r="L66">
             <v>9</v>
           </cell>
@@ -3091,6 +3293,7 @@
           <cell r="C67" t="str">
             <v>Tent</v>
           </cell>
+          <cell r="D67"/>
           <cell r="E67">
             <v>71</v>
           </cell>
@@ -3103,6 +3306,9 @@
           <cell r="H67">
             <v>10000</v>
           </cell>
+          <cell r="I67"/>
+          <cell r="J67"/>
+          <cell r="K67"/>
           <cell r="L67">
             <v>9</v>
           </cell>
@@ -3135,6 +3341,9 @@
           <cell r="H68">
             <v>400</v>
           </cell>
+          <cell r="I68"/>
+          <cell r="J68"/>
+          <cell r="K68"/>
           <cell r="L68">
             <v>18</v>
           </cell>
@@ -3167,6 +3376,9 @@
           <cell r="H69">
             <v>6800</v>
           </cell>
+          <cell r="I69"/>
+          <cell r="J69"/>
+          <cell r="K69"/>
           <cell r="L69">
             <v>45</v>
           </cell>
@@ -3184,6 +3396,7 @@
           <cell r="C70" t="str">
             <v>ChainSaw</v>
           </cell>
+          <cell r="D70"/>
           <cell r="E70">
             <v>74</v>
           </cell>
@@ -3196,6 +3409,9 @@
           <cell r="H70">
             <v>6800</v>
           </cell>
+          <cell r="I70"/>
+          <cell r="J70"/>
+          <cell r="K70"/>
           <cell r="L70">
             <v>45</v>
           </cell>
@@ -3213,6 +3429,7 @@
           <cell r="C71" t="str">
             <v>Counter</v>
           </cell>
+          <cell r="D71"/>
           <cell r="E71">
             <v>75</v>
           </cell>
@@ -3225,6 +3442,9 @@
           <cell r="H71">
             <v>6800</v>
           </cell>
+          <cell r="I71"/>
+          <cell r="J71"/>
+          <cell r="K71"/>
           <cell r="L71">
             <v>45</v>
           </cell>
@@ -3257,6 +3477,9 @@
           <cell r="H72">
             <v>1400</v>
           </cell>
+          <cell r="I72"/>
+          <cell r="J72"/>
+          <cell r="K72"/>
           <cell r="L72">
             <v>27</v>
           </cell>
@@ -3289,6 +3512,9 @@
           <cell r="H73">
             <v>8000</v>
           </cell>
+          <cell r="I73"/>
+          <cell r="J73"/>
+          <cell r="K73"/>
           <cell r="L73">
             <v>63</v>
           </cell>
@@ -3321,6 +3547,9 @@
           <cell r="H74">
             <v>17000</v>
           </cell>
+          <cell r="I74"/>
+          <cell r="J74"/>
+          <cell r="K74"/>
           <cell r="L74">
             <v>81</v>
           </cell>
@@ -3353,6 +3582,9 @@
           <cell r="H75">
             <v>50</v>
           </cell>
+          <cell r="I75"/>
+          <cell r="J75"/>
+          <cell r="K75"/>
           <cell r="L75">
             <v>9</v>
           </cell>
@@ -3385,6 +3617,9 @@
           <cell r="H76">
             <v>1400</v>
           </cell>
+          <cell r="I76"/>
+          <cell r="J76"/>
+          <cell r="K76"/>
           <cell r="L76">
             <v>27</v>
           </cell>
@@ -3417,6 +3652,9 @@
           <cell r="H77">
             <v>6800</v>
           </cell>
+          <cell r="I77"/>
+          <cell r="J77"/>
+          <cell r="K77"/>
           <cell r="L77">
             <v>45</v>
           </cell>
@@ -3449,6 +3687,9 @@
           <cell r="H78">
             <v>17000</v>
           </cell>
+          <cell r="I78"/>
+          <cell r="J78"/>
+          <cell r="K78"/>
           <cell r="L78">
             <v>81</v>
           </cell>
@@ -3481,6 +3722,9 @@
           <cell r="H79">
             <v>36000</v>
           </cell>
+          <cell r="I79"/>
+          <cell r="J79"/>
+          <cell r="K79"/>
           <cell r="L79">
             <v>117</v>
           </cell>
@@ -3513,6 +3757,9 @@
           <cell r="H80">
             <v>50000</v>
           </cell>
+          <cell r="I80"/>
+          <cell r="J80"/>
+          <cell r="K80"/>
           <cell r="L80">
             <v>144</v>
           </cell>
@@ -3530,6 +3777,7 @@
           <cell r="C81" t="str">
             <v>Temptat</v>
           </cell>
+          <cell r="D81"/>
           <cell r="E81">
             <v>85</v>
           </cell>
@@ -3542,6 +3790,9 @@
           <cell r="H81">
             <v>6800</v>
           </cell>
+          <cell r="I81"/>
+          <cell r="J81"/>
+          <cell r="K81"/>
           <cell r="L81">
             <v>45</v>
           </cell>
@@ -3574,6 +3825,9 @@
           <cell r="H82">
             <v>1400</v>
           </cell>
+          <cell r="I82"/>
+          <cell r="J82"/>
+          <cell r="K82"/>
           <cell r="L82">
             <v>27</v>
           </cell>
@@ -3591,6 +3845,7 @@
           <cell r="C83" t="str">
             <v>Heat</v>
           </cell>
+          <cell r="D83"/>
           <cell r="E83">
             <v>87</v>
           </cell>
@@ -3603,6 +3858,9 @@
           <cell r="H83">
             <v>0</v>
           </cell>
+          <cell r="I83"/>
+          <cell r="J83"/>
+          <cell r="K83"/>
           <cell r="L83">
             <v>9</v>
           </cell>
@@ -3620,6 +3878,7 @@
           <cell r="C84" t="str">
             <v>ComVirus</v>
           </cell>
+          <cell r="D84"/>
           <cell r="E84">
             <v>88</v>
           </cell>
@@ -3632,6 +3891,9 @@
           <cell r="H84">
             <v>0</v>
           </cell>
+          <cell r="I84"/>
+          <cell r="J84"/>
+          <cell r="K84"/>
           <cell r="L84">
             <v>9</v>
           </cell>
@@ -3649,6 +3911,7 @@
           <cell r="C85" t="str">
             <v>DNA</v>
           </cell>
+          <cell r="D85"/>
           <cell r="E85">
             <v>89</v>
           </cell>
@@ -3661,6 +3924,9 @@
           <cell r="H85">
             <v>0</v>
           </cell>
+          <cell r="I85"/>
+          <cell r="J85"/>
+          <cell r="K85"/>
           <cell r="L85">
             <v>9</v>
           </cell>
@@ -3693,6 +3959,9 @@
           <cell r="H86">
             <v>6800</v>
           </cell>
+          <cell r="I86"/>
+          <cell r="J86"/>
+          <cell r="K86"/>
           <cell r="L86">
             <v>45</v>
           </cell>
@@ -3710,6 +3979,7 @@
           <cell r="C87" t="str">
             <v>Grenade</v>
           </cell>
+          <cell r="D87"/>
           <cell r="E87">
             <v>91</v>
           </cell>
@@ -3722,6 +3992,9 @@
           <cell r="H87">
             <v>11000</v>
           </cell>
+          <cell r="I87"/>
+          <cell r="J87"/>
+          <cell r="K87"/>
           <cell r="L87">
             <v>63</v>
           </cell>
@@ -3754,6 +4027,9 @@
           <cell r="H88">
             <v>17000</v>
           </cell>
+          <cell r="I88"/>
+          <cell r="J88"/>
+          <cell r="K88"/>
           <cell r="L88">
             <v>81</v>
           </cell>
@@ -3786,6 +4062,9 @@
           <cell r="H89">
             <v>26000</v>
           </cell>
+          <cell r="I89"/>
+          <cell r="J89"/>
+          <cell r="K89"/>
           <cell r="L89">
             <v>99</v>
           </cell>
@@ -3818,6 +4097,9 @@
           <cell r="H90">
             <v>36000</v>
           </cell>
+          <cell r="I90"/>
+          <cell r="J90"/>
+          <cell r="K90"/>
           <cell r="L90">
             <v>117</v>
           </cell>
@@ -3850,6 +4132,9 @@
           <cell r="H91">
             <v>17000</v>
           </cell>
+          <cell r="I91"/>
+          <cell r="J91"/>
+          <cell r="K91"/>
           <cell r="L91">
             <v>81</v>
           </cell>
@@ -3882,6 +4167,9 @@
           <cell r="H92">
             <v>36000</v>
           </cell>
+          <cell r="I92"/>
+          <cell r="J92"/>
+          <cell r="K92"/>
           <cell r="L92">
             <v>117</v>
           </cell>
@@ -3899,6 +4187,7 @@
           <cell r="C93" t="str">
             <v>NukeBomb</v>
           </cell>
+          <cell r="D93"/>
           <cell r="E93">
             <v>97</v>
           </cell>
@@ -3911,6 +4200,9 @@
           <cell r="H93">
             <v>1464</v>
           </cell>
+          <cell r="I93"/>
+          <cell r="J93"/>
+          <cell r="K93"/>
           <cell r="L93">
             <v>144</v>
           </cell>
@@ -3987,6 +4279,8 @@
           <cell r="I95">
             <v>13</v>
           </cell>
+          <cell r="J95"/>
+          <cell r="K95"/>
           <cell r="L95">
             <v>81</v>
           </cell>
@@ -4022,6 +4316,8 @@
           <cell r="I96">
             <v>16</v>
           </cell>
+          <cell r="J96"/>
+          <cell r="K96"/>
           <cell r="L96">
             <v>63</v>
           </cell>
@@ -4080,6 +4376,7 @@
           <cell r="C98" t="str">
             <v>Sypha</v>
           </cell>
+          <cell r="D98"/>
           <cell r="E98">
             <v>102</v>
           </cell>
@@ -4092,6 +4389,9 @@
           <cell r="H98">
             <v>11000</v>
           </cell>
+          <cell r="I98"/>
+          <cell r="J98"/>
+          <cell r="K98"/>
           <cell r="L98">
             <v>63</v>
           </cell>
@@ -4109,6 +4409,7 @@
           <cell r="C99" t="str">
             <v>Coin</v>
           </cell>
+          <cell r="D99"/>
           <cell r="E99">
             <v>103</v>
           </cell>
@@ -4121,6 +4422,9 @@
           <cell r="H99">
             <v>11000</v>
           </cell>
+          <cell r="I99"/>
+          <cell r="J99"/>
+          <cell r="K99"/>
           <cell r="L99">
             <v>63</v>
           </cell>
@@ -4194,6 +4498,9 @@
           <cell r="H101">
             <v>26000</v>
           </cell>
+          <cell r="I101"/>
+          <cell r="J101"/>
+          <cell r="K101"/>
           <cell r="L101">
             <v>99</v>
           </cell>
@@ -4226,6 +4533,9 @@
           <cell r="H102">
             <v>26000</v>
           </cell>
+          <cell r="I102"/>
+          <cell r="J102"/>
+          <cell r="K102"/>
           <cell r="L102">
             <v>99</v>
           </cell>
@@ -4258,6 +4568,9 @@
           <cell r="H103">
             <v>50000</v>
           </cell>
+          <cell r="I103"/>
+          <cell r="J103"/>
+          <cell r="K103"/>
           <cell r="L103">
             <v>144</v>
           </cell>
@@ -4290,6 +4603,9 @@
           <cell r="H104">
             <v>11000</v>
           </cell>
+          <cell r="I104"/>
+          <cell r="J104"/>
+          <cell r="K104"/>
           <cell r="L104">
             <v>63</v>
           </cell>
@@ -4322,6 +4638,9 @@
           <cell r="H105">
             <v>1400</v>
           </cell>
+          <cell r="I105"/>
+          <cell r="J105"/>
+          <cell r="K105"/>
           <cell r="L105">
             <v>27</v>
           </cell>
@@ -4354,6 +4673,9 @@
           <cell r="H106">
             <v>17000</v>
           </cell>
+          <cell r="I106"/>
+          <cell r="J106"/>
+          <cell r="K106"/>
           <cell r="L106">
             <v>81</v>
           </cell>
@@ -4386,6 +4708,9 @@
           <cell r="H107">
             <v>36000</v>
           </cell>
+          <cell r="I107"/>
+          <cell r="J107"/>
+          <cell r="K107"/>
           <cell r="L107">
             <v>117</v>
           </cell>
@@ -4403,6 +4728,7 @@
           <cell r="C108" t="str">
             <v>SpeedUp</v>
           </cell>
+          <cell r="D108"/>
           <cell r="E108">
             <v>112</v>
           </cell>
@@ -4415,6 +4741,9 @@
           <cell r="H108">
             <v>6800</v>
           </cell>
+          <cell r="I108"/>
+          <cell r="J108"/>
+          <cell r="K108"/>
           <cell r="L108">
             <v>45</v>
           </cell>
@@ -4432,6 +4761,7 @@
           <cell r="C109" t="str">
             <v>Rocket</v>
           </cell>
+          <cell r="D109"/>
           <cell r="E109">
             <v>113</v>
           </cell>
@@ -4444,6 +4774,9 @@
           <cell r="H109">
             <v>6800</v>
           </cell>
+          <cell r="I109"/>
+          <cell r="J109"/>
+          <cell r="K109"/>
           <cell r="L109">
             <v>45</v>
           </cell>
@@ -4476,6 +4809,9 @@
           <cell r="H110">
             <v>50000</v>
           </cell>
+          <cell r="I110"/>
+          <cell r="J110"/>
+          <cell r="K110"/>
           <cell r="L110">
             <v>144</v>
           </cell>
@@ -4549,6 +4885,9 @@
           <cell r="H112">
             <v>50000</v>
           </cell>
+          <cell r="I112"/>
+          <cell r="J112"/>
+          <cell r="K112"/>
           <cell r="L112">
             <v>144</v>
           </cell>
@@ -4607,6 +4946,7 @@
           <cell r="C114" t="str">
             <v>Parasuit</v>
           </cell>
+          <cell r="D114"/>
           <cell r="E114">
             <v>118</v>
           </cell>
@@ -4645,6 +4985,7 @@
           <cell r="C115" t="str">
             <v>Door</v>
           </cell>
+          <cell r="D115"/>
           <cell r="E115">
             <v>119</v>
           </cell>
@@ -4657,6 +4998,9 @@
           <cell r="H115">
             <v>5000</v>
           </cell>
+          <cell r="I115"/>
+          <cell r="J115"/>
+          <cell r="K115"/>
           <cell r="L115">
             <v>9</v>
           </cell>
@@ -4689,6 +5033,9 @@
           <cell r="H116">
             <v>1</v>
           </cell>
+          <cell r="I116"/>
+          <cell r="J116"/>
+          <cell r="K116"/>
           <cell r="L116">
             <v>9</v>
           </cell>
@@ -4706,6 +5053,7 @@
           <cell r="C117" t="str">
             <v>Key</v>
           </cell>
+          <cell r="D117"/>
           <cell r="E117">
             <v>121</v>
           </cell>
@@ -4718,6 +5066,9 @@
           <cell r="H117">
             <v>1</v>
           </cell>
+          <cell r="I117"/>
+          <cell r="J117"/>
+          <cell r="K117"/>
           <cell r="L117">
             <v>9</v>
           </cell>
@@ -4750,6 +5101,9 @@
           <cell r="H118">
             <v>0</v>
           </cell>
+          <cell r="I118"/>
+          <cell r="J118"/>
+          <cell r="K118"/>
           <cell r="L118">
             <v>9</v>
           </cell>
@@ -4782,6 +5136,9 @@
           <cell r="H119">
             <v>0</v>
           </cell>
+          <cell r="I119"/>
+          <cell r="J119"/>
+          <cell r="K119"/>
           <cell r="L119">
             <v>9</v>
           </cell>
@@ -4814,6 +5171,9 @@
           <cell r="H120">
             <v>0</v>
           </cell>
+          <cell r="I120"/>
+          <cell r="J120"/>
+          <cell r="K120"/>
           <cell r="L120">
             <v>9</v>
           </cell>
@@ -4846,6 +5206,9 @@
           <cell r="H121">
             <v>0</v>
           </cell>
+          <cell r="I121"/>
+          <cell r="J121"/>
+          <cell r="K121"/>
           <cell r="L121">
             <v>9</v>
           </cell>
@@ -4863,6 +5226,7 @@
           <cell r="C122" t="str">
             <v>Selfix</v>
           </cell>
+          <cell r="D122"/>
           <cell r="E122">
             <v>126</v>
           </cell>
@@ -4875,6 +5239,9 @@
           <cell r="H122">
             <v>0</v>
           </cell>
+          <cell r="I122"/>
+          <cell r="J122"/>
+          <cell r="K122"/>
           <cell r="L122">
             <v>117</v>
           </cell>
@@ -4907,6 +5274,9 @@
           <cell r="H123">
             <v>0</v>
           </cell>
+          <cell r="I123"/>
+          <cell r="J123"/>
+          <cell r="K123"/>
           <cell r="L123">
             <v>144</v>
           </cell>
@@ -4924,6 +5294,7 @@
           <cell r="C124" t="str">
             <v>Nail</v>
           </cell>
+          <cell r="D124"/>
           <cell r="E124">
             <v>128</v>
           </cell>
@@ -4933,6 +5304,10 @@
           <cell r="G124">
             <v>30</v>
           </cell>
+          <cell r="H124"/>
+          <cell r="I124"/>
+          <cell r="J124"/>
+          <cell r="K124"/>
           <cell r="L124">
             <v>9</v>
           </cell>
@@ -4950,6 +5325,7 @@
           <cell r="C125" t="str">
             <v>Tusk</v>
           </cell>
+          <cell r="D125"/>
           <cell r="E125">
             <v>129</v>
           </cell>
@@ -4959,6 +5335,10 @@
           <cell r="G125">
             <v>15</v>
           </cell>
+          <cell r="H125"/>
+          <cell r="I125"/>
+          <cell r="J125"/>
+          <cell r="K125"/>
           <cell r="L125">
             <v>9</v>
           </cell>
@@ -4976,6 +5356,7 @@
           <cell r="C126" t="str">
             <v>Tongue</v>
           </cell>
+          <cell r="D126"/>
           <cell r="E126">
             <v>130</v>
           </cell>
@@ -4985,6 +5366,10 @@
           <cell r="G126">
             <v>30</v>
           </cell>
+          <cell r="H126"/>
+          <cell r="I126"/>
+          <cell r="J126"/>
+          <cell r="K126"/>
           <cell r="L126">
             <v>9</v>
           </cell>
@@ -5002,6 +5387,7 @@
           <cell r="C127" t="str">
             <v>Stab</v>
           </cell>
+          <cell r="D127"/>
           <cell r="E127">
             <v>131</v>
           </cell>
@@ -5011,6 +5397,10 @@
           <cell r="G127">
             <v>30</v>
           </cell>
+          <cell r="H127"/>
+          <cell r="I127"/>
+          <cell r="J127"/>
+          <cell r="K127"/>
           <cell r="L127">
             <v>9</v>
           </cell>
@@ -5028,6 +5418,7 @@
           <cell r="C128" t="str">
             <v>Branch</v>
           </cell>
+          <cell r="D128"/>
           <cell r="E128">
             <v>132</v>
           </cell>
@@ -5037,6 +5428,10 @@
           <cell r="G128">
             <v>30</v>
           </cell>
+          <cell r="H128"/>
+          <cell r="I128"/>
+          <cell r="J128"/>
+          <cell r="K128"/>
           <cell r="L128">
             <v>9</v>
           </cell>
@@ -5054,6 +5449,7 @@
           <cell r="C129" t="str">
             <v>Bash</v>
           </cell>
+          <cell r="D129"/>
           <cell r="E129">
             <v>133</v>
           </cell>
@@ -5063,6 +5459,10 @@
           <cell r="G129">
             <v>15</v>
           </cell>
+          <cell r="H129"/>
+          <cell r="I129"/>
+          <cell r="J129"/>
+          <cell r="K129"/>
           <cell r="L129">
             <v>9</v>
           </cell>
@@ -5080,6 +5480,7 @@
           <cell r="C130" t="str">
             <v>Punch</v>
           </cell>
+          <cell r="D130"/>
           <cell r="E130">
             <v>134</v>
           </cell>
@@ -5089,6 +5490,10 @@
           <cell r="G130">
             <v>30</v>
           </cell>
+          <cell r="H130"/>
+          <cell r="I130"/>
+          <cell r="J130"/>
+          <cell r="K130"/>
           <cell r="L130">
             <v>9</v>
           </cell>
@@ -5106,6 +5511,7 @@
           <cell r="C131" t="str">
             <v>Kick</v>
           </cell>
+          <cell r="D131"/>
           <cell r="E131">
             <v>135</v>
           </cell>
@@ -5115,6 +5521,10 @@
           <cell r="G131">
             <v>15</v>
           </cell>
+          <cell r="H131"/>
+          <cell r="I131"/>
+          <cell r="J131"/>
+          <cell r="K131"/>
           <cell r="L131">
             <v>9</v>
           </cell>
@@ -5132,6 +5542,7 @@
           <cell r="C132" t="str">
             <v>Horn</v>
           </cell>
+          <cell r="D132"/>
           <cell r="E132">
             <v>136</v>
           </cell>
@@ -5141,6 +5552,10 @@
           <cell r="G132">
             <v>15</v>
           </cell>
+          <cell r="H132"/>
+          <cell r="I132"/>
+          <cell r="J132"/>
+          <cell r="K132"/>
           <cell r="L132">
             <v>9</v>
           </cell>
@@ -5158,6 +5573,7 @@
           <cell r="C133" t="str">
             <v>Thorn</v>
           </cell>
+          <cell r="D133"/>
           <cell r="E133">
             <v>137</v>
           </cell>
@@ -5167,6 +5583,10 @@
           <cell r="G133">
             <v>30</v>
           </cell>
+          <cell r="H133"/>
+          <cell r="I133"/>
+          <cell r="J133"/>
+          <cell r="K133"/>
           <cell r="L133">
             <v>9</v>
           </cell>
@@ -5184,6 +5604,7 @@
           <cell r="C134" t="str">
             <v>Sword</v>
           </cell>
+          <cell r="D134"/>
           <cell r="E134">
             <v>138</v>
           </cell>
@@ -5193,6 +5614,10 @@
           <cell r="G134">
             <v>30</v>
           </cell>
+          <cell r="H134"/>
+          <cell r="I134"/>
+          <cell r="J134"/>
+          <cell r="K134"/>
           <cell r="L134">
             <v>9</v>
           </cell>
@@ -5210,6 +5635,7 @@
           <cell r="C135" t="str">
             <v>Head</v>
           </cell>
+          <cell r="D135"/>
           <cell r="E135">
             <v>139</v>
           </cell>
@@ -5219,6 +5645,10 @@
           <cell r="G135">
             <v>15</v>
           </cell>
+          <cell r="H135"/>
+          <cell r="I135"/>
+          <cell r="J135"/>
+          <cell r="K135"/>
           <cell r="L135">
             <v>9</v>
           </cell>
@@ -5236,6 +5666,7 @@
           <cell r="C136" t="str">
             <v>Beak</v>
           </cell>
+          <cell r="D136"/>
           <cell r="E136">
             <v>140</v>
           </cell>
@@ -5245,6 +5676,10 @@
           <cell r="G136">
             <v>30</v>
           </cell>
+          <cell r="H136"/>
+          <cell r="I136"/>
+          <cell r="J136"/>
+          <cell r="K136"/>
           <cell r="L136">
             <v>9</v>
           </cell>
@@ -5262,6 +5697,7 @@
           <cell r="C137" t="str">
             <v>Tail</v>
           </cell>
+          <cell r="D137"/>
           <cell r="E137">
             <v>141</v>
           </cell>
@@ -5271,6 +5707,10 @@
           <cell r="G137">
             <v>30</v>
           </cell>
+          <cell r="H137"/>
+          <cell r="I137"/>
+          <cell r="J137"/>
+          <cell r="K137"/>
           <cell r="L137">
             <v>9</v>
           </cell>
@@ -5288,6 +5728,7 @@
           <cell r="C138" t="str">
             <v>Pincer</v>
           </cell>
+          <cell r="D138"/>
           <cell r="E138">
             <v>142</v>
           </cell>
@@ -5297,6 +5738,10 @@
           <cell r="G138">
             <v>30</v>
           </cell>
+          <cell r="H138"/>
+          <cell r="I138"/>
+          <cell r="J138"/>
+          <cell r="K138"/>
           <cell r="L138">
             <v>9</v>
           </cell>
@@ -5314,6 +5759,7 @@
           <cell r="C139" t="str">
             <v>Fin</v>
           </cell>
+          <cell r="D139"/>
           <cell r="E139">
             <v>143</v>
           </cell>
@@ -5323,6 +5769,10 @@
           <cell r="G139">
             <v>30</v>
           </cell>
+          <cell r="H139"/>
+          <cell r="I139"/>
+          <cell r="J139"/>
+          <cell r="K139"/>
           <cell r="L139">
             <v>9</v>
           </cell>
@@ -5340,6 +5790,7 @@
           <cell r="C140" t="str">
             <v>Tentacle</v>
           </cell>
+          <cell r="D140"/>
           <cell r="E140">
             <v>144</v>
           </cell>
@@ -5349,6 +5800,10 @@
           <cell r="G140">
             <v>30</v>
           </cell>
+          <cell r="H140"/>
+          <cell r="I140"/>
+          <cell r="J140"/>
+          <cell r="K140"/>
           <cell r="L140">
             <v>9</v>
           </cell>
@@ -5366,6 +5821,7 @@
           <cell r="C141" t="str">
             <v>W-Pincer</v>
           </cell>
+          <cell r="D141"/>
           <cell r="E141">
             <v>145</v>
           </cell>
@@ -5375,6 +5831,10 @@
           <cell r="G141">
             <v>15</v>
           </cell>
+          <cell r="H141"/>
+          <cell r="I141"/>
+          <cell r="J141"/>
+          <cell r="K141"/>
           <cell r="L141">
             <v>9</v>
           </cell>
@@ -5392,6 +5852,7 @@
           <cell r="C142" t="str">
             <v>W-Attack</v>
           </cell>
+          <cell r="D142"/>
           <cell r="E142">
             <v>146</v>
           </cell>
@@ -5401,6 +5862,10 @@
           <cell r="G142">
             <v>15</v>
           </cell>
+          <cell r="H142"/>
+          <cell r="I142"/>
+          <cell r="J142"/>
+          <cell r="K142"/>
           <cell r="L142">
             <v>9</v>
           </cell>
@@ -5418,6 +5883,7 @@
           <cell r="C143" t="str">
             <v>4-Heads</v>
           </cell>
+          <cell r="D143"/>
           <cell r="E143">
             <v>147</v>
           </cell>
@@ -5427,6 +5893,10 @@
           <cell r="G143">
             <v>15</v>
           </cell>
+          <cell r="H143"/>
+          <cell r="I143"/>
+          <cell r="J143"/>
+          <cell r="K143"/>
           <cell r="L143">
             <v>9</v>
           </cell>
@@ -5444,6 +5914,7 @@
           <cell r="C144" t="str">
             <v>8-Legs</v>
           </cell>
+          <cell r="D144"/>
           <cell r="E144">
             <v>148</v>
           </cell>
@@ -5453,6 +5924,10 @@
           <cell r="G144">
             <v>15</v>
           </cell>
+          <cell r="H144"/>
+          <cell r="I144"/>
+          <cell r="J144"/>
+          <cell r="K144"/>
           <cell r="L144">
             <v>9</v>
           </cell>
@@ -5470,6 +5945,7 @@
           <cell r="C145" t="str">
             <v>Touch</v>
           </cell>
+          <cell r="D145"/>
           <cell r="E145">
             <v>149</v>
           </cell>
@@ -5479,6 +5955,10 @@
           <cell r="G145">
             <v>15</v>
           </cell>
+          <cell r="H145"/>
+          <cell r="I145"/>
+          <cell r="J145"/>
+          <cell r="K145"/>
           <cell r="L145">
             <v>9</v>
           </cell>
@@ -5496,6 +5976,7 @@
           <cell r="C146" t="str">
             <v>Saw</v>
           </cell>
+          <cell r="D146"/>
           <cell r="E146">
             <v>150</v>
           </cell>
@@ -5505,6 +5986,10 @@
           <cell r="G146">
             <v>15</v>
           </cell>
+          <cell r="H146"/>
+          <cell r="I146"/>
+          <cell r="J146"/>
+          <cell r="K146"/>
           <cell r="L146">
             <v>9</v>
           </cell>
@@ -5522,6 +6007,7 @@
           <cell r="C147" t="str">
             <v>Dissolve</v>
           </cell>
+          <cell r="D147"/>
           <cell r="E147">
             <v>151</v>
           </cell>
@@ -5531,6 +6017,10 @@
           <cell r="G147">
             <v>15</v>
           </cell>
+          <cell r="H147"/>
+          <cell r="I147"/>
+          <cell r="J147"/>
+          <cell r="K147"/>
           <cell r="L147">
             <v>9</v>
           </cell>
@@ -5548,6 +6038,7 @@
           <cell r="C148" t="str">
             <v>Absorb</v>
           </cell>
+          <cell r="D148"/>
           <cell r="E148">
             <v>152</v>
           </cell>
@@ -5557,6 +6048,10 @@
           <cell r="G148">
             <v>15</v>
           </cell>
+          <cell r="H148"/>
+          <cell r="I148"/>
+          <cell r="J148"/>
+          <cell r="K148"/>
           <cell r="L148">
             <v>9</v>
           </cell>
@@ -5574,6 +6069,7 @@
           <cell r="C149" t="str">
             <v>Cure</v>
           </cell>
+          <cell r="D149"/>
           <cell r="E149">
             <v>153</v>
           </cell>
@@ -5583,6 +6079,10 @@
           <cell r="G149">
             <v>15</v>
           </cell>
+          <cell r="H149"/>
+          <cell r="I149"/>
+          <cell r="J149"/>
+          <cell r="K149"/>
           <cell r="L149">
             <v>9</v>
           </cell>
@@ -5600,6 +6100,7 @@
           <cell r="C150" t="str">
             <v>Defense</v>
           </cell>
+          <cell r="D150"/>
           <cell r="E150">
             <v>154</v>
           </cell>
@@ -5609,6 +6110,10 @@
           <cell r="G150">
             <v>30</v>
           </cell>
+          <cell r="H150"/>
+          <cell r="I150"/>
+          <cell r="J150"/>
+          <cell r="K150"/>
           <cell r="L150">
             <v>9</v>
           </cell>
@@ -5626,6 +6131,7 @@
           <cell r="C151" t="str">
             <v>Shell</v>
           </cell>
+          <cell r="D151"/>
           <cell r="E151">
             <v>155</v>
           </cell>
@@ -5635,6 +6141,10 @@
           <cell r="G151">
             <v>30</v>
           </cell>
+          <cell r="H151"/>
+          <cell r="I151"/>
+          <cell r="J151"/>
+          <cell r="K151"/>
           <cell r="L151">
             <v>9</v>
           </cell>
@@ -5652,6 +6162,7 @@
           <cell r="C152" t="str">
             <v>Mirror</v>
           </cell>
+          <cell r="D152"/>
           <cell r="E152">
             <v>157</v>
           </cell>
@@ -5661,6 +6172,10 @@
           <cell r="G152">
             <v>15</v>
           </cell>
+          <cell r="H152"/>
+          <cell r="I152"/>
+          <cell r="J152"/>
+          <cell r="K152"/>
           <cell r="L152">
             <v>9</v>
           </cell>
@@ -5678,6 +6193,7 @@
           <cell r="C153" t="str">
             <v>Backlash</v>
           </cell>
+          <cell r="D153"/>
           <cell r="E153">
             <v>158</v>
           </cell>
@@ -5687,6 +6203,10 @@
           <cell r="G153">
             <v>30</v>
           </cell>
+          <cell r="H153"/>
+          <cell r="I153"/>
+          <cell r="J153"/>
+          <cell r="K153"/>
           <cell r="L153">
             <v>9</v>
           </cell>
@@ -5704,6 +6224,7 @@
           <cell r="C154" t="str">
             <v>Burning</v>
           </cell>
+          <cell r="D154"/>
           <cell r="E154">
             <v>159</v>
           </cell>
@@ -5713,6 +6234,10 @@
           <cell r="G154">
             <v>30</v>
           </cell>
+          <cell r="H154"/>
+          <cell r="I154"/>
+          <cell r="J154"/>
+          <cell r="K154"/>
           <cell r="L154">
             <v>9</v>
           </cell>
@@ -5730,6 +6255,7 @@
           <cell r="C155" t="str">
             <v>2-Swords</v>
           </cell>
+          <cell r="D155"/>
           <cell r="E155">
             <v>160</v>
           </cell>
@@ -5739,6 +6265,10 @@
           <cell r="G155">
             <v>15</v>
           </cell>
+          <cell r="H155"/>
+          <cell r="I155"/>
+          <cell r="J155"/>
+          <cell r="K155"/>
           <cell r="L155">
             <v>9</v>
           </cell>
@@ -5756,6 +6286,7 @@
           <cell r="C156" t="str">
             <v>2-Tusks</v>
           </cell>
+          <cell r="D156"/>
           <cell r="E156">
             <v>161</v>
           </cell>
@@ -5765,6 +6296,10 @@
           <cell r="G156">
             <v>15</v>
           </cell>
+          <cell r="H156"/>
+          <cell r="I156"/>
+          <cell r="J156"/>
+          <cell r="K156"/>
           <cell r="L156">
             <v>9</v>
           </cell>
@@ -5782,6 +6317,7 @@
           <cell r="C157" t="str">
             <v>3-Heads</v>
           </cell>
+          <cell r="D157"/>
           <cell r="E157">
             <v>162</v>
           </cell>
@@ -5791,6 +6327,10 @@
           <cell r="G157">
             <v>15</v>
           </cell>
+          <cell r="H157"/>
+          <cell r="I157"/>
+          <cell r="J157"/>
+          <cell r="K157"/>
           <cell r="L157">
             <v>9</v>
           </cell>
@@ -5808,6 +6348,7 @@
           <cell r="C158" t="str">
             <v>3-Horns</v>
           </cell>
+          <cell r="D158"/>
           <cell r="E158">
             <v>163</v>
           </cell>
@@ -5817,6 +6358,10 @@
           <cell r="G158">
             <v>15</v>
           </cell>
+          <cell r="H158"/>
+          <cell r="I158"/>
+          <cell r="J158"/>
+          <cell r="K158"/>
           <cell r="L158">
             <v>9</v>
           </cell>
@@ -5834,6 +6379,7 @@
           <cell r="C159" t="str">
             <v>6-Arms</v>
           </cell>
+          <cell r="D159"/>
           <cell r="E159">
             <v>164</v>
           </cell>
@@ -5843,6 +6389,10 @@
           <cell r="G159">
             <v>15</v>
           </cell>
+          <cell r="H159"/>
+          <cell r="I159"/>
+          <cell r="J159"/>
+          <cell r="K159"/>
           <cell r="L159">
             <v>9</v>
           </cell>
@@ -5860,6 +6410,7 @@
           <cell r="C160" t="str">
             <v>Critical</v>
           </cell>
+          <cell r="D160"/>
           <cell r="E160">
             <v>165</v>
           </cell>
@@ -5869,6 +6420,10 @@
           <cell r="G160">
             <v>10</v>
           </cell>
+          <cell r="H160"/>
+          <cell r="I160"/>
+          <cell r="J160"/>
+          <cell r="K160"/>
           <cell r="L160">
             <v>9</v>
           </cell>
@@ -5886,6 +6441,7 @@
           <cell r="C161" t="str">
             <v>Axe</v>
           </cell>
+          <cell r="D161"/>
           <cell r="E161">
             <v>166</v>
           </cell>
@@ -5895,6 +6451,10 @@
           <cell r="G161">
             <v>20</v>
           </cell>
+          <cell r="H161"/>
+          <cell r="I161"/>
+          <cell r="J161"/>
+          <cell r="K161"/>
           <cell r="L161">
             <v>9</v>
           </cell>
@@ -5912,6 +6472,7 @@
           <cell r="C162" t="str">
             <v>Honey</v>
           </cell>
+          <cell r="D162"/>
           <cell r="E162">
             <v>167</v>
           </cell>
@@ -5921,6 +6482,10 @@
           <cell r="G162">
             <v>10</v>
           </cell>
+          <cell r="H162"/>
+          <cell r="I162"/>
+          <cell r="J162"/>
+          <cell r="K162"/>
           <cell r="L162">
             <v>9</v>
           </cell>
@@ -5938,6 +6503,7 @@
           <cell r="C163" t="str">
             <v>Heal</v>
           </cell>
+          <cell r="D163"/>
           <cell r="E163">
             <v>168</v>
           </cell>
@@ -5947,6 +6513,10 @@
           <cell r="G163">
             <v>10</v>
           </cell>
+          <cell r="H163"/>
+          <cell r="I163"/>
+          <cell r="J163"/>
+          <cell r="K163"/>
           <cell r="L163">
             <v>9</v>
           </cell>
@@ -5976,6 +6546,10 @@
           <cell r="G164">
             <v>3</v>
           </cell>
+          <cell r="H164"/>
+          <cell r="I164"/>
+          <cell r="J164"/>
+          <cell r="K164"/>
           <cell r="L164">
             <v>9</v>
           </cell>
@@ -5993,6 +6567,7 @@
           <cell r="C165" t="str">
             <v>W-Kick</v>
           </cell>
+          <cell r="D165"/>
           <cell r="E165">
             <v>170</v>
           </cell>
@@ -6002,6 +6577,10 @@
           <cell r="G165">
             <v>15</v>
           </cell>
+          <cell r="H165"/>
+          <cell r="I165"/>
+          <cell r="J165"/>
+          <cell r="K165"/>
           <cell r="L165">
             <v>9</v>
           </cell>
@@ -6019,6 +6598,7 @@
           <cell r="C166" t="str">
             <v>ParaNail</v>
           </cell>
+          <cell r="D166"/>
           <cell r="E166">
             <v>171</v>
           </cell>
@@ -6028,6 +6608,10 @@
           <cell r="G166">
             <v>20</v>
           </cell>
+          <cell r="H166"/>
+          <cell r="I166"/>
+          <cell r="J166"/>
+          <cell r="K166"/>
           <cell r="L166">
             <v>9</v>
           </cell>
@@ -6045,6 +6629,7 @@
           <cell r="C167" t="str">
             <v>Wind Up</v>
           </cell>
+          <cell r="D167"/>
           <cell r="E167">
             <v>172</v>
           </cell>
@@ -6054,6 +6639,10 @@
           <cell r="G167">
             <v>20</v>
           </cell>
+          <cell r="H167"/>
+          <cell r="I167"/>
+          <cell r="J167"/>
+          <cell r="K167"/>
           <cell r="L167">
             <v>9</v>
           </cell>
@@ -6071,6 +6660,7 @@
           <cell r="C168" t="str">
             <v>Tie Up</v>
           </cell>
+          <cell r="D168"/>
           <cell r="E168">
             <v>173</v>
           </cell>
@@ -6080,6 +6670,10 @@
           <cell r="G168">
             <v>20</v>
           </cell>
+          <cell r="H168"/>
+          <cell r="I168"/>
+          <cell r="J168"/>
+          <cell r="K168"/>
           <cell r="L168">
             <v>9</v>
           </cell>
@@ -6097,6 +6691,7 @@
           <cell r="C169" t="str">
             <v>Breath</v>
           </cell>
+          <cell r="D169"/>
           <cell r="E169">
             <v>174</v>
           </cell>
@@ -6106,6 +6701,10 @@
           <cell r="G169">
             <v>20</v>
           </cell>
+          <cell r="H169"/>
+          <cell r="I169"/>
+          <cell r="J169"/>
+          <cell r="K169"/>
           <cell r="L169">
             <v>9</v>
           </cell>
@@ -6123,6 +6722,7 @@
           <cell r="C170" t="str">
             <v>Poison</v>
           </cell>
+          <cell r="D170"/>
           <cell r="E170">
             <v>175</v>
           </cell>
@@ -6132,6 +6732,10 @@
           <cell r="G170">
             <v>20</v>
           </cell>
+          <cell r="H170"/>
+          <cell r="I170"/>
+          <cell r="J170"/>
+          <cell r="K170"/>
           <cell r="L170">
             <v>9</v>
           </cell>
@@ -6149,6 +6753,7 @@
           <cell r="C171" t="str">
             <v>P-Skin</v>
           </cell>
+          <cell r="D171"/>
           <cell r="E171">
             <v>177</v>
           </cell>
@@ -6158,6 +6763,10 @@
           <cell r="G171">
             <v>30</v>
           </cell>
+          <cell r="H171"/>
+          <cell r="I171"/>
+          <cell r="J171"/>
+          <cell r="K171"/>
           <cell r="L171">
             <v>9</v>
           </cell>
@@ -6175,6 +6784,7 @@
           <cell r="C172" t="str">
             <v>ParaSkin</v>
           </cell>
+          <cell r="D172"/>
           <cell r="E172">
             <v>178</v>
           </cell>
@@ -6184,6 +6794,10 @@
           <cell r="G172">
             <v>30</v>
           </cell>
+          <cell r="H172"/>
+          <cell r="I172"/>
+          <cell r="J172"/>
+          <cell r="K172"/>
           <cell r="L172">
             <v>9</v>
           </cell>
@@ -6201,6 +6815,7 @@
           <cell r="C173" t="str">
             <v>Petrify</v>
           </cell>
+          <cell r="D173"/>
           <cell r="E173">
             <v>179</v>
           </cell>
@@ -6210,6 +6825,10 @@
           <cell r="G173">
             <v>20</v>
           </cell>
+          <cell r="H173"/>
+          <cell r="I173"/>
+          <cell r="J173"/>
+          <cell r="K173"/>
           <cell r="L173">
             <v>9</v>
           </cell>
@@ -6227,6 +6846,7 @@
           <cell r="C174" t="str">
             <v>StonSkin</v>
           </cell>
+          <cell r="D174"/>
           <cell r="E174">
             <v>180</v>
           </cell>
@@ -6236,6 +6856,10 @@
           <cell r="G174">
             <v>30</v>
           </cell>
+          <cell r="H174"/>
+          <cell r="I174"/>
+          <cell r="J174"/>
+          <cell r="K174"/>
           <cell r="L174">
             <v>9</v>
           </cell>
@@ -6253,6 +6877,7 @@
           <cell r="C175" t="str">
             <v>Thunder</v>
           </cell>
+          <cell r="D175"/>
           <cell r="E175">
             <v>181</v>
           </cell>
@@ -6262,6 +6887,10 @@
           <cell r="G175">
             <v>15</v>
           </cell>
+          <cell r="H175"/>
+          <cell r="I175"/>
+          <cell r="J175"/>
+          <cell r="K175"/>
           <cell r="L175">
             <v>9</v>
           </cell>
@@ -6279,6 +6908,7 @@
           <cell r="C176" t="str">
             <v>Ice</v>
           </cell>
+          <cell r="D176"/>
           <cell r="E176">
             <v>182</v>
           </cell>
@@ -6288,6 +6918,10 @@
           <cell r="G176">
             <v>15</v>
           </cell>
+          <cell r="H176"/>
+          <cell r="I176"/>
+          <cell r="J176"/>
+          <cell r="K176"/>
           <cell r="L176">
             <v>9</v>
           </cell>
@@ -6305,6 +6939,7 @@
           <cell r="C177" t="str">
             <v>Fire</v>
           </cell>
+          <cell r="D177"/>
           <cell r="E177">
             <v>183</v>
           </cell>
@@ -6314,6 +6949,10 @@
           <cell r="G177">
             <v>15</v>
           </cell>
+          <cell r="H177"/>
+          <cell r="I177"/>
+          <cell r="J177"/>
+          <cell r="K177"/>
           <cell r="L177">
             <v>9</v>
           </cell>
@@ -6331,6 +6970,7 @@
           <cell r="C178" t="str">
             <v>Flame</v>
           </cell>
+          <cell r="D178"/>
           <cell r="E178">
             <v>184</v>
           </cell>
@@ -6340,6 +6980,10 @@
           <cell r="G178">
             <v>15</v>
           </cell>
+          <cell r="H178"/>
+          <cell r="I178"/>
+          <cell r="J178"/>
+          <cell r="K178"/>
           <cell r="L178">
             <v>9</v>
           </cell>
@@ -6357,6 +7001,7 @@
           <cell r="C179" t="str">
             <v>Gas</v>
           </cell>
+          <cell r="D179"/>
           <cell r="E179">
             <v>185</v>
           </cell>
@@ -6366,6 +7011,10 @@
           <cell r="G179">
             <v>15</v>
           </cell>
+          <cell r="H179"/>
+          <cell r="I179"/>
+          <cell r="J179"/>
+          <cell r="K179"/>
           <cell r="L179">
             <v>9</v>
           </cell>
@@ -6383,6 +7032,7 @@
           <cell r="C180" t="str">
             <v>Blizzard</v>
           </cell>
+          <cell r="D180"/>
           <cell r="E180">
             <v>186</v>
           </cell>
@@ -6392,6 +7042,10 @@
           <cell r="G180">
             <v>15</v>
           </cell>
+          <cell r="H180"/>
+          <cell r="I180"/>
+          <cell r="J180"/>
+          <cell r="K180"/>
           <cell r="L180">
             <v>9</v>
           </cell>
@@ -6409,6 +7063,7 @@
           <cell r="C181" t="str">
             <v>Lightning</v>
           </cell>
+          <cell r="D181"/>
           <cell r="E181">
             <v>187</v>
           </cell>
@@ -6418,6 +7073,10 @@
           <cell r="G181">
             <v>15</v>
           </cell>
+          <cell r="H181"/>
+          <cell r="I181"/>
+          <cell r="J181"/>
+          <cell r="K181"/>
           <cell r="L181">
             <v>9</v>
           </cell>
@@ -6435,6 +7094,7 @@
           <cell r="C182" t="str">
             <v>Beam</v>
           </cell>
+          <cell r="D182"/>
           <cell r="E182">
             <v>188</v>
           </cell>
@@ -6444,6 +7104,10 @@
           <cell r="G182">
             <v>15</v>
           </cell>
+          <cell r="H182"/>
+          <cell r="I182"/>
+          <cell r="J182"/>
+          <cell r="K182"/>
           <cell r="L182">
             <v>9</v>
           </cell>
@@ -6461,6 +7125,7 @@
           <cell r="C183" t="str">
             <v>P-Blast</v>
           </cell>
+          <cell r="D183"/>
           <cell r="E183">
             <v>189</v>
           </cell>
@@ -6470,6 +7135,10 @@
           <cell r="G183">
             <v>15</v>
           </cell>
+          <cell r="H183"/>
+          <cell r="I183"/>
+          <cell r="J183"/>
+          <cell r="K183"/>
           <cell r="L183">
             <v>9</v>
           </cell>
@@ -6487,6 +7156,7 @@
           <cell r="C184" t="str">
             <v>Dispel</v>
           </cell>
+          <cell r="D184"/>
           <cell r="E184">
             <v>190</v>
           </cell>
@@ -6496,6 +7166,10 @@
           <cell r="G184">
             <v>15</v>
           </cell>
+          <cell r="H184"/>
+          <cell r="I184"/>
+          <cell r="J184"/>
+          <cell r="K184"/>
           <cell r="L184">
             <v>9</v>
           </cell>
@@ -6513,6 +7187,7 @@
           <cell r="C185" t="str">
             <v>D-Beam</v>
           </cell>
+          <cell r="D185"/>
           <cell r="E185">
             <v>191</v>
           </cell>
@@ -6522,6 +7197,10 @@
           <cell r="G185">
             <v>15</v>
           </cell>
+          <cell r="H185"/>
+          <cell r="I185"/>
+          <cell r="J185"/>
+          <cell r="K185"/>
           <cell r="L185">
             <v>9</v>
           </cell>
@@ -6539,6 +7218,7 @@
           <cell r="C186" t="str">
             <v>Squirt</v>
           </cell>
+          <cell r="D186"/>
           <cell r="E186">
             <v>192</v>
           </cell>
@@ -6548,6 +7228,10 @@
           <cell r="G186">
             <v>15</v>
           </cell>
+          <cell r="H186"/>
+          <cell r="I186"/>
+          <cell r="J186"/>
+          <cell r="K186"/>
           <cell r="L186">
             <v>9</v>
           </cell>
@@ -6565,6 +7249,7 @@
           <cell r="C187" t="str">
             <v>SunBurst</v>
           </cell>
+          <cell r="D187"/>
           <cell r="E187">
             <v>193</v>
           </cell>
@@ -6574,6 +7259,10 @@
           <cell r="G187">
             <v>15</v>
           </cell>
+          <cell r="H187"/>
+          <cell r="I187"/>
+          <cell r="J187"/>
+          <cell r="K187"/>
           <cell r="L187">
             <v>9</v>
           </cell>
@@ -6591,6 +7280,7 @@
           <cell r="C188" t="str">
             <v>SleepGas</v>
           </cell>
+          <cell r="D188"/>
           <cell r="E188">
             <v>194</v>
           </cell>
@@ -6600,6 +7290,10 @@
           <cell r="G188">
             <v>15</v>
           </cell>
+          <cell r="H188"/>
+          <cell r="I188"/>
+          <cell r="J188"/>
+          <cell r="K188"/>
           <cell r="L188">
             <v>9</v>
           </cell>
@@ -6617,6 +7311,7 @@
           <cell r="C189" t="str">
             <v>Sleep</v>
           </cell>
+          <cell r="D189"/>
           <cell r="E189">
             <v>195</v>
           </cell>
@@ -6626,6 +7321,10 @@
           <cell r="G189">
             <v>15</v>
           </cell>
+          <cell r="H189"/>
+          <cell r="I189"/>
+          <cell r="J189"/>
+          <cell r="K189"/>
           <cell r="L189">
             <v>9</v>
           </cell>
@@ -6643,6 +7342,7 @@
           <cell r="C190" t="str">
             <v>StonGaze</v>
           </cell>
+          <cell r="D190"/>
           <cell r="E190">
             <v>196</v>
           </cell>
@@ -6652,6 +7352,10 @@
           <cell r="G190">
             <v>15</v>
           </cell>
+          <cell r="H190"/>
+          <cell r="I190"/>
+          <cell r="J190"/>
+          <cell r="K190"/>
           <cell r="L190">
             <v>9</v>
           </cell>
@@ -6669,6 +7373,7 @@
           <cell r="C191" t="str">
             <v>Stone</v>
           </cell>
+          <cell r="D191"/>
           <cell r="E191">
             <v>197</v>
           </cell>
@@ -6678,6 +7383,10 @@
           <cell r="G191">
             <v>15</v>
           </cell>
+          <cell r="H191"/>
+          <cell r="I191"/>
+          <cell r="J191"/>
+          <cell r="K191"/>
           <cell r="L191">
             <v>9</v>
           </cell>
@@ -6695,6 +7404,7 @@
           <cell r="C192" t="str">
             <v>StoneGas</v>
           </cell>
+          <cell r="D192"/>
           <cell r="E192">
             <v>198</v>
           </cell>
@@ -6704,6 +7414,10 @@
           <cell r="G192">
             <v>15</v>
           </cell>
+          <cell r="H192"/>
+          <cell r="I192"/>
+          <cell r="J192"/>
+          <cell r="K192"/>
           <cell r="L192">
             <v>9</v>
           </cell>
@@ -6721,6 +7435,7 @@
           <cell r="C193" t="str">
             <v>FatalGas</v>
           </cell>
+          <cell r="D193"/>
           <cell r="E193">
             <v>199</v>
           </cell>
@@ -6730,6 +7445,10 @@
           <cell r="G193">
             <v>15</v>
           </cell>
+          <cell r="H193"/>
+          <cell r="I193"/>
+          <cell r="J193"/>
+          <cell r="K193"/>
           <cell r="L193">
             <v>9</v>
           </cell>
@@ -6747,6 +7466,7 @@
           <cell r="C194" t="str">
             <v>DeathGaze</v>
           </cell>
+          <cell r="D194"/>
           <cell r="E194">
             <v>200</v>
           </cell>
@@ -6756,6 +7476,10 @@
           <cell r="G194">
             <v>15</v>
           </cell>
+          <cell r="H194"/>
+          <cell r="I194"/>
+          <cell r="J194"/>
+          <cell r="K194"/>
           <cell r="L194">
             <v>9</v>
           </cell>
@@ -6773,6 +7497,7 @@
           <cell r="C195" t="str">
             <v>Erase</v>
           </cell>
+          <cell r="D195"/>
           <cell r="E195">
             <v>201</v>
           </cell>
@@ -6782,6 +7507,10 @@
           <cell r="G195">
             <v>15</v>
           </cell>
+          <cell r="H195"/>
+          <cell r="I195"/>
+          <cell r="J195"/>
+          <cell r="K195"/>
           <cell r="L195">
             <v>9</v>
           </cell>
@@ -6799,6 +7528,7 @@
           <cell r="C196" t="str">
             <v>Blind</v>
           </cell>
+          <cell r="D196"/>
           <cell r="E196">
             <v>202</v>
           </cell>
@@ -6808,6 +7538,10 @@
           <cell r="G196">
             <v>15</v>
           </cell>
+          <cell r="H196"/>
+          <cell r="I196"/>
+          <cell r="J196"/>
+          <cell r="K196"/>
           <cell r="L196">
             <v>9</v>
           </cell>
@@ -6825,6 +7559,7 @@
           <cell r="C197" t="str">
             <v>Flash</v>
           </cell>
+          <cell r="D197"/>
           <cell r="E197">
             <v>203</v>
           </cell>
@@ -6834,6 +7569,10 @@
           <cell r="G197">
             <v>15</v>
           </cell>
+          <cell r="H197"/>
+          <cell r="I197"/>
+          <cell r="J197"/>
+          <cell r="K197"/>
           <cell r="L197">
             <v>9</v>
           </cell>
@@ -6851,6 +7590,7 @@
           <cell r="C198" t="str">
             <v>Ink</v>
           </cell>
+          <cell r="D198"/>
           <cell r="E198">
             <v>204</v>
           </cell>
@@ -6860,6 +7600,10 @@
           <cell r="G198">
             <v>15</v>
           </cell>
+          <cell r="H198"/>
+          <cell r="I198"/>
+          <cell r="J198"/>
+          <cell r="K198"/>
           <cell r="L198">
             <v>9</v>
           </cell>
@@ -6877,6 +7621,7 @@
           <cell r="C199" t="str">
             <v>PoisonCloud</v>
           </cell>
+          <cell r="D199"/>
           <cell r="E199">
             <v>205</v>
           </cell>
@@ -6886,6 +7631,10 @@
           <cell r="G199">
             <v>15</v>
           </cell>
+          <cell r="H199"/>
+          <cell r="I199"/>
+          <cell r="J199"/>
+          <cell r="K199"/>
           <cell r="L199">
             <v>9</v>
           </cell>
@@ -6903,6 +7652,7 @@
           <cell r="C200" t="str">
             <v>EvilEye</v>
           </cell>
+          <cell r="D200"/>
           <cell r="E200">
             <v>206</v>
           </cell>
@@ -6912,6 +7662,10 @@
           <cell r="G200">
             <v>15</v>
           </cell>
+          <cell r="H200"/>
+          <cell r="I200"/>
+          <cell r="J200"/>
+          <cell r="K200"/>
           <cell r="L200">
             <v>9</v>
           </cell>
@@ -6929,6 +7683,7 @@
           <cell r="C201" t="str">
             <v>Stunner</v>
           </cell>
+          <cell r="D201"/>
           <cell r="E201">
             <v>207</v>
           </cell>
@@ -6938,6 +7693,10 @@
           <cell r="G201">
             <v>15</v>
           </cell>
+          <cell r="H201"/>
+          <cell r="I201"/>
+          <cell r="J201"/>
+          <cell r="K201"/>
           <cell r="L201">
             <v>9</v>
           </cell>
@@ -6955,6 +7714,7 @@
           <cell r="C202" t="str">
             <v>Gaze</v>
           </cell>
+          <cell r="D202"/>
           <cell r="E202">
             <v>208</v>
           </cell>
@@ -6964,6 +7724,10 @@
           <cell r="G202">
             <v>15</v>
           </cell>
+          <cell r="H202"/>
+          <cell r="I202"/>
+          <cell r="J202"/>
+          <cell r="K202"/>
           <cell r="L202">
             <v>9</v>
           </cell>
@@ -6981,6 +7745,7 @@
           <cell r="C203" t="str">
             <v>Charm</v>
           </cell>
+          <cell r="D203"/>
           <cell r="E203">
             <v>209</v>
           </cell>
@@ -6990,6 +7755,10 @@
           <cell r="G203">
             <v>15</v>
           </cell>
+          <cell r="H203"/>
+          <cell r="I203"/>
+          <cell r="J203"/>
+          <cell r="K203"/>
           <cell r="L203">
             <v>9</v>
           </cell>
@@ -7007,6 +7776,7 @@
           <cell r="C204" t="str">
             <v>Hypnos</v>
           </cell>
+          <cell r="D204"/>
           <cell r="E204">
             <v>210</v>
           </cell>
@@ -7016,6 +7786,10 @@
           <cell r="G204">
             <v>15</v>
           </cell>
+          <cell r="H204"/>
+          <cell r="I204"/>
+          <cell r="J204"/>
+          <cell r="K204"/>
           <cell r="L204">
             <v>9</v>
           </cell>
@@ -7033,6 +7807,7 @@
           <cell r="C205" t="str">
             <v>Sand</v>
           </cell>
+          <cell r="D205"/>
           <cell r="E205">
             <v>211</v>
           </cell>
@@ -7042,6 +7817,10 @@
           <cell r="G205">
             <v>15</v>
           </cell>
+          <cell r="H205"/>
+          <cell r="I205"/>
+          <cell r="J205"/>
+          <cell r="K205"/>
           <cell r="L205">
             <v>9</v>
           </cell>
@@ -7059,6 +7838,7 @@
           <cell r="C206" t="str">
             <v>Cobweb</v>
           </cell>
+          <cell r="D206"/>
           <cell r="E206">
             <v>212</v>
           </cell>
@@ -7068,6 +7848,10 @@
           <cell r="G206">
             <v>15</v>
           </cell>
+          <cell r="H206"/>
+          <cell r="I206"/>
+          <cell r="J206"/>
+          <cell r="K206"/>
           <cell r="L206">
             <v>9</v>
           </cell>
@@ -7085,6 +7869,7 @@
           <cell r="C207" t="str">
             <v>Blitz</v>
           </cell>
+          <cell r="D207"/>
           <cell r="E207">
             <v>213</v>
           </cell>
@@ -7094,6 +7879,10 @@
           <cell r="G207">
             <v>15</v>
           </cell>
+          <cell r="H207"/>
+          <cell r="I207"/>
+          <cell r="J207"/>
+          <cell r="K207"/>
           <cell r="L207">
             <v>9</v>
           </cell>
@@ -7111,6 +7900,7 @@
           <cell r="C208" t="str">
             <v>Drain</v>
           </cell>
+          <cell r="D208"/>
           <cell r="E208">
             <v>214</v>
           </cell>
@@ -7120,6 +7910,10 @@
           <cell r="G208">
             <v>15</v>
           </cell>
+          <cell r="H208"/>
+          <cell r="I208"/>
+          <cell r="J208"/>
+          <cell r="K208"/>
           <cell r="L208">
             <v>9</v>
           </cell>
@@ -7137,6 +7931,7 @@
           <cell r="C209" t="str">
             <v>Stench</v>
           </cell>
+          <cell r="D209"/>
           <cell r="E209">
             <v>215</v>
           </cell>
@@ -7146,6 +7941,10 @@
           <cell r="G209">
             <v>15</v>
           </cell>
+          <cell r="H209"/>
+          <cell r="I209"/>
+          <cell r="J209"/>
+          <cell r="K209"/>
           <cell r="L209">
             <v>9</v>
           </cell>
@@ -7163,6 +7962,7 @@
           <cell r="C210" t="str">
             <v>Haste</v>
           </cell>
+          <cell r="D210"/>
           <cell r="E210">
             <v>216</v>
           </cell>
@@ -7172,6 +7972,10 @@
           <cell r="G210">
             <v>15</v>
           </cell>
+          <cell r="H210"/>
+          <cell r="I210"/>
+          <cell r="J210"/>
+          <cell r="K210"/>
           <cell r="L210">
             <v>9</v>
           </cell>
@@ -7189,6 +7993,7 @@
           <cell r="C211" t="str">
             <v>Tornado</v>
           </cell>
+          <cell r="D211"/>
           <cell r="E211">
             <v>217</v>
           </cell>
@@ -7198,6 +8003,10 @@
           <cell r="G211">
             <v>5</v>
           </cell>
+          <cell r="H211"/>
+          <cell r="I211"/>
+          <cell r="J211"/>
+          <cell r="K211"/>
           <cell r="L211">
             <v>9</v>
           </cell>
@@ -7215,6 +8024,7 @@
           <cell r="C212" t="str">
             <v>Quake</v>
           </cell>
+          <cell r="D212"/>
           <cell r="E212">
             <v>218</v>
           </cell>
@@ -7224,6 +8034,10 @@
           <cell r="G212">
             <v>5</v>
           </cell>
+          <cell r="H212"/>
+          <cell r="I212"/>
+          <cell r="J212"/>
+          <cell r="K212"/>
           <cell r="L212">
             <v>9</v>
           </cell>
@@ -7241,6 +8055,7 @@
           <cell r="C213" t="str">
             <v>Whirl</v>
           </cell>
+          <cell r="D213"/>
           <cell r="E213">
             <v>219</v>
           </cell>
@@ -7250,6 +8065,10 @@
           <cell r="G213">
             <v>5</v>
           </cell>
+          <cell r="H213"/>
+          <cell r="I213"/>
+          <cell r="J213"/>
+          <cell r="K213"/>
           <cell r="L213">
             <v>9</v>
           </cell>
@@ -7267,6 +8086,7 @@
           <cell r="C214" t="str">
             <v>Flare</v>
           </cell>
+          <cell r="D214"/>
           <cell r="E214">
             <v>220</v>
           </cell>
@@ -7276,6 +8096,10 @@
           <cell r="G214">
             <v>5</v>
           </cell>
+          <cell r="H214"/>
+          <cell r="I214"/>
+          <cell r="J214"/>
+          <cell r="K214"/>
           <cell r="L214">
             <v>9</v>
           </cell>
@@ -7293,6 +8117,7 @@
           <cell r="C215" t="str">
             <v>Steal</v>
           </cell>
+          <cell r="D215"/>
           <cell r="E215">
             <v>221</v>
           </cell>
@@ -7302,6 +8127,10 @@
           <cell r="G215">
             <v>10</v>
           </cell>
+          <cell r="H215"/>
+          <cell r="I215"/>
+          <cell r="J215"/>
+          <cell r="K215"/>
           <cell r="L215">
             <v>9</v>
           </cell>
@@ -7319,6 +8148,7 @@
           <cell r="C216" t="str">
             <v>Explode</v>
           </cell>
+          <cell r="D216"/>
           <cell r="E216">
             <v>222</v>
           </cell>
@@ -7328,6 +8158,10 @@
           <cell r="G216">
             <v>1</v>
           </cell>
+          <cell r="H216"/>
+          <cell r="I216"/>
+          <cell r="J216"/>
+          <cell r="K216"/>
           <cell r="L216">
             <v>9</v>
           </cell>
@@ -7345,6 +8179,7 @@
           <cell r="C217" t="str">
             <v>Acid</v>
           </cell>
+          <cell r="D217"/>
           <cell r="E217">
             <v>223</v>
           </cell>
@@ -7354,6 +8189,10 @@
           <cell r="G217">
             <v>5</v>
           </cell>
+          <cell r="H217"/>
+          <cell r="I217"/>
+          <cell r="J217"/>
+          <cell r="K217"/>
           <cell r="L217">
             <v>9</v>
           </cell>
@@ -7371,6 +8210,7 @@
           <cell r="C218" t="str">
             <v>Riddle</v>
           </cell>
+          <cell r="D218"/>
           <cell r="E218">
             <v>224</v>
           </cell>
@@ -7380,6 +8220,10 @@
           <cell r="G218">
             <v>5</v>
           </cell>
+          <cell r="H218"/>
+          <cell r="I218"/>
+          <cell r="J218"/>
+          <cell r="K218"/>
           <cell r="L218">
             <v>9</v>
           </cell>
@@ -7397,6 +8241,7 @@
           <cell r="C219" t="str">
             <v>CursSong</v>
           </cell>
+          <cell r="D219"/>
           <cell r="E219">
             <v>225</v>
           </cell>
@@ -7406,6 +8251,10 @@
           <cell r="G219">
             <v>5</v>
           </cell>
+          <cell r="H219"/>
+          <cell r="I219"/>
+          <cell r="J219"/>
+          <cell r="K219"/>
           <cell r="L219">
             <v>9</v>
           </cell>
@@ -7423,6 +8272,7 @@
           <cell r="C220" t="str">
             <v>MadSong</v>
           </cell>
+          <cell r="D220"/>
           <cell r="E220">
             <v>226</v>
           </cell>
@@ -7432,6 +8282,10 @@
           <cell r="G220">
             <v>5</v>
           </cell>
+          <cell r="H220"/>
+          <cell r="I220"/>
+          <cell r="J220"/>
+          <cell r="K220"/>
           <cell r="L220">
             <v>9</v>
           </cell>
@@ -7449,6 +8303,7 @@
           <cell r="C221" t="str">
             <v>Surprise</v>
           </cell>
+          <cell r="D221"/>
           <cell r="E221">
             <v>227</v>
           </cell>
@@ -7458,6 +8313,10 @@
           <cell r="G221">
             <v>-2</v>
           </cell>
+          <cell r="H221"/>
+          <cell r="I221"/>
+          <cell r="J221"/>
+          <cell r="K221"/>
           <cell r="L221">
             <v>9</v>
           </cell>
@@ -7475,6 +8334,7 @@
           <cell r="C222" t="str">
             <v>Warning</v>
           </cell>
+          <cell r="D222"/>
           <cell r="E222">
             <v>228</v>
           </cell>
@@ -7484,6 +8344,10 @@
           <cell r="G222">
             <v>-2</v>
           </cell>
+          <cell r="H222"/>
+          <cell r="I222"/>
+          <cell r="J222"/>
+          <cell r="K222"/>
           <cell r="L222">
             <v>9</v>
           </cell>
@@ -7501,6 +8365,7 @@
           <cell r="C223" t="str">
             <v>Multiply</v>
           </cell>
+          <cell r="D223"/>
           <cell r="E223">
             <v>229</v>
           </cell>
@@ -7510,6 +8375,10 @@
           <cell r="G223">
             <v>-2</v>
           </cell>
+          <cell r="H223"/>
+          <cell r="I223"/>
+          <cell r="J223"/>
+          <cell r="K223"/>
           <cell r="L223">
             <v>9</v>
           </cell>
@@ -7539,6 +8408,10 @@
           <cell r="G224">
             <v>-2</v>
           </cell>
+          <cell r="H224"/>
+          <cell r="I224"/>
+          <cell r="J224"/>
+          <cell r="K224"/>
           <cell r="L224">
             <v>9</v>
           </cell>
@@ -7568,6 +8441,10 @@
           <cell r="G225">
             <v>-2</v>
           </cell>
+          <cell r="H225"/>
+          <cell r="I225"/>
+          <cell r="J225"/>
+          <cell r="K225"/>
           <cell r="L225">
             <v>9</v>
           </cell>
@@ -7597,6 +8474,10 @@
           <cell r="G226">
             <v>-2</v>
           </cell>
+          <cell r="H226"/>
+          <cell r="I226"/>
+          <cell r="J226"/>
+          <cell r="K226"/>
           <cell r="L226">
             <v>9</v>
           </cell>
@@ -7626,6 +8507,10 @@
           <cell r="G227">
             <v>-2</v>
           </cell>
+          <cell r="H227"/>
+          <cell r="I227"/>
+          <cell r="J227"/>
+          <cell r="K227"/>
           <cell r="L227">
             <v>9</v>
           </cell>
@@ -7655,6 +8540,10 @@
           <cell r="G228">
             <v>-2</v>
           </cell>
+          <cell r="H228"/>
+          <cell r="I228"/>
+          <cell r="J228"/>
+          <cell r="K228"/>
           <cell r="L228">
             <v>9</v>
           </cell>
@@ -7684,6 +8573,10 @@
           <cell r="G229">
             <v>-2</v>
           </cell>
+          <cell r="H229"/>
+          <cell r="I229"/>
+          <cell r="J229"/>
+          <cell r="K229"/>
           <cell r="L229">
             <v>9</v>
           </cell>
@@ -7713,6 +8606,10 @@
           <cell r="G230">
             <v>-2</v>
           </cell>
+          <cell r="H230"/>
+          <cell r="I230"/>
+          <cell r="J230"/>
+          <cell r="K230"/>
           <cell r="L230">
             <v>9</v>
           </cell>
@@ -7742,6 +8639,10 @@
           <cell r="G231">
             <v>-2</v>
           </cell>
+          <cell r="H231"/>
+          <cell r="I231"/>
+          <cell r="J231"/>
+          <cell r="K231"/>
           <cell r="L231">
             <v>9</v>
           </cell>
@@ -7771,6 +8672,10 @@
           <cell r="G232">
             <v>-2</v>
           </cell>
+          <cell r="H232"/>
+          <cell r="I232"/>
+          <cell r="J232"/>
+          <cell r="K232"/>
           <cell r="L232">
             <v>9</v>
           </cell>
@@ -7800,6 +8705,10 @@
           <cell r="G233">
             <v>-2</v>
           </cell>
+          <cell r="H233"/>
+          <cell r="I233"/>
+          <cell r="J233"/>
+          <cell r="K233"/>
           <cell r="L233">
             <v>9</v>
           </cell>
@@ -7829,6 +8738,10 @@
           <cell r="G234">
             <v>-2</v>
           </cell>
+          <cell r="H234"/>
+          <cell r="I234"/>
+          <cell r="J234"/>
+          <cell r="K234"/>
           <cell r="L234">
             <v>9</v>
           </cell>
@@ -7858,6 +8771,10 @@
           <cell r="G235">
             <v>-2</v>
           </cell>
+          <cell r="H235"/>
+          <cell r="I235"/>
+          <cell r="J235"/>
+          <cell r="K235"/>
           <cell r="L235">
             <v>9</v>
           </cell>
@@ -7887,6 +8804,10 @@
           <cell r="G236">
             <v>-2</v>
           </cell>
+          <cell r="H236"/>
+          <cell r="I236"/>
+          <cell r="J236"/>
+          <cell r="K236"/>
           <cell r="L236">
             <v>9</v>
           </cell>
@@ -7904,6 +8825,7 @@
           <cell r="C237" t="str">
             <v>Teleport</v>
           </cell>
+          <cell r="D237"/>
           <cell r="E237">
             <v>243</v>
           </cell>
@@ -7913,6 +8835,10 @@
           <cell r="G237">
             <v>30</v>
           </cell>
+          <cell r="H237"/>
+          <cell r="I237"/>
+          <cell r="J237"/>
+          <cell r="K237"/>
           <cell r="L237">
             <v>9</v>
           </cell>
@@ -7930,6 +8856,7 @@
           <cell r="C238" t="str">
             <v>Remedy</v>
           </cell>
+          <cell r="D238"/>
           <cell r="E238">
             <v>244</v>
           </cell>
@@ -7939,6 +8866,10 @@
           <cell r="G238">
             <v>30</v>
           </cell>
+          <cell r="H238"/>
+          <cell r="I238"/>
+          <cell r="J238"/>
+          <cell r="K238"/>
           <cell r="L238">
             <v>9</v>
           </cell>
@@ -7968,6 +8899,10 @@
           <cell r="G239">
             <v>-2</v>
           </cell>
+          <cell r="H239"/>
+          <cell r="I239"/>
+          <cell r="J239"/>
+          <cell r="K239"/>
           <cell r="L239">
             <v>9</v>
           </cell>
@@ -7985,6 +8920,7 @@
           <cell r="C240" t="str">
             <v>PoisonBurst</v>
           </cell>
+          <cell r="D240"/>
           <cell r="E240">
             <v>246</v>
           </cell>
@@ -7994,6 +8930,10 @@
           <cell r="G240">
             <v>30</v>
           </cell>
+          <cell r="H240"/>
+          <cell r="I240"/>
+          <cell r="J240"/>
+          <cell r="K240"/>
           <cell r="L240">
             <v>9</v>
           </cell>
@@ -8023,6 +8963,10 @@
           <cell r="G241">
             <v>-2</v>
           </cell>
+          <cell r="H241"/>
+          <cell r="I241"/>
+          <cell r="J241"/>
+          <cell r="K241"/>
           <cell r="L241">
             <v>9</v>
           </cell>
@@ -8040,6 +8984,7 @@
           <cell r="C242" t="str">
             <v>Smasher</v>
           </cell>
+          <cell r="D242"/>
           <cell r="E242">
             <v>253</v>
           </cell>
@@ -8049,6 +8994,10 @@
           <cell r="G242">
             <v>30</v>
           </cell>
+          <cell r="H242"/>
+          <cell r="I242"/>
+          <cell r="J242"/>
+          <cell r="K242"/>
           <cell r="L242">
             <v>9</v>
           </cell>
@@ -8066,6 +9015,7 @@
           <cell r="C243" t="str">
             <v>Recover</v>
           </cell>
+          <cell r="D243"/>
           <cell r="E243">
             <v>254</v>
           </cell>
@@ -8075,6 +9025,10 @@
           <cell r="G243">
             <v>-2</v>
           </cell>
+          <cell r="H243"/>
+          <cell r="I243"/>
+          <cell r="J243"/>
+          <cell r="K243"/>
           <cell r="L243">
             <v>9</v>
           </cell>
@@ -8104,6 +9058,10 @@
           <cell r="G244">
             <v>-2</v>
           </cell>
+          <cell r="H244"/>
+          <cell r="I244"/>
+          <cell r="J244"/>
+          <cell r="K244"/>
           <cell r="L244">
             <v>0</v>
           </cell>
@@ -8133,6 +9091,10 @@
           <cell r="G245">
             <v>-2</v>
           </cell>
+          <cell r="H245"/>
+          <cell r="I245"/>
+          <cell r="J245"/>
+          <cell r="K245"/>
           <cell r="L245">
             <v>0</v>
           </cell>
@@ -8162,6 +9124,10 @@
           <cell r="G246">
             <v>-2</v>
           </cell>
+          <cell r="H246"/>
+          <cell r="I246"/>
+          <cell r="J246"/>
+          <cell r="K246"/>
           <cell r="L246">
             <v>0</v>
           </cell>
@@ -8191,6 +9157,10 @@
           <cell r="G247">
             <v>-2</v>
           </cell>
+          <cell r="H247"/>
+          <cell r="I247"/>
+          <cell r="J247"/>
+          <cell r="K247"/>
           <cell r="L247">
             <v>0</v>
           </cell>
@@ -8220,6 +9190,10 @@
           <cell r="G248">
             <v>-2</v>
           </cell>
+          <cell r="H248"/>
+          <cell r="I248"/>
+          <cell r="J248"/>
+          <cell r="K248"/>
           <cell r="L248">
             <v>0</v>
           </cell>
@@ -8249,6 +9223,10 @@
           <cell r="G249">
             <v>-2</v>
           </cell>
+          <cell r="H249"/>
+          <cell r="I249"/>
+          <cell r="J249"/>
+          <cell r="K249"/>
           <cell r="L249">
             <v>0</v>
           </cell>
@@ -8278,6 +9256,10 @@
           <cell r="G250">
             <v>-2</v>
           </cell>
+          <cell r="H250"/>
+          <cell r="I250"/>
+          <cell r="J250"/>
+          <cell r="K250"/>
           <cell r="L250">
             <v>0</v>
           </cell>
@@ -8307,6 +9289,10 @@
           <cell r="G251">
             <v>-2</v>
           </cell>
+          <cell r="H251"/>
+          <cell r="I251"/>
+          <cell r="J251"/>
+          <cell r="K251"/>
           <cell r="L251">
             <v>0</v>
           </cell>
@@ -8339,6 +9325,9 @@
           <cell r="H252">
             <v>26000</v>
           </cell>
+          <cell r="I252"/>
+          <cell r="J252"/>
+          <cell r="K252"/>
           <cell r="L252">
             <v>99</v>
           </cell>
@@ -8371,6 +9360,9 @@
           <cell r="H253">
             <v>50</v>
           </cell>
+          <cell r="I253"/>
+          <cell r="J253"/>
+          <cell r="K253"/>
           <cell r="L253">
             <v>9</v>
           </cell>
@@ -8403,6 +9395,9 @@
           <cell r="H254">
             <v>50000</v>
           </cell>
+          <cell r="I254"/>
+          <cell r="J254"/>
+          <cell r="K254"/>
           <cell r="L254">
             <v>144</v>
           </cell>
@@ -8435,6 +9430,9 @@
           <cell r="H255">
             <v>6800</v>
           </cell>
+          <cell r="I255"/>
+          <cell r="J255"/>
+          <cell r="K255"/>
           <cell r="L255">
             <v>45</v>
           </cell>
@@ -8467,6 +9465,9 @@
           <cell r="H256">
             <v>50</v>
           </cell>
+          <cell r="I256"/>
+          <cell r="J256"/>
+          <cell r="K256"/>
           <cell r="L256">
             <v>9</v>
           </cell>
@@ -8499,6 +9500,9 @@
           <cell r="H257">
             <v>3200</v>
           </cell>
+          <cell r="I257"/>
+          <cell r="J257"/>
+          <cell r="K257"/>
           <cell r="L257">
             <v>36</v>
           </cell>
@@ -8615,23 +9619,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8667,23 +9654,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8859,14 +9829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8885,29 +9855,29 @@
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="6"/>
     <col min="14" max="14" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="31" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="31" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="31" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" style="31" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="31" customWidth="1"/>
-    <col min="24" max="24" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" style="31" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="10"/>
-    <col min="27" max="27" width="7.7109375" style="31" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="10"/>
-    <col min="29" max="29" width="7.7109375" style="31" customWidth="1"/>
-    <col min="30" max="30" width="20.28515625" style="10" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" style="31" customWidth="1"/>
-    <col min="32" max="32" width="20.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="23.42578125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="16" width="7.7109375" style="31" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.7109375" style="31" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.7109375" style="31" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.7109375" style="31" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.7109375" style="31" customWidth="1"/>
+    <col min="29" max="29" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.7109375" style="31" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="10"/>
+    <col min="33" max="34" width="7.7109375" style="31" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="10"/>
+    <col min="36" max="37" width="7.7109375" style="31" customWidth="1"/>
+    <col min="38" max="38" width="20.28515625" style="10" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" style="31" customWidth="1"/>
+    <col min="40" max="40" width="20.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="23.42578125" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
@@ -8953,62 +9923,86 @@
       <c r="O1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="S1" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="V1" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="Y1" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="AB1" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AD1" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="AE1" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AG1" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AH1" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AK1" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL1" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AM1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AF1" s="46" t="s">
+      <c r="AN1" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="48" t="s">
+      <c r="AO1" s="48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A16" si="0">B2</f>
         <v>HUME</v>
@@ -9033,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="6">
-        <f>H2+_xlfn.IFNA(VLOOKUP(N2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB2,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H2+_xlfn.IFNA(VLOOKUP(N2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF2,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI2,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="J2" s="10">
@@ -9053,22 +10047,60 @@
       <c r="N2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="31">
+        <v>50</v>
+      </c>
+      <c r="P2" s="31">
+        <f>VLOOKUP(N2,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="31">
+        <f>VLOOKUP(Q2,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="41"/>
-      <c r="AF2" s="7" t="s">
+      <c r="U2" s="31">
+        <v>30</v>
+      </c>
+      <c r="V2" s="31">
+        <f>VLOOKUP(T2,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="W2" s="20"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="31" t="e">
+        <f>VLOOKUP(W2,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB2" s="31" t="e">
+        <f>VLOOKUP(Z2,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE2" s="31" t="e">
+        <f>VLOOKUP(AC2,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH2" s="31" t="e">
+        <f>VLOOKUP(AF2,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK2" s="31" t="e">
+        <f>VLOOKUP(AI2,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MUTE</v>
@@ -9093,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>H3+_xlfn.IFNA(VLOOKUP(N3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB3,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H3+_xlfn.IFNA(VLOOKUP(N3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF3,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI3,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>13</v>
       </c>
       <c r="J3" s="10">
@@ -9113,31 +10145,63 @@
       <c r="N3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="31">
+        <f>VLOOKUP(N3,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="V3" s="10" t="s">
+      <c r="R3" s="38"/>
+      <c r="S3" s="31">
+        <f>VLOOKUP(Q3,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="V3" s="31" t="e">
+        <f>VLOOKUP(T3,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y3" s="31" t="e">
+        <f>VLOOKUP(W3,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="AB3" s="31">
+        <f>VLOOKUP(Z3,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AE3" s="31">
+        <f>VLOOKUP(AC3,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AF3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="20" t="s">
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="31">
+        <f>VLOOKUP(AF3,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="AI3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="15" t="s">
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="31">
+        <f>VLOOKUP(AI3,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="AL3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="7"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MONS</v>
@@ -9162,7 +10226,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="6">
-        <f>H4+_xlfn.IFNA(VLOOKUP(N4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB4,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H4+_xlfn.IFNA(VLOOKUP(N4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF4,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI4,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>5</v>
       </c>
       <c r="J4" s="10">
@@ -9182,15 +10246,50 @@
       <c r="N4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="O4" s="31">
+        <v>30</v>
+      </c>
+      <c r="P4" s="31">
+        <f>VLOOKUP(N4,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="S4" s="31">
+        <f>VLOOKUP(Q4,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="T4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="31">
+        <f>VLOOKUP(T4,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Y4" s="31" t="e">
+        <f>VLOOKUP(W4,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB4" s="31" t="e">
+        <f>VLOOKUP(Z4,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE4" s="31" t="e">
+        <f>VLOOKUP(AC4,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH4" s="31" t="e">
+        <f>VLOOKUP(AF4,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK4" s="31" t="e">
+        <f>VLOOKUP(AI4,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROBO</v>
@@ -9215,7 +10314,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="6">
-        <f>H5+_xlfn.IFNA(VLOOKUP(N5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB5,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H5+_xlfn.IFNA(VLOOKUP(N5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF5,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI5,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>19</v>
       </c>
       <c r="J5" s="10">
@@ -9236,18 +10335,50 @@
         <v>58</v>
       </c>
       <c r="O5" s="32"/>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="31">
+        <f>VLOOKUP(N5,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="S5" s="31">
+        <f>VLOOKUP(Q5,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="T5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="26" t="s">
+      <c r="U5" s="51"/>
+      <c r="V5" s="31">
+        <f>VLOOKUP(T5,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="W5" s="26" t="s">
         <v>56</v>
       </c>
+      <c r="Y5" s="31">
+        <f>VLOOKUP(W5,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="AB5" s="31" t="e">
+        <f>VLOOKUP(Z5,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE5" s="31" t="e">
+        <f>VLOOKUP(AC5,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH5" s="31" t="e">
+        <f>VLOOKUP(AF5,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK5" s="31" t="e">
+        <f>VLOOKUP(AI5,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Zappo</v>
@@ -9272,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f>H6+_xlfn.IFNA(VLOOKUP(N6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB6,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H6+_xlfn.IFNA(VLOOKUP(N6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF6,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI6,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>21</v>
       </c>
       <c r="J6" s="10">
@@ -9295,41 +10426,73 @@
       <c r="O6" s="31">
         <v>15</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="31">
+        <f>VLOOKUP(N6,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="Q6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="R6" s="39">
         <v>15</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="S6" s="31">
+        <f>VLOOKUP(Q6,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="T6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="52">
+      <c r="U6" s="52">
         <v>50</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="V6" s="31">
+        <f>VLOOKUP(T6,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="W6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="U6" s="52">
+      <c r="X6" s="52">
         <v>10</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="Y6" s="31">
+        <f>VLOOKUP(W6,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="Z6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="53"/>
-      <c r="X6" s="17" t="s">
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="31">
+        <f>VLOOKUP(Z6,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="AC6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="Y6" s="38">
+      <c r="AD6" s="38">
         <v>20</v>
       </c>
-      <c r="AD6" s="15" t="s">
+      <c r="AE6" s="31">
+        <f>VLOOKUP(AC6,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="AH6" s="31" t="e">
+        <f>VLOOKUP(AF6,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK6" s="31" t="e">
+        <f>VLOOKUP(AI6,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="7"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Flammie</v>
@@ -9354,7 +10517,7 @@
         <v>99</v>
       </c>
       <c r="I7" s="6">
-        <f>H7+_xlfn.IFNA(VLOOKUP(N7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB7,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H7+_xlfn.IFNA(VLOOKUP(N7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF7,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI7,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>99</v>
       </c>
       <c r="J7" s="10">
@@ -9374,19 +10537,51 @@
       <c r="N7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="31">
+        <f>VLOOKUP(N7,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="S7" s="31">
+        <f>VLOOKUP(Q7,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="T7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="52"/>
-      <c r="AD7" s="15" t="s">
+      <c r="U7" s="52"/>
+      <c r="V7" s="31">
+        <f>VLOOKUP(T7,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y7" s="31" t="e">
+        <f>VLOOKUP(W7,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB7" s="31" t="e">
+        <f>VLOOKUP(Z7,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE7" s="31" t="e">
+        <f>VLOOKUP(AC7,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH7" s="31" t="e">
+        <f>VLOOKUP(AF7,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK7" s="31" t="e">
+        <f>VLOOKUP(AI7,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AE7" s="36"/>
+      <c r="AM7" s="36"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Slashy</v>
@@ -9411,7 +10606,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="6">
-        <f>H8+_xlfn.IFNA(VLOOKUP(N8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB8,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H8+_xlfn.IFNA(VLOOKUP(N8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF8,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI8,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>50</v>
       </c>
       <c r="J8" s="10">
@@ -9432,20 +10627,52 @@
         <v>69</v>
       </c>
       <c r="O8" s="33"/>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="31">
+        <f>VLOOKUP(N8,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="40"/>
+      <c r="S8" s="31">
+        <f>VLOOKUP(Q8,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="T8" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="20" t="s">
+      <c r="U8" s="41"/>
+      <c r="V8" s="31">
+        <f>VLOOKUP(T8,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="W8" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="U8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="31">
+        <f>VLOOKUP(W8,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AB8" s="31" t="e">
+        <f>VLOOKUP(Z8,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE8" s="31" t="e">
+        <f>VLOOKUP(AC8,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH8" s="31" t="e">
+        <f>VLOOKUP(AF8,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK8" s="31" t="e">
+        <f>VLOOKUP(AI8,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Revenge</v>
@@ -9470,7 +10697,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="6">
-        <f>H9+_xlfn.IFNA(VLOOKUP(N9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB9,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H9+_xlfn.IFNA(VLOOKUP(N9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF9,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI9,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>9</v>
       </c>
       <c r="J9" s="10">
@@ -9491,12 +10718,44 @@
         <v>78</v>
       </c>
       <c r="O9" s="34"/>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="31">
+        <f>VLOOKUP(N9,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="31">
+        <f>VLOOKUP(Q9,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="V9" s="31" t="e">
+        <f>VLOOKUP(T9,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y9" s="31" t="e">
+        <f>VLOOKUP(W9,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB9" s="31" t="e">
+        <f>VLOOKUP(Z9,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE9" s="31" t="e">
+        <f>VLOOKUP(AC9,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH9" s="31" t="e">
+        <f>VLOOKUP(AF9,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK9" s="31" t="e">
+        <f>VLOOKUP(AI9,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle1</v>
@@ -9521,7 +10780,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="6">
-        <f>H10+_xlfn.IFNA(VLOOKUP(N10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB10,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H10+_xlfn.IFNA(VLOOKUP(N10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF10,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI10,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>9</v>
       </c>
       <c r="J10" s="10">
@@ -9542,8 +10801,40 @@
         <v>82</v>
       </c>
       <c r="O10" s="35"/>
+      <c r="P10" s="31">
+        <f>VLOOKUP(N10,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="S10" s="31" t="e">
+        <f>VLOOKUP(Q10,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V10" s="31" t="e">
+        <f>VLOOKUP(T10,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" s="31" t="e">
+        <f>VLOOKUP(W10,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB10" s="31" t="e">
+        <f>VLOOKUP(Z10,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE10" s="31" t="e">
+        <f>VLOOKUP(AC10,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH10" s="31" t="e">
+        <f>VLOOKUP(AF10,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK10" s="31" t="e">
+        <f>VLOOKUP(AI10,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Turtle2</v>
@@ -9568,7 +10859,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="6">
-        <f>H11+_xlfn.IFNA(VLOOKUP(N11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB11,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H11+_xlfn.IFNA(VLOOKUP(N11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF11,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI11,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>9</v>
       </c>
       <c r="J11" s="10">
@@ -9589,8 +10880,40 @@
         <v>83</v>
       </c>
       <c r="O11" s="35"/>
+      <c r="P11" s="31">
+        <f>VLOOKUP(N11,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="S11" s="31" t="e">
+        <f>VLOOKUP(Q11,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V11" s="31" t="e">
+        <f>VLOOKUP(T11,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" s="31" t="e">
+        <f>VLOOKUP(W11,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB11" s="31" t="e">
+        <f>VLOOKUP(Z11,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE11" s="31" t="e">
+        <f>VLOOKUP(AC11,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH11" s="31" t="e">
+        <f>VLOOKUP(AF11,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK11" s="31" t="e">
+        <f>VLOOKUP(AI11,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Leonardo</v>
@@ -9615,7 +10938,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="6">
-        <f>H12+_xlfn.IFNA(VLOOKUP(N12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB12,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H12+_xlfn.IFNA(VLOOKUP(N12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF12,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI12,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>15</v>
       </c>
       <c r="J12" s="10">
@@ -9636,20 +10959,52 @@
         <v>92</v>
       </c>
       <c r="O12" s="36"/>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="31">
+        <f>VLOOKUP(N12,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="Q12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="36"/>
+      <c r="S12" s="31">
+        <f>VLOOKUP(Q12,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="T12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="T12" s="20" t="s">
+      <c r="U12" s="36"/>
+      <c r="V12" s="31">
+        <f>VLOOKUP(T12,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="W12" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="U12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="31">
+        <f>VLOOKUP(W12,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="AB12" s="31" t="e">
+        <f>VLOOKUP(Z12,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE12" s="31" t="e">
+        <f>VLOOKUP(AC12,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH12" s="31" t="e">
+        <f>VLOOKUP(AF12,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK12" s="31" t="e">
+        <f>VLOOKUP(AI12,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Isis</v>
@@ -9674,7 +11029,7 @@
         <v>99</v>
       </c>
       <c r="I13" s="6">
-        <f>H13+_xlfn.IFNA(VLOOKUP(N13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB13,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H13+_xlfn.IFNA(VLOOKUP(N13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF13,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI13,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>99</v>
       </c>
       <c r="J13" s="10">
@@ -9695,20 +11050,52 @@
         <v>102</v>
       </c>
       <c r="O13" s="37"/>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="31">
+        <f>VLOOKUP(N13,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q13" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="37"/>
+      <c r="S13" s="31">
+        <f>VLOOKUP(Q13,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="T13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="20" t="s">
+      <c r="U13" s="41"/>
+      <c r="V13" s="31">
+        <f>VLOOKUP(T13,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="W13" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="U13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="31">
+        <f>VLOOKUP(W13,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="AB13" s="31" t="e">
+        <f>VLOOKUP(Z13,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE13" s="31" t="e">
+        <f>VLOOKUP(AC13,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH13" s="31" t="e">
+        <f>VLOOKUP(AF13,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK13" s="31" t="e">
+        <f>VLOOKUP(AI13,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EyeUponU</v>
@@ -9733,7 +11120,7 @@
         <v>78</v>
       </c>
       <c r="I14" s="6">
-        <f>H14+_xlfn.IFNA(VLOOKUP(N14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB14,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H14+_xlfn.IFNA(VLOOKUP(N14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF14,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI14,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>78</v>
       </c>
       <c r="J14" s="10">
@@ -9753,29 +11140,61 @@
       <c r="N14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="31">
+        <f>VLOOKUP(N14,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="Q14" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="S14" s="31">
+        <f>VLOOKUP(Q14,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="T14" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="V14" s="31">
+        <f>VLOOKUP(T14,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="W14" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="Y14" s="31">
+        <f>VLOOKUP(W14,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="Z14" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="AB14" s="31">
+        <f>VLOOKUP(Z14,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="AC14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Z14" s="10" t="s">
+      <c r="AE14" s="31">
+        <f>VLOOKUP(AC14,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="AF14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AB14" s="10" t="s">
+      <c r="AH14" s="31">
+        <f>VLOOKUP(AF14,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AI14" s="10" t="s">
         <v>115</v>
       </c>
+      <c r="AK14" s="31">
+        <f>VLOOKUP(AI14,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HypnoToad</v>
@@ -9800,7 +11219,7 @@
         <v>83</v>
       </c>
       <c r="I15" s="6">
-        <f>H15+_xlfn.IFNA(VLOOKUP(N15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(P15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(R15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(V15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(X15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AB15,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
+        <f>H15+_xlfn.IFNA(VLOOKUP(N15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Q15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(T15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(W15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(Z15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AC15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AF15,[1]Weapon!$A$1:$M$259,9,FALSE),0)+_xlfn.IFNA(VLOOKUP(AI15,[1]Weapon!$A$1:$M$259,9,FALSE),0)</f>
         <v>83</v>
       </c>
       <c r="J15" s="10">
@@ -9820,29 +11239,61 @@
       <c r="N15" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="31">
+        <f>VLOOKUP(N15,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="Q15" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="31">
+        <f>VLOOKUP(Q15,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="T15" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="V15" s="31">
+        <f>VLOOKUP(T15,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="W15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="Y15" s="31">
+        <f>VLOOKUP(W15,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="Z15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="AB15" s="31">
+        <f>VLOOKUP(Z15,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AC15" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AE15" s="31">
+        <f>VLOOKUP(AC15,[1]Weapon!$B$1:$G$259,6,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AF15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AH15" s="31"